--- a/Human/Convection_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
+++ b/Human/Convection_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Dose in half symmetry/Fast convection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Human/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F046183-D5FF-4324-88AB-AC8653736E8F}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801504E2-39AD-4312-9984-F420BDD5C075}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
   </bookViews>
@@ -142,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59317904-1CB2-4F02-821F-D90C999A7FF6}">
   <dimension ref="A2:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>259.92767415362988</v>
+        <v>259.92767415374612</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>259.92767415688405</v>
+        <v>259.92767415666799</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>259.92767421512366</v>
+        <v>259.92767421293337</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>259.92767421656748</v>
+        <v>259.92767421408809</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -564,25 +568,25 @@
         <v>0.5</v>
       </c>
       <c r="E6">
-        <v>256.33248900846542</v>
+        <v>256.3321340697857</v>
       </c>
       <c r="G6">
         <v>0.5</v>
       </c>
       <c r="H6">
-        <v>247.02906864876519</v>
+        <v>247.02905501923601</v>
       </c>
       <c r="J6">
         <v>0.5</v>
       </c>
       <c r="K6">
-        <v>258.48338557568439</v>
+        <v>258.48338104085599</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6">
-        <v>253.1595365317059</v>
+        <v>253.15952949733546</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -596,25 +600,25 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>231.05065045455061</v>
+        <v>231.04374097520224</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>184.88324433830488</v>
+        <v>184.88325006038468</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7">
-        <v>250.14608104589919</v>
+        <v>250.14607546174423</v>
       </c>
       <c r="M7">
         <v>1</v>
       </c>
       <c r="N7">
-        <v>216.82492473034361</v>
+        <v>216.82491720424036</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -628,25 +632,25 @@
         <v>1.5</v>
       </c>
       <c r="E8">
-        <v>194.66137044321741</v>
+        <v>194.68271908004257</v>
       </c>
       <c r="G8">
         <v>1.5</v>
       </c>
       <c r="H8">
-        <v>121.54984353694239</v>
+        <v>121.54987368088058</v>
       </c>
       <c r="J8">
         <v>1.5</v>
       </c>
       <c r="K8">
-        <v>239.22495934741696</v>
+        <v>239.22495402016926</v>
       </c>
       <c r="M8">
         <v>1.5</v>
       </c>
       <c r="N8">
-        <v>173.21850108016866</v>
+        <v>173.21849448534076</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -660,25 +664,25 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>159.30359203988525</v>
+        <v>159.31972282160226</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9">
-        <v>75.961286037840935</v>
+        <v>75.961304629928023</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
-        <v>228.53132572707759</v>
+        <v>228.53132032315304</v>
       </c>
       <c r="M9">
         <v>2</v>
       </c>
       <c r="N9">
-        <v>134.74742899050685</v>
+        <v>134.7474219778245</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -692,25 +696,25 @@
         <v>2.5</v>
       </c>
       <c r="E10">
-        <v>128.77446297865853</v>
+        <v>128.7755454392267</v>
       </c>
       <c r="G10">
         <v>2.5</v>
       </c>
       <c r="H10">
-        <v>46.396427611518121</v>
+        <v>46.396451872832159</v>
       </c>
       <c r="J10">
         <v>2.5</v>
       </c>
       <c r="K10">
-        <v>218.69589142939108</v>
+        <v>218.69588666318504</v>
       </c>
       <c r="M10">
         <v>2.5</v>
       </c>
       <c r="N10">
-        <v>103.6488082582573</v>
+        <v>103.64880075856983</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -724,25 +728,25 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>103.68378539903431</v>
+        <v>103.67861122991764</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>28.056034200676734</v>
+        <v>28.056063026101853</v>
       </c>
       <c r="J11">
         <v>3</v>
       </c>
       <c r="K11">
-        <v>209.73413790356867</v>
+        <v>209.73413360242142</v>
       </c>
       <c r="M11">
         <v>3</v>
       </c>
       <c r="N11">
-        <v>79.348196090930614</v>
+        <v>79.348188652330307</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -756,25 +760,25 @@
         <v>3.5</v>
       </c>
       <c r="E12">
-        <v>83.437965701358024</v>
+        <v>83.422619788681502</v>
       </c>
       <c r="G12">
         <v>3.5</v>
       </c>
       <c r="H12">
-        <v>16.884324944459888</v>
+        <v>16.884353643257509</v>
       </c>
       <c r="J12">
         <v>3.5</v>
       </c>
       <c r="K12">
-        <v>201.52109780764741</v>
+        <v>201.52109413698028</v>
       </c>
       <c r="M12">
         <v>3.5</v>
       </c>
       <c r="N12">
-        <v>60.49310707775529</v>
+        <v>60.493100269908489</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -788,25 +792,25 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>67.099065355208339</v>
+        <v>67.088338827362463</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
       <c r="H13">
-        <v>10.136297939539524</v>
+        <v>10.136324052178209</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>193.93113517680962</v>
+        <v>193.93113220621302</v>
       </c>
       <c r="M13">
         <v>4</v>
       </c>
       <c r="N13">
-        <v>46.076844706598045</v>
+        <v>46.076838709110831</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -820,25 +824,25 @@
         <v>4.5</v>
       </c>
       <c r="E14">
-        <v>53.998310570231915</v>
+        <v>54.0128377283243</v>
       </c>
       <c r="G14">
         <v>4.5</v>
       </c>
       <c r="H14">
-        <v>6.0773888676996073</v>
+        <v>6.0774113730216186</v>
       </c>
       <c r="J14">
         <v>4.5</v>
       </c>
       <c r="K14">
-        <v>186.85768968369104</v>
+        <v>186.85768696816902</v>
       </c>
       <c r="M14">
         <v>4.5</v>
       </c>
       <c r="N14">
-        <v>35.052198661944807</v>
+        <v>35.052193860621848</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -852,25 +856,25 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>43.501623401065103</v>
+        <v>43.519256144070177</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15">
-        <v>3.6413226112746373</v>
+        <v>3.6413413080840691</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
       <c r="K15">
-        <v>180.20370179863448</v>
+        <v>180.20369903460551</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15">
-        <v>26.673808258008119</v>
+        <v>26.673804589842977</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -878,25 +882,25 @@
         <v>5.5</v>
       </c>
       <c r="E16">
-        <v>35.064533470229584</v>
+        <v>35.101131275822752</v>
       </c>
       <c r="G16">
         <v>5.5</v>
       </c>
       <c r="H16">
-        <v>2.1804754060765745</v>
+        <v>2.1804802785964981</v>
       </c>
       <c r="J16">
         <v>5.5</v>
       </c>
       <c r="K16">
-        <v>173.89596838866547</v>
+        <v>173.89596562209007</v>
       </c>
       <c r="M16">
         <v>5.5</v>
       </c>
       <c r="N16">
-        <v>20.29691361856759</v>
+        <v>20.296910824203859</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -908,25 +912,25 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>28.288850628017542</v>
+        <v>28.321600816339963</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17">
-        <v>1.3052226910491633</v>
+        <v>1.3052261674165526</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17">
-        <v>167.89639312982052</v>
+        <v>167.8963903761381</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17">
-        <v>15.447582476281067</v>
+        <v>15.447580372008005</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -938,25 +942,25 @@
         <v>6.5</v>
       </c>
       <c r="E18">
-        <v>22.829575749252488</v>
+        <v>22.863782126661935</v>
       </c>
       <c r="G18">
         <v>6.5</v>
       </c>
       <c r="H18">
-        <v>0.78119139838011475</v>
+        <v>0.78119395701542182</v>
       </c>
       <c r="J18">
         <v>6.5</v>
       </c>
       <c r="K18">
-        <v>162.18012144312556</v>
+        <v>162.1801187126454</v>
       </c>
       <c r="M18">
         <v>6.5</v>
       </c>
       <c r="N18">
-        <v>11.760070664762305</v>
+        <v>11.760069111363</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -970,25 +974,25 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>18.426116931808561</v>
+        <v>18.460291047767363</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19">
-        <v>0.467545048284085</v>
+        <v>0.46754697730406664</v>
       </c>
       <c r="J19">
         <v>7</v>
       </c>
       <c r="K19">
-        <v>156.70819325096448</v>
+        <v>156.70819056892577</v>
       </c>
       <c r="M19">
         <v>7</v>
       </c>
       <c r="N19">
-        <v>8.9482232228845273</v>
+        <v>8.9482220815338884</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1002,25 +1006,25 @@
         <v>7.5</v>
       </c>
       <c r="E20">
-        <v>14.879799423315324</v>
+        <v>14.908628615825723</v>
       </c>
       <c r="G20">
         <v>7.5</v>
       </c>
       <c r="H20">
-        <v>0.2799104285537321</v>
+        <v>0.27991189657604437</v>
       </c>
       <c r="J20">
         <v>7.5</v>
       </c>
       <c r="K20">
-        <v>151.45433944201099</v>
+        <v>151.4543367518562</v>
       </c>
       <c r="M20">
         <v>7.5</v>
       </c>
       <c r="N20">
-        <v>6.8123272149062144</v>
+        <v>6.8123263734862283</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1032,25 +1036,25 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>12.012512089733244</v>
+        <v>12.041156733755802</v>
       </c>
       <c r="G21">
         <v>8</v>
       </c>
       <c r="H21">
-        <v>0.16763507942801262</v>
+        <v>0.16763620483214228</v>
       </c>
       <c r="J21">
         <v>8</v>
       </c>
       <c r="K21">
-        <v>146.40754118102487</v>
+        <v>146.40753844588912</v>
       </c>
       <c r="M21">
         <v>8</v>
       </c>
       <c r="N21">
-        <v>5.1838712636418594</v>
+        <v>5.1838706409182169</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1064,25 +1068,25 @@
         <v>8.5</v>
       </c>
       <c r="E22">
-        <v>9.6997119321959619</v>
+        <v>9.7259196143799205</v>
       </c>
       <c r="G22">
         <v>8.5</v>
       </c>
       <c r="H22">
-        <v>0.10040861997108805</v>
+        <v>0.10040948006235852</v>
       </c>
       <c r="J22">
         <v>8.5</v>
       </c>
       <c r="K22">
-        <v>141.54927266267666</v>
+        <v>141.54926988391202</v>
       </c>
       <c r="M22">
         <v>8.5</v>
       </c>
       <c r="N22">
-        <v>3.9459287577553899</v>
+        <v>3.945928294451035</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1096,25 +1100,25 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>7.8342749255108641</v>
+        <v>7.856563256188136</v>
       </c>
       <c r="G23">
         <v>9</v>
       </c>
       <c r="H23">
-        <v>6.0140798608014238E-2</v>
+        <v>6.0141054518139773E-2</v>
       </c>
       <c r="J23">
         <v>9</v>
       </c>
       <c r="K23">
-        <v>136.86306891973382</v>
+        <v>136.863066115246</v>
       </c>
       <c r="M23">
         <v>9</v>
       </c>
       <c r="N23">
-        <v>3.0034682561116153</v>
+        <v>3.0034679105392827</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1122,25 +1126,25 @@
         <v>9.5</v>
       </c>
       <c r="E24">
-        <v>6.3254573173409812</v>
+        <v>6.3461554608051163</v>
       </c>
       <c r="G24">
         <v>9.5</v>
       </c>
       <c r="H24">
-        <v>3.6011469365281254E-2</v>
+        <v>3.6011635861705638E-2</v>
       </c>
       <c r="J24">
         <v>9.5</v>
       </c>
       <c r="K24">
-        <v>132.34031814266584</v>
+        <v>132.34031534064559</v>
       </c>
       <c r="M24">
         <v>9.5</v>
       </c>
       <c r="N24">
-        <v>2.2857168863334474</v>
+        <v>2.2857166280659214</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1148,25 +1152,25 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>5.1086066121075362</v>
+        <v>5.1269048594007778</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
       <c r="H25">
-        <v>2.1562812910365464E-2</v>
+        <v>2.1562925976140655E-2</v>
       </c>
       <c r="J25">
         <v>10</v>
       </c>
       <c r="K25">
-        <v>127.96730151877183</v>
+        <v>127.96729876392514</v>
       </c>
       <c r="M25">
         <v>10</v>
       </c>
       <c r="N25">
-        <v>1.7402384534509208</v>
+        <v>1.7402382601005491</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1174,25 +1178,25 @@
         <v>10.5</v>
       </c>
       <c r="E26">
-        <v>4.1258122061701687</v>
+        <v>4.1412088955548452</v>
       </c>
       <c r="G26">
         <v>10.5</v>
       </c>
       <c r="H26">
-        <v>1.2911363285779656E-2</v>
+        <v>1.2911442913998466E-2</v>
       </c>
       <c r="J26">
         <v>10.5</v>
       </c>
       <c r="K26">
-        <v>123.74871790364466</v>
+        <v>123.74871523503633</v>
       </c>
       <c r="M26">
         <v>10.5</v>
       </c>
       <c r="N26">
-        <v>1.3241267885394927</v>
+        <v>1.3241266437623718</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1200,25 +1204,25 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>3.3315094187321632</v>
+        <v>3.3458207959299138</v>
       </c>
       <c r="G27">
         <v>11</v>
       </c>
       <c r="H27">
-        <v>7.7312298651177006E-3</v>
+        <v>7.731287466974374E-3</v>
       </c>
       <c r="J27">
         <v>11</v>
       </c>
       <c r="K27">
-        <v>119.66880602291759</v>
+        <v>119.66880344320654</v>
       </c>
       <c r="M27">
         <v>11</v>
       </c>
       <c r="N27">
-        <v>1.008029676483835</v>
+        <v>1.008029567858389</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1226,25 +1230,25 @@
         <v>11.5</v>
       </c>
       <c r="E28">
-        <v>2.6910158715972243</v>
+        <v>2.7024487923745113</v>
       </c>
       <c r="G28">
         <v>11.5</v>
       </c>
       <c r="H28">
-        <v>4.6295829454564069E-3</v>
+        <v>4.6296253205140164E-3</v>
       </c>
       <c r="J28">
         <v>11.5</v>
       </c>
       <c r="K28">
-        <v>115.72566682784996</v>
+        <v>115.72566433548539</v>
       </c>
       <c r="M28">
         <v>11.5</v>
       </c>
       <c r="N28">
-        <v>0.76717752937649952</v>
+        <v>0.76717744774803565</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1252,25 +1256,25 @@
         <v>12</v>
       </c>
       <c r="E29">
-        <v>2.1729621256071612</v>
+        <v>2.1834893358478586</v>
       </c>
       <c r="G29">
         <v>12</v>
       </c>
       <c r="H29">
-        <v>2.7724179396970477E-3</v>
+        <v>2.7724493757404559E-3</v>
       </c>
       <c r="J29">
         <v>12</v>
       </c>
       <c r="K29">
-        <v>111.92429110480667</v>
+        <v>111.92428870967383</v>
       </c>
       <c r="M29">
         <v>12</v>
       </c>
       <c r="N29">
-        <v>0.58396292126745819</v>
+        <v>0.58396285979524032</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1278,25 +1282,25 @@
         <v>12.5</v>
       </c>
       <c r="E30">
-        <v>1.7547596287679375</v>
+        <v>1.7635643998126833</v>
       </c>
       <c r="G30">
         <v>12.5</v>
       </c>
       <c r="H30">
-        <v>1.6603736238609387E-3</v>
+        <v>1.6603969950084645E-3</v>
       </c>
       <c r="J30">
         <v>12.5</v>
       </c>
       <c r="K30">
-        <v>108.24207432138623</v>
+        <v>108.24207201793965</v>
       </c>
       <c r="M30">
         <v>12.5</v>
       </c>
       <c r="N30">
-        <v>0.4446131337420719</v>
+        <v>0.4446130874740078</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1304,25 +1308,25 @@
         <v>13</v>
       </c>
       <c r="E31">
-        <v>1.4174065900641657</v>
+        <v>1.4248719213755234</v>
       </c>
       <c r="G31">
         <v>13</v>
       </c>
       <c r="H31">
-        <v>9.9428394879645817E-4</v>
+        <v>9.9429047601400154E-4</v>
       </c>
       <c r="J31">
         <v>13</v>
       </c>
       <c r="K31">
-        <v>104.68257786016103</v>
+        <v>104.68257564549714</v>
       </c>
       <c r="M31">
         <v>13</v>
       </c>
       <c r="N31">
-        <v>0.33837714038280881</v>
+        <v>0.33837710546443384</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1330,25 +1334,25 @@
         <v>13.5</v>
       </c>
       <c r="E32">
-        <v>1.1444449067571698</v>
+        <v>1.150852097892622</v>
       </c>
       <c r="G32">
         <v>13.5</v>
       </c>
       <c r="H32">
-        <v>5.9532828577746799E-4</v>
+        <v>5.9533251637993541E-4</v>
       </c>
       <c r="J32">
         <v>13.5</v>
       </c>
       <c r="K32">
-        <v>101.24970900435055</v>
+        <v>101.24970687812174</v>
       </c>
       <c r="M32">
         <v>13.5</v>
       </c>
       <c r="N32">
-        <v>0.25766233244967984</v>
+        <v>0.25766230603625317</v>
       </c>
     </row>
     <row r="33" spans="4:14" x14ac:dyDescent="0.25">
@@ -1356,25 +1360,25 @@
         <v>14</v>
       </c>
       <c r="E33">
-        <v>0.92425557484097065</v>
+        <v>0.92979154146781706</v>
       </c>
       <c r="G33">
         <v>14</v>
       </c>
       <c r="H33">
-        <v>3.5645780144463258E-4</v>
+        <v>3.564606594826419E-4</v>
       </c>
       <c r="J33">
         <v>14</v>
       </c>
       <c r="K33">
-        <v>97.920590649121053</v>
+        <v>97.920588655195601</v>
       </c>
       <c r="M33">
         <v>14</v>
       </c>
       <c r="N33">
-        <v>0.19610555793428378</v>
+        <v>0.19610553798359356</v>
       </c>
     </row>
     <row r="34" spans="4:14" x14ac:dyDescent="0.25">
@@ -1382,25 +1386,25 @@
         <v>14.5</v>
       </c>
       <c r="E34">
-        <v>0.74645549551389168</v>
+        <v>0.7509879108677564</v>
       </c>
       <c r="G34">
         <v>14.5</v>
       </c>
       <c r="H34">
-        <v>2.1343730692369907E-4</v>
+        <v>2.1343930449913801E-4</v>
       </c>
       <c r="J34">
         <v>14.5</v>
       </c>
       <c r="K34">
-        <v>94.703643976287452</v>
+        <v>94.703642142442092</v>
       </c>
       <c r="M34">
         <v>14.5</v>
       </c>
       <c r="N34">
-        <v>0.14930753003439165</v>
+        <v>0.14930751495291858</v>
       </c>
     </row>
     <row r="35" spans="4:14" x14ac:dyDescent="0.25">
@@ -1408,25 +1412,25 @@
         <v>15</v>
       </c>
       <c r="E35">
-        <v>0.60272715899330309</v>
+        <v>0.60672225747399899</v>
       </c>
       <c r="G35">
         <v>15</v>
       </c>
       <c r="H35">
-        <v>1.2780519546123245E-4</v>
+        <v>1.2780662611150566E-4</v>
       </c>
       <c r="J35">
         <v>15</v>
       </c>
       <c r="K35">
-        <v>91.599719669339635</v>
+        <v>91.599718019624163</v>
       </c>
       <c r="M35">
         <v>15</v>
       </c>
       <c r="N35">
-        <v>0.11366622159716859</v>
+        <v>0.1136662101939134</v>
       </c>
     </row>
     <row r="36" spans="4:14" x14ac:dyDescent="0.25">
@@ -1434,25 +1438,25 @@
         <v>15.5</v>
       </c>
       <c r="E36">
-        <v>0.48682818664019395</v>
+        <v>0.4900660962779369</v>
       </c>
       <c r="G36">
         <v>15.5</v>
       </c>
       <c r="H36">
-        <v>7.6532928855312752E-5</v>
+        <v>7.653396901017594E-5</v>
       </c>
       <c r="J36">
         <v>15.5</v>
       </c>
       <c r="K36">
-        <v>88.588124997899939</v>
+        <v>88.588123528326804</v>
       </c>
       <c r="M36">
         <v>15.5</v>
       </c>
       <c r="N36">
-        <v>8.6522699232465625E-2</v>
+        <v>8.6522690608872341E-2</v>
       </c>
     </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
@@ -1460,25 +1464,25 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>0.3931188698584725</v>
+        <v>0.39591819035732667</v>
       </c>
       <c r="G37">
         <v>16</v>
       </c>
       <c r="H37">
-        <v>4.5832739941402974E-5</v>
+        <v>4.5833501799420314E-5</v>
       </c>
       <c r="J37">
         <v>16</v>
       </c>
       <c r="K37">
-        <v>85.67908969235441</v>
+        <v>85.679088412826886</v>
       </c>
       <c r="M37">
         <v>16</v>
       </c>
       <c r="N37">
-        <v>6.5887984123147031E-2</v>
+        <v>6.588797760252231E-2</v>
       </c>
     </row>
     <row r="38" spans="4:14" x14ac:dyDescent="0.25">
@@ -1486,25 +1490,25 @@
         <v>16.5</v>
       </c>
       <c r="E38">
-        <v>0.31745282764844202</v>
+        <v>0.31980796021270247</v>
       </c>
       <c r="G38">
         <v>16.5</v>
       </c>
       <c r="H38">
-        <v>2.7449682898189258E-5</v>
+        <v>2.7450113266093908E-5</v>
       </c>
       <c r="J38">
         <v>16.5</v>
       </c>
       <c r="K38">
-        <v>82.870431626078641</v>
+        <v>82.870430542869059</v>
       </c>
       <c r="M38">
         <v>16.5</v>
       </c>
       <c r="N38">
-        <v>5.0142465640197864E-2</v>
+        <v>5.0142460713427491E-2</v>
       </c>
     </row>
     <row r="39" spans="4:14" x14ac:dyDescent="0.25">
@@ -1512,25 +1516,25 @@
         <v>17</v>
       </c>
       <c r="E39">
-        <v>0.25642856911844153</v>
+        <v>0.25836316467133841</v>
       </c>
       <c r="G39">
         <v>17</v>
       </c>
       <c r="H39">
-        <v>1.6435571797990078E-5</v>
+        <v>1.6435718510740249E-5</v>
       </c>
       <c r="J39">
         <v>17</v>
       </c>
       <c r="K39">
-        <v>80.146369376000067</v>
+        <v>80.146368469937784</v>
       </c>
       <c r="M39">
         <v>17</v>
       </c>
       <c r="N39">
-        <v>3.8180019267417667E-2</v>
+        <v>3.8180015541006786E-2</v>
       </c>
     </row>
     <row r="40" spans="4:14" x14ac:dyDescent="0.25">
@@ -1538,25 +1542,25 @@
         <v>17.5</v>
       </c>
       <c r="E40">
-        <v>0.20704747598027595</v>
+        <v>0.20870516158860961</v>
       </c>
       <c r="G40">
         <v>17.5</v>
       </c>
       <c r="H40">
-        <v>9.8408424018566424E-6</v>
+        <v>9.8409382212789514E-6</v>
       </c>
       <c r="J40">
         <v>17.5</v>
       </c>
       <c r="K40">
-        <v>77.515238961429304</v>
+        <v>77.515238226811775</v>
       </c>
       <c r="M40">
         <v>17.5</v>
       </c>
       <c r="N40">
-        <v>2.9061693193387955E-2</v>
+        <v>2.906169037701618E-2</v>
       </c>
     </row>
     <row r="41" spans="4:14" x14ac:dyDescent="0.25">
@@ -1564,25 +1568,25 @@
         <v>18</v>
       </c>
       <c r="E41">
-        <v>0.16721294633929959</v>
+        <v>0.1686014769045697</v>
       </c>
       <c r="G41">
         <v>18</v>
       </c>
       <c r="H41">
-        <v>5.8923377718190353E-6</v>
+        <v>5.8924028886897881E-6</v>
       </c>
       <c r="J41">
         <v>18</v>
       </c>
       <c r="K41">
-        <v>74.973482973867704</v>
+        <v>74.973482401442936</v>
       </c>
       <c r="M41">
         <v>18</v>
       </c>
       <c r="N41">
-        <v>2.2124590522818101E-2</v>
+        <v>2.2124588393405909E-2</v>
       </c>
     </row>
     <row r="42" spans="4:14" x14ac:dyDescent="0.25">
@@ -1590,25 +1594,25 @@
         <v>18.5</v>
       </c>
       <c r="E42">
-        <v>0.13505449369196573</v>
+        <v>0.13620184000107038</v>
       </c>
       <c r="G42">
         <v>18.5</v>
       </c>
       <c r="H42">
-        <v>3.5282230584757072E-6</v>
+        <v>3.5282686486757899E-6</v>
       </c>
       <c r="J42">
         <v>18.5</v>
       </c>
       <c r="K42">
-        <v>72.509263130463566</v>
+        <v>72.509262699610701</v>
       </c>
       <c r="M42">
         <v>18.5</v>
       </c>
       <c r="N42">
-        <v>1.6845711707860509E-2</v>
+        <v>1.6845710098388585E-2</v>
       </c>
     </row>
     <row r="43" spans="4:14" x14ac:dyDescent="0.25">
@@ -1616,25 +1620,25 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>0.10905189340643996</v>
+        <v>0.11002596723836912</v>
       </c>
       <c r="G43">
         <v>19</v>
       </c>
       <c r="H43">
-        <v>2.1127248326768915E-6</v>
+        <v>2.1127574187315483E-6</v>
       </c>
       <c r="J43">
         <v>19</v>
       </c>
       <c r="K43">
-        <v>70.129384079753677</v>
+        <v>70.129383776421875</v>
       </c>
       <c r="M43">
         <v>19</v>
       </c>
       <c r="N43">
-        <v>1.2821377406963911E-2</v>
+        <v>1.2821376191045819E-2</v>
       </c>
     </row>
     <row r="44" spans="4:14" x14ac:dyDescent="0.25">
@@ -1642,25 +1646,25 @@
         <v>19.5</v>
       </c>
       <c r="E44">
-        <v>8.808169447513936E-2</v>
+        <v>8.8886723150380778E-2</v>
       </c>
       <c r="G44">
         <v>19.5</v>
       </c>
       <c r="H44">
-        <v>1.2651853178747233E-6</v>
+        <v>1.265208896063921E-6</v>
       </c>
       <c r="J44">
         <v>19.5</v>
       </c>
       <c r="K44">
-        <v>67.826103945979398</v>
+        <v>67.826103757519888</v>
       </c>
       <c r="M44">
         <v>19.5</v>
       </c>
       <c r="N44">
-        <v>9.7632373574654905E-3</v>
+        <v>9.7632364388158255E-3</v>
       </c>
     </row>
     <row r="45" spans="4:14" x14ac:dyDescent="0.25">
@@ -1668,25 +1672,25 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>7.1130800791169999E-2</v>
+        <v>7.1801072077283479E-2</v>
       </c>
       <c r="G45">
         <v>20</v>
       </c>
       <c r="H45">
-        <v>7.5769741049832101E-7</v>
+        <v>7.5771456573349397E-7</v>
       </c>
       <c r="J45">
         <v>20</v>
       </c>
       <c r="K45">
-        <v>65.585676764466257</v>
+        <v>65.585676681242745</v>
       </c>
       <c r="M45">
         <v>20</v>
       </c>
       <c r="N45">
-        <v>7.4306464358438289E-3</v>
+        <v>7.430645742122685E-3</v>
       </c>
     </row>
     <row r="46" spans="4:14" x14ac:dyDescent="0.25">
@@ -1694,25 +1698,25 @@
         <v>20.5</v>
       </c>
       <c r="E46">
-        <v>5.7439516678394566E-2</v>
+        <v>5.8008857204168429E-2</v>
       </c>
       <c r="G46">
         <v>20.5</v>
       </c>
       <c r="H46">
-        <v>4.537463775486363E-7</v>
+        <v>4.5375130682408621E-7</v>
       </c>
       <c r="J46">
         <v>20.5</v>
       </c>
       <c r="K46">
-        <v>63.416990197914977</v>
+        <v>63.416990208422753</v>
       </c>
       <c r="M46">
         <v>20.5</v>
       </c>
       <c r="N46">
-        <v>5.6575264885680475E-3</v>
+        <v>5.6575259642029562E-3</v>
       </c>
     </row>
     <row r="47" spans="4:14" x14ac:dyDescent="0.25">
@@ -1720,25 +1724,25 @@
         <v>21</v>
       </c>
       <c r="E47">
-        <v>4.6399135948019234E-2</v>
+        <v>4.6856321928956411E-2</v>
       </c>
       <c r="G47">
         <v>21</v>
       </c>
       <c r="H47">
-        <v>2.7168040940347267E-7</v>
+        <v>2.7168352905789618E-7</v>
       </c>
       <c r="J47">
         <v>21</v>
       </c>
       <c r="K47">
-        <v>61.320044246326319</v>
+        <v>61.32004433906004</v>
       </c>
       <c r="M47">
         <v>21</v>
       </c>
       <c r="N47">
-        <v>4.3068931483887865E-3</v>
+        <v>4.3068927522450342E-3</v>
       </c>
     </row>
     <row r="48" spans="4:14" x14ac:dyDescent="0.25">
@@ -1746,25 +1750,25 @@
         <v>21.5</v>
       </c>
       <c r="E48">
-        <v>3.7463884763045942E-2</v>
+        <v>3.7857773397960703E-2</v>
       </c>
       <c r="G48">
         <v>21.5</v>
       </c>
       <c r="H48">
-        <v>1.6267044161867681E-7</v>
+        <v>1.6267250028757701E-7</v>
       </c>
       <c r="J48">
         <v>21.5</v>
       </c>
       <c r="K48">
-        <v>59.294838909700715</v>
+        <v>59.294839073154314</v>
       </c>
       <c r="M48">
         <v>21.5</v>
       </c>
       <c r="N48">
-        <v>3.2784867677617996E-3</v>
+        <v>3.2784864684440736E-3</v>
       </c>
     </row>
     <row r="49" spans="4:14" x14ac:dyDescent="0.25">
@@ -1772,25 +1776,25 @@
         <v>22</v>
       </c>
       <c r="E49">
-        <v>3.0255524053698815E-2</v>
+        <v>3.0577849288670914E-2</v>
       </c>
       <c r="G49">
         <v>22</v>
       </c>
       <c r="H49">
-        <v>9.7402275945253755E-8</v>
+        <v>9.7403683698452467E-8</v>
       </c>
       <c r="J49">
         <v>22</v>
       </c>
       <c r="K49">
-        <v>57.34137418803774</v>
+        <v>57.341374410705427</v>
       </c>
       <c r="M49">
         <v>22</v>
       </c>
       <c r="N49">
-        <v>2.4966206231083156E-3</v>
+        <v>2.4966203969594681E-3</v>
       </c>
     </row>
     <row r="50" spans="4:14" x14ac:dyDescent="0.25">
@@ -1798,25 +1802,25 @@
         <v>22.5</v>
       </c>
       <c r="E50">
-        <v>2.4437501227021114E-2</v>
+        <v>2.4705946306070231E-2</v>
       </c>
       <c r="G50">
         <v>22.5</v>
       </c>
       <c r="H50">
-        <v>5.8323687935613862E-8</v>
+        <v>5.8324676630455811E-8</v>
       </c>
       <c r="J50">
         <v>22.5</v>
       </c>
       <c r="K50">
-        <v>55.443450381851122</v>
+        <v>55.443450657048608</v>
       </c>
       <c r="M50">
         <v>22.5</v>
       </c>
       <c r="N50">
-        <v>1.8999666313280743E-3</v>
+        <v>1.899966460573374E-3</v>
       </c>
     </row>
     <row r="51" spans="4:14" x14ac:dyDescent="0.25">
@@ -1824,25 +1828,25 @@
         <v>23</v>
       </c>
       <c r="E51">
-        <v>1.9732256489413944E-2</v>
+        <v>1.9954792745558017E-2</v>
       </c>
       <c r="G51">
         <v>23</v>
       </c>
       <c r="H51">
-        <v>3.4925438926134698E-8</v>
+        <v>3.4926145580900371E-8</v>
       </c>
       <c r="J51">
         <v>23</v>
       </c>
       <c r="K51">
-        <v>53.599893668518192</v>
+        <v>53.599893990338821</v>
       </c>
       <c r="M51">
         <v>23</v>
       </c>
       <c r="N51">
-        <v>1.4467122833552541E-3</v>
+        <v>1.4467121542668022E-3</v>
       </c>
     </row>
     <row r="52" spans="4:14" x14ac:dyDescent="0.25">
@@ -1850,25 +1854,25 @@
         <v>23.5</v>
       </c>
       <c r="E52">
-        <v>1.5937410858366426E-2</v>
+        <v>1.6122565907022761E-2</v>
       </c>
       <c r="G52">
         <v>23.5</v>
       </c>
       <c r="H52">
-        <v>2.0915379229869364E-8</v>
+        <v>2.0915889210730172E-8</v>
       </c>
       <c r="J52">
         <v>23.5</v>
       </c>
       <c r="K52">
-        <v>51.81966374588589</v>
+        <v>51.8196641054518</v>
       </c>
       <c r="M52">
         <v>23.5</v>
       </c>
       <c r="N52">
-        <v>1.1011761105372885E-3</v>
+        <v>1.1011760130267938E-3</v>
       </c>
     </row>
     <row r="53" spans="4:14" x14ac:dyDescent="0.25">
@@ -1876,25 +1880,25 @@
         <v>24</v>
       </c>
       <c r="E53">
-        <v>1.2870807966198838E-2</v>
+        <v>1.3022344160616527E-2</v>
       </c>
       <c r="G53">
         <v>24</v>
       </c>
       <c r="H53">
-        <v>1.2526302546315531E-8</v>
+        <v>1.252667197330015E-8</v>
       </c>
       <c r="J53">
         <v>24</v>
       </c>
       <c r="K53">
-        <v>50.102760613954665</v>
+        <v>50.102761002387531</v>
       </c>
       <c r="M53">
         <v>24</v>
       </c>
       <c r="N53">
-        <v>8.3833944201834609E-4</v>
+        <v>8.3833936832538388E-4</v>
       </c>
     </row>
     <row r="54" spans="4:14" x14ac:dyDescent="0.25">
@@ -1902,25 +1906,25 @@
         <v>24.5</v>
       </c>
       <c r="E54">
-        <v>1.0393269401246897E-2</v>
+        <v>1.0521240853017731E-2</v>
       </c>
       <c r="G54">
         <v>24.5</v>
       </c>
       <c r="H54">
-        <v>7.500426634486157E-9</v>
+        <v>7.500526100894078E-9</v>
       </c>
       <c r="J54">
         <v>24.5</v>
       </c>
       <c r="K54">
-        <v>48.449184272723755</v>
+        <v>48.449184681145866</v>
       </c>
       <c r="M54">
         <v>24.5</v>
       </c>
       <c r="N54">
-        <v>6.3829204434519434E-4</v>
+        <v>6.3829198867817289E-4</v>
       </c>
     </row>
     <row r="55" spans="4:14" x14ac:dyDescent="0.25">
@@ -1928,25 +1932,25 @@
         <v>25</v>
       </c>
       <c r="E55">
-        <v>8.3956332224549169E-3</v>
+        <v>8.4983176392832357E-3</v>
       </c>
       <c r="G55">
         <v>25</v>
       </c>
       <c r="H55">
-        <v>4.490894052313503E-9</v>
+        <v>4.4909579005525717E-9</v>
       </c>
       <c r="J55">
         <v>25</v>
       </c>
       <c r="K55">
-        <v>46.858934722193631</v>
+        <v>46.858935141727265</v>
       </c>
       <c r="M55">
         <v>25</v>
       </c>
       <c r="N55">
-        <v>4.8582162904043204E-4</v>
+        <v>4.8582158700687648E-4</v>
       </c>
     </row>
     <row r="56" spans="4:14" x14ac:dyDescent="0.25">
@@ -1954,25 +1958,25 @@
         <v>25.5</v>
       </c>
       <c r="E56">
-        <v>6.7789087069407084E-3</v>
+        <v>6.8659405302657862E-3</v>
       </c>
       <c r="G56">
         <v>25.5</v>
       </c>
       <c r="H56">
-        <v>2.6889763010749266E-9</v>
+        <v>2.6890189362040207E-9</v>
       </c>
       <c r="J56">
         <v>25.5</v>
       </c>
       <c r="K56">
-        <v>45.302052508425632</v>
+        <v>45.30205293951169</v>
       </c>
       <c r="M56">
         <v>25.5</v>
       </c>
       <c r="N56">
-        <v>3.6994755900385267E-4</v>
+        <v>3.6994752726608835E-4</v>
       </c>
     </row>
     <row r="57" spans="4:14" x14ac:dyDescent="0.25">
@@ -1980,25 +1984,25 @@
         <v>26</v>
       </c>
       <c r="E57">
-        <v>5.4744761665228873E-3</v>
+        <v>5.5459859643594281E-3</v>
       </c>
       <c r="G57">
         <v>26</v>
       </c>
       <c r="H57">
-        <v>1.610102659139023E-9</v>
+        <v>1.6101320531640274E-9</v>
       </c>
       <c r="J57">
         <v>26</v>
       </c>
       <c r="K57">
-        <v>43.792416515448949</v>
+        <v>43.792416954687233</v>
       </c>
       <c r="M57">
         <v>26</v>
       </c>
       <c r="N57">
-        <v>2.8155616708959864E-4</v>
+        <v>2.8155614313884699E-4</v>
       </c>
     </row>
     <row r="58" spans="4:14" x14ac:dyDescent="0.25">
@@ -2006,25 +2010,25 @@
         <v>26.5</v>
       </c>
       <c r="E58">
-        <v>4.4218695411123166E-3</v>
+        <v>4.4805727027953587E-3</v>
       </c>
       <c r="G58">
         <v>26.5</v>
       </c>
       <c r="H58">
-        <v>9.64135354919462E-10</v>
+        <v>9.6415608743681136E-10</v>
       </c>
       <c r="J58">
         <v>26.5</v>
       </c>
       <c r="K58">
-        <v>42.335190950021662</v>
+        <v>42.335191392066513</v>
       </c>
       <c r="M58">
         <v>26.5</v>
       </c>
       <c r="N58">
-        <v>2.1437400793927741E-4</v>
+        <v>2.1437398984600775E-4</v>
       </c>
     </row>
     <row r="59" spans="4:14" x14ac:dyDescent="0.25">
@@ -2032,25 +2036,25 @@
         <v>27</v>
       </c>
       <c r="E59">
-        <v>3.5704379459768321E-3</v>
+        <v>3.6193182092476186E-3</v>
       </c>
       <c r="G59">
         <v>27</v>
       </c>
       <c r="H59">
-        <v>5.773591570478157E-10</v>
+        <v>5.773739887082386E-10</v>
       </c>
       <c r="J59">
         <v>27</v>
       </c>
       <c r="K59">
-        <v>40.930375812145257</v>
+        <v>40.93037625164952</v>
       </c>
       <c r="M59">
         <v>27</v>
       </c>
       <c r="N59">
-        <v>1.6319149202788865E-4</v>
+        <v>1.6319147836838964E-4</v>
       </c>
     </row>
     <row r="60" spans="4:14" x14ac:dyDescent="0.25">
@@ -2058,25 +2062,25 @@
         <v>27.5</v>
       </c>
       <c r="E60">
-        <v>2.8837077904407451E-3</v>
+        <v>2.9239341339593189E-3</v>
       </c>
       <c r="G60">
         <v>27.5</v>
       </c>
       <c r="H60">
-        <v>3.457672241565358E-10</v>
+        <v>3.4577791051689743E-10</v>
       </c>
       <c r="J60">
         <v>27.5</v>
       </c>
       <c r="K60">
-        <v>39.577971101819152</v>
+        <v>39.577971533436092</v>
       </c>
       <c r="M60">
         <v>27.5</v>
       </c>
       <c r="N60">
-        <v>1.2422731631530408E-4</v>
+        <v>1.2422730600075601E-4</v>
       </c>
     </row>
     <row r="61" spans="4:14" x14ac:dyDescent="0.25">
@@ -2084,25 +2088,25 @@
         <v>28</v>
       </c>
       <c r="E61">
-        <v>2.3289185386314525E-3</v>
+        <v>2.3619850740671028E-3</v>
       </c>
       <c r="G61">
         <v>28</v>
       </c>
       <c r="H61">
-        <v>2.0706866433740185E-10</v>
+        <v>2.0707180526314282E-10</v>
       </c>
       <c r="J61">
         <v>28</v>
       </c>
       <c r="K61">
-        <v>38.276472742112624</v>
+        <v>38.276473160811861</v>
       </c>
       <c r="M61">
         <v>28</v>
       </c>
       <c r="N61">
-        <v>9.4599380936351778E-5</v>
+        <v>9.459937314928413E-5</v>
       </c>
     </row>
     <row r="62" spans="4:14" x14ac:dyDescent="0.25">
@@ -2110,25 +2114,25 @@
         <v>28.5</v>
       </c>
       <c r="E62">
-        <v>1.8805906082479708E-3</v>
+        <v>1.9081053979298217E-3</v>
       </c>
       <c r="G62">
         <v>28.5</v>
       </c>
       <c r="H62">
-        <v>1.2398217131248127E-10</v>
+        <v>1.2398413348087051E-10</v>
       </c>
       <c r="J62">
         <v>28.5</v>
       </c>
       <c r="K62">
-        <v>36.998481309498892</v>
+        <v>36.998481721354416</v>
       </c>
       <c r="M62">
         <v>28.5</v>
       </c>
       <c r="N62">
-        <v>7.1992393136737911E-5</v>
+        <v>7.1992387262391139E-5</v>
       </c>
     </row>
     <row r="63" spans="4:14" x14ac:dyDescent="0.25">
@@ -2136,25 +2140,25 @@
         <v>29</v>
       </c>
       <c r="E63">
-        <v>1.5190841825712821E-3</v>
+        <v>1.5414523269876208E-3</v>
       </c>
       <c r="G63">
         <v>29</v>
       </c>
       <c r="H63">
-        <v>7.4234998373151826E-11</v>
+        <v>7.4236276568064233E-11</v>
       </c>
       <c r="J63">
         <v>29</v>
       </c>
       <c r="K63">
-        <v>35.764073216667036</v>
+        <v>35.764073619764638</v>
       </c>
       <c r="M63">
         <v>29</v>
       </c>
       <c r="N63">
-        <v>5.4818639769867003E-5</v>
+        <v>5.4818635338116938E-5</v>
       </c>
     </row>
     <row r="64" spans="4:14" x14ac:dyDescent="0.25">
@@ -2162,25 +2166,25 @@
         <v>29.5</v>
       </c>
       <c r="E64">
-        <v>1.2266113350378424E-3</v>
+        <v>1.2451968396394156E-3</v>
       </c>
       <c r="G64">
         <v>29.5</v>
       </c>
       <c r="H64">
-        <v>4.4449584693256321E-11</v>
+        <v>4.4450448250138945E-11</v>
       </c>
       <c r="J64">
         <v>29.5</v>
       </c>
       <c r="K64">
-        <v>34.573248463618256</v>
+        <v>34.57324885604298</v>
       </c>
       <c r="M64">
         <v>29.5</v>
       </c>
       <c r="N64">
-        <v>4.1724690308766274E-5</v>
+        <v>4.1724686966568878E-5</v>
       </c>
     </row>
     <row r="65" spans="4:14" x14ac:dyDescent="0.25">
@@ -2188,25 +2192,25 @@
         <v>30</v>
       </c>
       <c r="E65">
-        <v>9.9056094851347407E-4</v>
+        <v>1.0059717997490279E-3</v>
       </c>
       <c r="G65">
         <v>30</v>
       </c>
       <c r="H65">
-        <v>2.6615920384903535E-11</v>
+        <v>2.6616520404525853E-11</v>
       </c>
       <c r="J65">
         <v>30</v>
       </c>
       <c r="K65">
-        <v>33.426007050351352</v>
+        <v>33.426007430189458</v>
       </c>
       <c r="M65">
         <v>30</v>
       </c>
       <c r="N65">
-        <v>3.1766160417464686E-5</v>
+        <v>3.1766157894853415E-5</v>
       </c>
     </row>
     <row r="66" spans="4:14" x14ac:dyDescent="0.25">
@@ -2214,25 +2218,25 @@
         <v>30.5</v>
       </c>
       <c r="E66">
-        <v>8.001202260190909E-4</v>
+        <v>8.1259602556162775E-4</v>
       </c>
       <c r="G66">
         <v>30.5</v>
       </c>
       <c r="H66">
-        <v>1.5938065801789583E-11</v>
+        <v>1.5938490705790923E-11</v>
       </c>
       <c r="J66">
         <v>30.5</v>
       </c>
       <c r="K66">
-        <v>32.322348976867232</v>
+        <v>32.322349342203907</v>
       </c>
       <c r="M66">
         <v>30.5</v>
       </c>
       <c r="N66">
-        <v>2.4185223983785305E-5</v>
+        <v>2.418522208059281E-5</v>
       </c>
     </row>
     <row r="67" spans="4:14" x14ac:dyDescent="0.25">
@@ -2240,25 +2244,25 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>6.4605118057347363E-4</v>
+        <v>6.5651472396701402E-4</v>
       </c>
       <c r="G67">
         <v>31</v>
       </c>
       <c r="H67">
-        <v>9.5445618805912928E-12</v>
+        <v>9.5448661147998667E-12</v>
       </c>
       <c r="J67">
         <v>31</v>
       </c>
       <c r="K67">
-        <v>31.25573258310915</v>
+        <v>31.25573293317094</v>
       </c>
       <c r="M67">
         <v>31</v>
       </c>
       <c r="N67">
-        <v>1.8408537758775576E-5</v>
+        <v>1.8408536323031691E-5</v>
       </c>
     </row>
     <row r="68" spans="4:14" x14ac:dyDescent="0.25">
@@ -2266,25 +2270,25 @@
         <v>31.5</v>
       </c>
       <c r="E68">
-        <v>5.2177811879685059E-4</v>
+        <v>5.3028894737691635E-4</v>
       </c>
       <c r="G68">
         <v>31.5</v>
       </c>
       <c r="H68">
-        <v>5.7162195228385312E-12</v>
+        <v>5.7164384223719556E-12</v>
       </c>
       <c r="J68">
         <v>31.5</v>
       </c>
       <c r="K68">
-        <v>30.211487104353814</v>
+        <v>30.211487442001676</v>
       </c>
       <c r="M68">
         <v>31.5</v>
       </c>
       <c r="N68">
-        <v>1.4018014314176406E-5</v>
+        <v>1.4018013231112227E-5</v>
       </c>
     </row>
     <row r="69" spans="4:14" x14ac:dyDescent="0.25">
@@ -2292,25 +2296,25 @@
         <v>32</v>
       </c>
       <c r="E69">
-        <v>4.2140829600303422E-4</v>
+        <v>4.2845606010331248E-4</v>
       </c>
       <c r="G69">
         <v>32</v>
       </c>
       <c r="H69">
-        <v>3.4228434067053433E-12</v>
+        <v>3.4229035085702571E-12</v>
       </c>
       <c r="J69">
         <v>32</v>
       </c>
       <c r="K69">
-        <v>29.203266831658343</v>
+        <v>29.203267156611552</v>
       </c>
       <c r="M69">
         <v>32</v>
       </c>
       <c r="N69">
-        <v>1.0668513275221738E-5</v>
+        <v>1.0668512458662416E-5</v>
       </c>
     </row>
     <row r="70" spans="4:14" x14ac:dyDescent="0.25">
@@ -2318,25 +2322,25 @@
         <v>32.5</v>
       </c>
       <c r="E70">
-        <v>3.402805109053349E-4</v>
+        <v>3.4606033234017158E-4</v>
       </c>
       <c r="G70">
         <v>32.5</v>
       </c>
       <c r="H70">
-        <v>2.0494309632273428E-12</v>
+        <v>2.0494691313368986E-12</v>
       </c>
       <c r="J70">
         <v>32.5</v>
       </c>
       <c r="K70">
-        <v>28.23107176502214</v>
+        <v>28.231072077000423</v>
       </c>
       <c r="M70">
         <v>32.5</v>
       </c>
       <c r="N70">
-        <v>8.1230247417698681E-6</v>
+        <v>8.1230241254066945E-6</v>
       </c>
     </row>
     <row r="71" spans="4:14" x14ac:dyDescent="0.25">
@@ -2344,25 +2348,25 @@
         <v>33</v>
       </c>
       <c r="E71">
-        <v>2.7485996636997272E-4</v>
+        <v>2.7960469851217321E-4</v>
       </c>
       <c r="G71">
         <v>33</v>
       </c>
       <c r="H71">
-        <v>1.2271178854574113E-12</v>
+        <v>1.2271431111832033E-12</v>
       </c>
       <c r="J71">
         <v>33</v>
       </c>
       <c r="K71">
-        <v>27.294901904445936</v>
+        <v>27.294902203168139</v>
       </c>
       <c r="M71">
         <v>33</v>
       </c>
       <c r="N71">
-        <v>6.1834588285087232E-6</v>
+        <v>6.1834583636132426E-6</v>
       </c>
     </row>
     <row r="72" spans="4:14" x14ac:dyDescent="0.25">
@@ -2370,25 +2374,25 @@
         <v>33.5</v>
       </c>
       <c r="E72">
-        <v>2.2194972382785013E-4</v>
+        <v>2.2583569757228425E-4</v>
       </c>
       <c r="G72">
         <v>33.5</v>
       </c>
       <c r="H72">
-        <v>7.3476942071808985E-13</v>
+        <v>7.3478665137394733E-13</v>
       </c>
       <c r="J72">
         <v>33.5</v>
       </c>
       <c r="K72">
-        <v>26.394757249929594</v>
+        <v>26.394757535114699</v>
       </c>
       <c r="M72">
         <v>33.5</v>
       </c>
       <c r="N72">
-        <v>4.7071820842560871E-6</v>
+        <v>4.7071817334914029E-6</v>
       </c>
     </row>
     <row r="73" spans="4:14" x14ac:dyDescent="0.25">
@@ -2396,25 +2400,25 @@
         <v>34</v>
       </c>
       <c r="E73">
-        <v>1.7923414609018459E-4</v>
+        <v>1.8246399640787437E-4</v>
       </c>
       <c r="G73">
         <v>34</v>
       </c>
       <c r="H73">
-        <v>4.3998010767102386E-13</v>
+        <v>4.3999216401175296E-13</v>
       </c>
       <c r="J73">
         <v>34</v>
       </c>
       <c r="K73">
-        <v>25.520440465510994</v>
+        <v>25.520440737555493</v>
       </c>
       <c r="M73">
         <v>34</v>
       </c>
       <c r="N73">
-        <v>3.5843957023020539E-6</v>
+        <v>3.5843954377479201E-6</v>
       </c>
     </row>
     <row r="74" spans="4:14" x14ac:dyDescent="0.25">
@@ -2422,25 +2426,25 @@
         <v>34.5</v>
       </c>
       <c r="E74">
-        <v>1.4477869151711508E-4</v>
+        <v>1.4737880974848973E-4</v>
       </c>
       <c r="G74">
         <v>34.5</v>
       </c>
       <c r="H74">
-        <v>2.634740900995504E-13</v>
+        <v>2.6348265686049849E-13</v>
       </c>
       <c r="J74">
         <v>34.5</v>
       </c>
       <c r="K74">
-        <v>24.667683693372656</v>
+        <v>24.667683953525763</v>
       </c>
       <c r="M74">
         <v>34.5</v>
       </c>
       <c r="N74">
-        <v>2.7278946388862692E-6</v>
+        <v>2.7278944394928E-6</v>
       </c>
     </row>
     <row r="75" spans="4:14" x14ac:dyDescent="0.25">
@@ -2448,25 +2452,25 @@
         <v>35</v>
       </c>
       <c r="E75">
-        <v>1.1689953495700044E-4</v>
+        <v>1.1907211176498888E-4</v>
       </c>
       <c r="G75">
         <v>35</v>
       </c>
       <c r="H75">
-        <v>1.5736308253425976E-13</v>
+        <v>1.5735352050348148E-13</v>
       </c>
       <c r="J75">
         <v>35</v>
       </c>
       <c r="K75">
-        <v>23.844627364780134</v>
+        <v>23.844627613346706</v>
       </c>
       <c r="M75">
         <v>35</v>
       </c>
       <c r="N75">
-        <v>2.0771813074542268E-6</v>
+        <v>2.0771811571779971E-6</v>
       </c>
     </row>
     <row r="76" spans="4:14" x14ac:dyDescent="0.25">
@@ -2474,25 +2478,25 @@
         <v>35.5</v>
       </c>
       <c r="E76">
-        <v>9.4410740392350753E-5</v>
+        <v>9.6178805395525309E-5</v>
       </c>
       <c r="G76">
         <v>35.5</v>
       </c>
       <c r="H76">
-        <v>9.3222079424973384E-14</v>
+        <v>9.3189123120745277E-14</v>
       </c>
       <c r="J76">
         <v>35.5</v>
       </c>
       <c r="K76">
-        <v>23.05127147973344</v>
+        <v>23.051271717018174</v>
       </c>
       <c r="M76">
         <v>35.5</v>
       </c>
       <c r="N76">
-        <v>1.5809929617528346E-6</v>
+        <v>1.5809928485430666E-6</v>
       </c>
     </row>
     <row r="77" spans="4:14" x14ac:dyDescent="0.25">
@@ -2500,25 +2504,25 @@
         <v>36</v>
       </c>
       <c r="E77">
-        <v>7.6252140511206268E-5</v>
+        <v>7.7703974832444569E-5</v>
       </c>
       <c r="G77">
         <v>36</v>
       </c>
       <c r="H77">
-        <v>5.5134011476526845E-14</v>
+        <v>5.5147361601880959E-14</v>
       </c>
       <c r="J77">
         <v>36</v>
       </c>
       <c r="K77">
-        <v>22.287616038232564</v>
+        <v>22.28761626454002</v>
       </c>
       <c r="M77">
         <v>36</v>
       </c>
       <c r="N77">
-        <v>1.2036763269132067E-6</v>
+        <v>1.2036762415449366E-6</v>
       </c>
     </row>
     <row r="78" spans="4:14" x14ac:dyDescent="0.25">
@@ -2526,25 +2530,25 @@
         <v>36.5</v>
       </c>
       <c r="E78">
-        <v>6.1571608679508418E-5</v>
+        <v>6.2766190842682127E-5</v>
       </c>
       <c r="G78">
         <v>36.5</v>
       </c>
       <c r="H78">
-        <v>3.2638631255413024E-14</v>
+        <v>3.2650133874580651E-14</v>
       </c>
       <c r="J78">
         <v>36.5</v>
       </c>
       <c r="K78">
-        <v>21.553661040277809</v>
+        <v>21.553661255912697</v>
       </c>
       <c r="M78">
         <v>36.5</v>
       </c>
       <c r="N78">
-        <v>9.1639225018519208E-7</v>
+        <v>9.1639218584813944E-7</v>
       </c>
     </row>
     <row r="79" spans="4:14" x14ac:dyDescent="0.25">
@@ -2552,25 +2556,25 @@
         <v>37</v>
       </c>
       <c r="E79">
-        <v>4.9732724454845957E-5</v>
+        <v>5.0708045159370028E-5</v>
       </c>
       <c r="G79">
         <v>37</v>
       </c>
       <c r="H79">
-        <v>1.9353035853132082E-14</v>
+        <v>1.9359845100005984E-14</v>
       </c>
       <c r="J79">
         <v>37</v>
       </c>
       <c r="K79">
-        <v>20.836769510240643</v>
+        <v>20.83676971551705</v>
       </c>
       <c r="M79">
         <v>37</v>
       </c>
       <c r="N79">
-        <v>6.9752860391252245E-7</v>
+        <v>6.9752855542448201E-7</v>
       </c>
     </row>
     <row r="80" spans="4:14" x14ac:dyDescent="0.25">
@@ -2578,25 +2582,25 @@
         <v>37.5</v>
       </c>
       <c r="E80">
-        <v>4.0160816929907512E-5</v>
+        <v>4.0961364087290674E-5</v>
       </c>
       <c r="G80">
         <v>37.5</v>
       </c>
       <c r="H80">
-        <v>1.1474623451187025E-14</v>
+        <v>1.1477973150221104E-14</v>
       </c>
       <c r="J80">
         <v>37.5</v>
       </c>
       <c r="K80">
-        <v>20.140583571060205</v>
+        <v>20.14058376665891</v>
       </c>
       <c r="M80">
         <v>37.5</v>
       </c>
       <c r="N80">
-        <v>5.3116915158645756E-7</v>
+        <v>5.311691150485121E-7</v>
       </c>
     </row>
     <row r="81" spans="4:14" x14ac:dyDescent="0.25">
@@ -2604,25 +2608,25 @@
         <v>38</v>
       </c>
       <c r="E81">
-        <v>3.2431052895485682E-5</v>
+        <v>3.3091092660422526E-5</v>
       </c>
       <c r="G81">
         <v>38</v>
       </c>
       <c r="H81">
-        <v>6.560729722029749E-15</v>
+        <v>6.5628473023934547E-15</v>
       </c>
       <c r="J81">
         <v>38</v>
       </c>
       <c r="K81">
-        <v>19.468856079233383</v>
+        <v>19.468856265569357</v>
       </c>
       <c r="M81">
         <v>38</v>
       </c>
       <c r="N81">
-        <v>4.0424361015447763E-7</v>
+        <v>4.042435826384137E-7</v>
       </c>
     </row>
     <row r="82" spans="4:14" x14ac:dyDescent="0.25">
@@ -2630,25 +2634,25 @@
         <v>38.5</v>
       </c>
       <c r="E82">
-        <v>2.6197150883419044E-5</v>
+        <v>2.6731632326361308E-5</v>
       </c>
       <c r="G82">
         <v>38.5</v>
       </c>
       <c r="H82">
-        <v>3.6269730070614317E-15</v>
+        <v>3.6280087821334709E-15</v>
       </c>
       <c r="J82">
         <v>38.5</v>
       </c>
       <c r="K82">
-        <v>18.821587034760331</v>
+        <v>18.821587212248239</v>
       </c>
       <c r="M82">
         <v>38.5</v>
       </c>
       <c r="N82">
-        <v>3.0779640034655893E-7</v>
+        <v>3.0779637959720183E-7</v>
       </c>
     </row>
     <row r="83" spans="4:14" x14ac:dyDescent="0.25">
@@ -2656,25 +2660,25 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>2.1152371489375442E-5</v>
+        <v>2.1594646915405922E-5</v>
       </c>
       <c r="G83">
         <v>39</v>
       </c>
       <c r="H83">
-        <v>1.9886657261067174E-15</v>
+        <v>1.9890065033910198E-15</v>
       </c>
       <c r="J83">
         <v>39</v>
       </c>
       <c r="K83">
-        <v>18.1987764376412</v>
+        <v>18.198776606695407</v>
       </c>
       <c r="M83">
         <v>39</v>
       </c>
       <c r="N83">
-        <v>2.3429659093744397E-7</v>
+        <v>2.3429657530479458E-7</v>
       </c>
     </row>
     <row r="84" spans="4:14" x14ac:dyDescent="0.25">
@@ -2682,25 +2686,25 @@
         <v>39.5</v>
       </c>
       <c r="E84">
-        <v>1.7082752421199429E-5</v>
+        <v>1.7445329116602938E-5</v>
       </c>
       <c r="G84">
         <v>39.5</v>
       </c>
       <c r="H84">
-        <v>1.091631118937979E-15</v>
+        <v>1.0917063415999943E-15</v>
       </c>
       <c r="J84">
         <v>39.5</v>
       </c>
       <c r="K84">
-        <v>17.600424287875242</v>
+        <v>17.600424448911014</v>
       </c>
       <c r="M84">
         <v>39.5</v>
       </c>
       <c r="N84">
-        <v>1.7836314141329551E-7</v>
+        <v>1.7836312963050217E-7</v>
       </c>
     </row>
     <row r="85" spans="4:14" x14ac:dyDescent="0.25">
@@ -2708,25 +2712,25 @@
         <v>40</v>
       </c>
       <c r="E85">
-        <v>1.3797526785248418E-5</v>
+        <v>1.4092304718905636E-5</v>
       </c>
       <c r="G85">
         <v>40</v>
       </c>
       <c r="H85">
-        <v>6.0111655016872219E-16</v>
+        <v>6.0111949346002576E-16</v>
       </c>
       <c r="J85">
         <v>40</v>
       </c>
       <c r="K85">
-        <v>17.012422016856458</v>
+        <v>17.012422169883482</v>
       </c>
       <c r="M85">
         <v>40</v>
       </c>
       <c r="N85">
-        <v>1.3581391821917774E-7</v>
+        <v>1.358139093430901E-7</v>
       </c>
     </row>
     <row r="86" spans="4:14" x14ac:dyDescent="0.25">
@@ -2734,25 +2738,25 @@
         <v>40.5</v>
       </c>
       <c r="E86">
-        <v>1.1141012695156093E-5</v>
+        <v>1.1385069031953365E-5</v>
       </c>
       <c r="G86">
         <v>40.5</v>
       </c>
       <c r="H86">
-        <v>3.2256635948924303E-16</v>
+        <v>3.2239353332992161E-16</v>
       </c>
       <c r="J86">
         <v>40.5</v>
       </c>
       <c r="K86">
-        <v>16.444148602385969</v>
+        <v>16.444148747945558</v>
       </c>
       <c r="M86">
         <v>40.5</v>
       </c>
       <c r="N86">
-        <v>1.0336390557821455E-7</v>
+        <v>1.0336389889590038E-7</v>
       </c>
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.25">
@@ -2760,25 +2764,25 @@
         <v>41</v>
       </c>
       <c r="E87">
-        <v>8.9985854419688385E-6</v>
+        <v>9.1964247623514039E-6</v>
       </c>
       <c r="G87">
         <v>41</v>
       </c>
       <c r="H87">
-        <v>1.2329741589929675E-16</v>
+        <v>1.2306073315859713E-16</v>
       </c>
       <c r="J87">
         <v>41</v>
       </c>
       <c r="K87">
-        <v>15.896006921249322</v>
+        <v>15.896007059706232</v>
       </c>
       <c r="M87">
         <v>41</v>
       </c>
       <c r="N87">
-        <v>7.8708314651305173E-8</v>
+        <v>7.8708309621429323E-8</v>
       </c>
     </row>
     <row r="88" spans="4:14" x14ac:dyDescent="0.25">
@@ -2786,25 +2790,25 @@
         <v>41.5</v>
       </c>
       <c r="E88">
-        <v>7.2669282025840202E-6</v>
+        <v>7.4301089051706787E-6</v>
       </c>
       <c r="G88">
         <v>41.5</v>
       </c>
       <c r="H88">
-        <v>3.3612456347658836E-17</v>
+        <v>3.3673986271854008E-17</v>
       </c>
       <c r="J88">
         <v>41.5</v>
       </c>
       <c r="K88">
-        <v>15.367996973446523</v>
+        <v>15.367997105165653</v>
       </c>
       <c r="M88">
         <v>41.5</v>
       </c>
       <c r="N88">
-        <v>5.9905571234783781E-8</v>
+        <v>5.9905567450604559E-8</v>
       </c>
     </row>
     <row r="89" spans="4:14" x14ac:dyDescent="0.25">
@@ -2812,25 +2816,25 @@
         <v>42</v>
       </c>
       <c r="E89">
-        <v>5.8681634276649975E-6</v>
+        <v>6.0014647787376784E-6</v>
       </c>
       <c r="G89">
         <v>42</v>
       </c>
       <c r="H89">
-        <v>2.2244379088337345E-17</v>
+        <v>2.2274089642188319E-17</v>
       </c>
       <c r="J89">
         <v>42</v>
       </c>
       <c r="K89">
-        <v>14.86011875897769</v>
+        <v>14.860118884323954</v>
       </c>
       <c r="M89">
         <v>42</v>
       </c>
       <c r="N89">
-        <v>4.5609454016178661E-8</v>
+        <v>4.5609451166008621E-8</v>
       </c>
     </row>
     <row r="90" spans="4:14" x14ac:dyDescent="0.25">
@@ -2838,25 +2842,25 @@
         <v>42.5</v>
       </c>
       <c r="E90">
-        <v>4.7402758292021288E-6</v>
+        <v>4.8490290379700559E-6</v>
       </c>
       <c r="G90">
         <v>42.5</v>
       </c>
       <c r="H90">
-        <v>1.0876301829015436E-17</v>
+        <v>1.0874193012522808E-17</v>
       </c>
       <c r="J90">
         <v>42.5</v>
       </c>
       <c r="K90">
-        <v>14.370299842692086</v>
+        <v>14.37029996181313</v>
       </c>
       <c r="M90">
         <v>42.5</v>
       </c>
       <c r="N90">
-        <v>3.4722684976904834E-8</v>
+        <v>3.4722682831793856E-8</v>
       </c>
     </row>
     <row r="91" spans="4:14" x14ac:dyDescent="0.25">
@@ -2864,25 +2868,25 @@
         <v>43</v>
       </c>
       <c r="E91">
-        <v>3.8274179780028051E-6</v>
+        <v>3.9164889438298601E-6</v>
       </c>
       <c r="G91">
         <v>43</v>
       </c>
       <c r="H91">
-        <v>-4.9177543030638146E-19</v>
+        <v>-5.2570361714291003E-19</v>
       </c>
       <c r="J91">
         <v>43</v>
       </c>
       <c r="K91">
-        <v>13.889918590380219</v>
+        <v>13.889918703526812</v>
       </c>
       <c r="M91">
         <v>43</v>
       </c>
       <c r="N91">
-        <v>2.6430478278053109E-8</v>
+        <v>2.6430476663371103E-8</v>
       </c>
     </row>
     <row r="92" spans="4:14" x14ac:dyDescent="0.25">
@@ -2890,25 +2894,25 @@
         <v>43.5</v>
       </c>
       <c r="E92">
-        <v>3.0909737304800503E-6</v>
+        <v>3.1643715803307926E-6</v>
       </c>
       <c r="G92">
         <v>43.5</v>
       </c>
       <c r="H92">
-        <v>-1.1859852689628306E-17</v>
+        <v>-1.1925600246808584E-17</v>
       </c>
       <c r="J92">
         <v>43.5</v>
       </c>
       <c r="K92">
-        <v>13.426104200802643</v>
+        <v>13.426104308262307</v>
       </c>
       <c r="M92">
         <v>43.5</v>
       </c>
       <c r="N92">
-        <v>2.0127006848773872E-8</v>
+        <v>2.0127005633701668E-8</v>
       </c>
     </row>
     <row r="93" spans="4:14" x14ac:dyDescent="0.25">
@@ -2916,25 +2920,25 @@
         <v>44</v>
       </c>
       <c r="E93">
-        <v>2.4966093896142382E-6</v>
+        <v>2.5558661368923758E-6</v>
       </c>
       <c r="G93">
         <v>44</v>
       </c>
       <c r="H93">
-        <v>-1.8606978918803169E-17</v>
+        <v>-1.8644644588501206E-17</v>
       </c>
       <c r="J93">
         <v>44</v>
       </c>
       <c r="K93">
-        <v>12.978856673959639</v>
+        <v>12.978856776019722</v>
       </c>
       <c r="M93">
         <v>44</v>
       </c>
       <c r="N93">
-        <v>1.531732114363646E-8</v>
+        <v>1.5317320229896938E-8</v>
       </c>
     </row>
     <row r="94" spans="4:14" x14ac:dyDescent="0.25">
@@ -2942,25 +2946,25 @@
         <v>44.5</v>
       </c>
       <c r="E94">
-        <v>2.0159016786584834E-6</v>
+        <v>2.0650007684434865E-6</v>
       </c>
       <c r="G94">
         <v>44.5</v>
       </c>
       <c r="H94">
-        <v>-1.8610143169195754E-17</v>
+        <v>-1.864960946044017E-17</v>
       </c>
       <c r="J94">
         <v>44.5</v>
       </c>
       <c r="K94">
-        <v>12.548176009850891</v>
+        <v>12.548176106798905</v>
       </c>
       <c r="M94">
         <v>44.5</v>
       </c>
       <c r="N94">
-        <v>1.1662976462552964E-8</v>
+        <v>1.16629757743925E-8</v>
       </c>
     </row>
     <row r="95" spans="4:14" x14ac:dyDescent="0.25">
@@ -2968,25 +2972,25 @@
         <v>45</v>
       </c>
       <c r="E95">
-        <v>1.6281981836119553E-6</v>
+        <v>1.6679424251709107E-6</v>
       </c>
       <c r="G95">
         <v>45</v>
       </c>
       <c r="H95">
-        <v>-1.8613307419588337E-17</v>
+        <v>-1.8654574332378989E-17</v>
       </c>
       <c r="J95">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>12.134062208476672</v>
+        <v>12.134062300600005</v>
       </c>
       <c r="M95">
         <v>45</v>
       </c>
       <c r="N95">
-        <v>8.8777106993820073E-9</v>
+        <v>8.8777101816611812E-9</v>
       </c>
     </row>
     <row r="96" spans="4:14" x14ac:dyDescent="0.25">
@@ -2994,25 +2998,25 @@
         <v>45.5</v>
       </c>
       <c r="E96">
-        <v>1.314920357354907E-6</v>
+        <v>1.347575665503301E-6</v>
       </c>
       <c r="G96">
         <v>45.5</v>
       </c>
       <c r="H96">
-        <v>-1.861647166998107E-17</v>
+        <v>-1.8659539204317815E-17</v>
       </c>
       <c r="J96">
         <v>45.5</v>
       </c>
       <c r="K96">
-        <v>11.732677998666581</v>
+        <v>11.732678086006002</v>
       </c>
       <c r="M96">
         <v>45.5</v>
       </c>
       <c r="N96">
-        <v>6.7584862793502776E-9</v>
+        <v>6.7584858896423275E-9</v>
       </c>
     </row>
     <row r="97" spans="4:14" x14ac:dyDescent="0.25">
@@ -3020,25 +3024,25 @@
         <v>46</v>
       </c>
       <c r="E97">
-        <v>1.0618032452897013E-6</v>
+        <v>1.0884937431100712E-6</v>
       </c>
       <c r="G97">
         <v>46</v>
       </c>
       <c r="H97">
-        <v>-1.8619635920373505E-17</v>
+        <v>-1.8664504076256634E-17</v>
       </c>
       <c r="J97">
         <v>46</v>
       </c>
       <c r="K97">
-        <v>11.340520476267223</v>
+        <v>11.340520559062872</v>
       </c>
       <c r="M97">
         <v>46</v>
       </c>
       <c r="N97">
-        <v>5.1460413640714591E-9</v>
+        <v>5.146041070951537E-9</v>
       </c>
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.25">
@@ -3046,25 +3050,25 @@
         <v>46.5</v>
       </c>
       <c r="E98">
-        <v>8.5771215824182697E-7</v>
+        <v>8.7939997424020924E-7</v>
       </c>
       <c r="G98">
         <v>46.5</v>
       </c>
       <c r="H98">
-        <v>-1.7539885752931628E-17</v>
+        <v>-1.7576810740269565E-17</v>
       </c>
       <c r="J98">
         <v>46.5</v>
       </c>
       <c r="K98">
-        <v>10.961994929680397</v>
+        <v>10.961995008154885</v>
       </c>
       <c r="M98">
         <v>46.5</v>
       </c>
       <c r="N98">
-        <v>3.9166120333362753E-9</v>
+        <v>3.916611812984139E-9</v>
       </c>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.25">
@@ -3072,25 +3076,25 @@
         <v>47</v>
       </c>
       <c r="E99">
-        <v>6.925530899732051E-7</v>
+        <v>7.1035089048933946E-7</v>
       </c>
       <c r="G99">
         <v>47</v>
       </c>
       <c r="H99">
-        <v>-1.6205026838124069E-17</v>
+        <v>-1.623902209830502E-17</v>
       </c>
       <c r="J99">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>10.59710135890591</v>
+        <v>10.597101433282223</v>
       </c>
       <c r="M99">
         <v>47</v>
       </c>
       <c r="N99">
-        <v>2.9824067101956996E-9</v>
+        <v>2.9824065446027462E-9</v>
       </c>
     </row>
     <row r="100" spans="4:14" x14ac:dyDescent="0.25">
@@ -3098,25 +3102,25 @@
         <v>47.5</v>
       </c>
       <c r="E100">
-        <v>5.5928541618643113E-7</v>
+        <v>5.7387886807022403E-7</v>
       </c>
       <c r="G100">
         <v>47.5</v>
       </c>
       <c r="H100">
-        <v>-1.487016792331652E-17</v>
+        <v>-1.4901233456340327E-17</v>
       </c>
       <c r="J100">
         <v>47.5</v>
       </c>
       <c r="K100">
-        <v>10.24583976394395</v>
+        <v>10.245839834444686</v>
       </c>
       <c r="M100">
         <v>47.5</v>
       </c>
       <c r="N100">
-        <v>2.2698906764858957E-9</v>
+        <v>2.2698905521156853E-9</v>
       </c>
     </row>
     <row r="101" spans="4:14" x14ac:dyDescent="0.25">
@@ -3124,25 +3128,25 @@
         <v>48</v>
       </c>
       <c r="E101">
-        <v>4.5175169688075716E-7</v>
+        <v>4.6357735807851098E-7</v>
       </c>
       <c r="G101">
         <v>48</v>
       </c>
       <c r="H101">
-        <v>-1.3535309008508778E-17</v>
+        <v>-1.3563444814375815E-17</v>
       </c>
       <c r="J101">
         <v>48</v>
       </c>
       <c r="K101">
-        <v>9.908210144794479</v>
+        <v>9.9082102116423769</v>
       </c>
       <c r="M101">
         <v>48</v>
       </c>
       <c r="N101">
-        <v>1.7282245773697391E-9</v>
+        <v>1.7282244838389822E-9</v>
       </c>
     </row>
     <row r="102" spans="4:14" x14ac:dyDescent="0.25">
@@ -3150,25 +3154,25 @@
         <v>48.5</v>
       </c>
       <c r="E102">
-        <v>3.6476591129562683E-7</v>
+        <v>3.745024521177718E-7</v>
       </c>
       <c r="G102">
         <v>48.5</v>
       </c>
       <c r="H102">
-        <v>-1.2200450093701037E-17</v>
+        <v>-1.2225656172411197E-17</v>
       </c>
       <c r="J102">
         <v>48.5</v>
       </c>
       <c r="K102">
-        <v>9.5791757763341714</v>
+        <v>9.5791758394970596</v>
       </c>
       <c r="M102">
         <v>48.5</v>
       </c>
       <c r="N102">
-        <v>1.3156663815184847E-9</v>
+        <v>1.3156663112455462E-9</v>
       </c>
     </row>
     <row r="103" spans="4:14" x14ac:dyDescent="0.25">
@@ -3176,25 +3180,25 @@
         <v>49</v>
       </c>
       <c r="E103">
-        <v>2.9460562335129661E-7</v>
+        <v>3.0253385749602266E-7</v>
       </c>
       <c r="G103">
         <v>49</v>
       </c>
       <c r="H103">
-        <v>-1.0865591178893491E-17</v>
+        <v>-1.0887867530446564E-17</v>
       </c>
       <c r="J103">
         <v>49</v>
       </c>
       <c r="K103">
-        <v>9.2590620883017092</v>
+        <v>9.2590621480154098</v>
       </c>
       <c r="M103">
         <v>49</v>
       </c>
       <c r="N103">
-        <v>1.0014938408543251E-9</v>
+        <v>1.0014937880416565E-9</v>
       </c>
     </row>
     <row r="104" spans="4:14" x14ac:dyDescent="0.25">
@@ -3202,25 +3206,25 @@
         <v>49.5</v>
       </c>
       <c r="E104">
-        <v>2.3792934052108559E-7</v>
+        <v>2.4439364113912729E-7</v>
       </c>
       <c r="G104">
         <v>49.5</v>
       </c>
       <c r="H104">
-        <v>-9.53073226408584E-18</v>
+        <v>-9.5500788884819178E-18</v>
       </c>
       <c r="J104">
         <v>49.5</v>
       </c>
       <c r="K104">
-        <v>8.9501649616729289</v>
+        <v>8.9501650181104928</v>
       </c>
       <c r="M104">
         <v>49.5</v>
       </c>
       <c r="N104">
-        <v>7.6265046389042742E-10</v>
+        <v>7.6265042421732096E-10</v>
       </c>
     </row>
     <row r="105" spans="4:14" x14ac:dyDescent="0.25">
@@ -3228,25 +3232,25 @@
         <v>50</v>
       </c>
       <c r="E105">
-        <v>1.9212607315190041E-7</v>
+        <v>1.97436946819103E-7</v>
       </c>
       <c r="G105">
         <v>50</v>
       </c>
       <c r="H105">
-        <v>-8.1958733492781426E-18</v>
+        <v>-8.2122902465173158E-18</v>
       </c>
       <c r="J105">
         <v>50</v>
       </c>
       <c r="K105">
-        <v>8.6524843964476705</v>
+        <v>8.65248444978225</v>
       </c>
       <c r="M105">
         <v>50</v>
       </c>
       <c r="N105">
-        <v>5.8039391728101213E-10</v>
+        <v>5.8039388750039694E-10</v>
       </c>
     </row>
     <row r="106" spans="4:14" x14ac:dyDescent="0.25">
@@ -3254,25 +3258,25 @@
         <v>50.5</v>
       </c>
       <c r="E106">
-        <v>1.551923350469062E-7</v>
+        <v>1.5948729786260403E-7</v>
       </c>
       <c r="G106">
         <v>50.5</v>
       </c>
       <c r="H106">
-        <v>-6.8610144344705223E-18</v>
+        <v>-6.8745016045526676E-18</v>
       </c>
       <c r="J106">
         <v>50.5</v>
       </c>
       <c r="K106">
-        <v>8.3660203926259928</v>
+        <v>8.3660204430308447</v>
       </c>
       <c r="M106">
         <v>50.5</v>
       </c>
       <c r="N106">
-        <v>4.4193190291108921E-10</v>
+        <v>4.4193188051809826E-10</v>
       </c>
     </row>
     <row r="107" spans="4:14" x14ac:dyDescent="0.25">
@@ -3280,25 +3284,25 @@
         <v>51</v>
       </c>
       <c r="E107">
-        <v>1.2531421868850901E-7</v>
+        <v>1.288503892403622E-7</v>
       </c>
       <c r="G107">
         <v>51</v>
       </c>
       <c r="H107">
-        <v>-6.0293189877811862E-18</v>
+        <v>-6.0448281247824623E-18</v>
       </c>
       <c r="J107">
         <v>51</v>
       </c>
       <c r="K107">
-        <v>8.0907729502078798</v>
+        <v>8.0907729978561278</v>
       </c>
       <c r="M107">
         <v>51</v>
       </c>
       <c r="N107">
-        <v>3.3638491904956356E-10</v>
+        <v>3.3638490223231655E-10</v>
       </c>
     </row>
     <row r="108" spans="4:14" x14ac:dyDescent="0.25">
@@ -3306,25 +3310,25 @@
         <v>51.5</v>
       </c>
       <c r="E108">
-        <v>1.011980964776588E-7</v>
+        <v>1.0407907451087598E-7</v>
       </c>
       <c r="G108">
         <v>51.5</v>
       </c>
       <c r="H108">
-        <v>-5.5128500217017599E-18</v>
+        <v>-5.5270219140268016E-18</v>
       </c>
       <c r="J108">
         <v>51.5</v>
       </c>
       <c r="K108">
-        <v>7.8209488827027238</v>
+        <v>7.8209489275179154</v>
       </c>
       <c r="M108">
         <v>51.5</v>
       </c>
       <c r="N108">
-        <v>2.5609078929069324E-10</v>
+        <v>2.5609077665183386E-10</v>
       </c>
     </row>
     <row r="109" spans="4:14" x14ac:dyDescent="0.25">
@@ -3332,25 +3336,25 @@
         <v>52</v>
       </c>
       <c r="E109">
-        <v>8.1742728376333349E-8</v>
+        <v>8.4090339892486038E-8</v>
       </c>
       <c r="G109">
         <v>52</v>
       </c>
       <c r="H109">
-        <v>-4.9963810556223635E-18</v>
+        <v>-5.0092157032711401E-18</v>
       </c>
       <c r="J109">
         <v>52</v>
       </c>
       <c r="K109">
-        <v>7.5596613823683123</v>
+        <v>7.5596614245770928</v>
       </c>
       <c r="M109">
         <v>52</v>
       </c>
       <c r="N109">
-        <v>1.9498576921658923E-10</v>
+        <v>1.9498575972740203E-10</v>
       </c>
     </row>
     <row r="110" spans="4:14" x14ac:dyDescent="0.25">
@@ -3358,25 +3362,25 @@
         <v>52.5</v>
       </c>
       <c r="E110">
-        <v>6.6002411803838628E-8</v>
+        <v>6.7920681024908589E-8</v>
       </c>
       <c r="G110">
         <v>52.5</v>
       </c>
       <c r="H110">
-        <v>-4.4799120895429533E-18</v>
+        <v>-4.4914094925154778E-18</v>
       </c>
       <c r="J110">
         <v>52.5</v>
       </c>
       <c r="K110">
-        <v>7.3076028493370986</v>
+        <v>7.3076028890751603</v>
       </c>
       <c r="M110">
         <v>52.5</v>
       </c>
       <c r="N110">
-        <v>1.4840635913323326E-10</v>
+        <v>1.4840635201160839E-10</v>
       </c>
     </row>
     <row r="111" spans="4:14" x14ac:dyDescent="0.25">
@@ -3384,25 +3388,25 @@
         <v>53</v>
       </c>
       <c r="E111">
-        <v>5.3305976260624024E-8</v>
+        <v>5.4877939905247173E-8</v>
       </c>
       <c r="G111">
         <v>53</v>
       </c>
       <c r="H111">
-        <v>-3.9634431234634969E-18</v>
+        <v>-3.9736032817598318E-18</v>
       </c>
       <c r="J111">
         <v>53</v>
       </c>
       <c r="K111">
-        <v>7.0647732836090809</v>
+        <v>7.0647733210122237</v>
       </c>
       <c r="M111">
         <v>53</v>
       </c>
       <c r="N111">
-        <v>1.1300903349282654E-10</v>
+        <v>1.1300902815051827E-10</v>
       </c>
     </row>
     <row r="112" spans="4:14" x14ac:dyDescent="0.25">
@@ -3410,25 +3414,25 @@
         <v>53.5</v>
       </c>
       <c r="E112">
-        <v>4.3052346761764395E-8</v>
+        <v>4.4324321022996177E-8</v>
       </c>
       <c r="G112">
         <v>53.5</v>
       </c>
       <c r="H112">
-        <v>-3.4469741573840709E-18</v>
+        <v>-3.4557970710041564E-18</v>
       </c>
       <c r="J112">
         <v>53.5</v>
       </c>
       <c r="K112">
-        <v>6.8311726851843781</v>
+        <v>6.8311727203882207</v>
       </c>
       <c r="M112">
         <v>53.5</v>
       </c>
       <c r="N112">
-        <v>8.6008843118955209E-11</v>
+        <v>8.6008839113605907E-11</v>
       </c>
     </row>
     <row r="113" spans="4:14" x14ac:dyDescent="0.25">
@@ -3436,25 +3440,25 @@
         <v>54</v>
       </c>
       <c r="E113">
-        <v>3.476396334420161E-8</v>
+        <v>3.5812157995185783E-8</v>
       </c>
       <c r="G113">
         <v>54</v>
       </c>
       <c r="H113">
-        <v>-2.9305051913046746E-18</v>
+        <v>-2.9379908602485096E-18</v>
       </c>
       <c r="J113">
         <v>54</v>
       </c>
       <c r="K113">
-        <v>6.6063015137152936</v>
+        <v>6.6063015467492807</v>
       </c>
       <c r="M113">
         <v>54</v>
       </c>
       <c r="N113">
-        <v>6.5485571254135275E-11</v>
+        <v>6.5485568246140411E-11</v>
       </c>
     </row>
     <row r="114" spans="4:14" x14ac:dyDescent="0.25">
@@ -3462,25 +3466,25 @@
         <v>54.5</v>
       </c>
       <c r="E114">
-        <v>2.8080201321744081E-8</v>
+        <v>2.8925691835951521E-8</v>
       </c>
       <c r="G114">
         <v>54.5</v>
       </c>
       <c r="H114">
-        <v>-2.4140362252252039E-18</v>
+        <v>-2.4201846494928338E-18</v>
       </c>
       <c r="J114">
         <v>54.5</v>
       </c>
       <c r="K114">
-        <v>6.3854506343178565</v>
+        <v>6.3854506652919758</v>
       </c>
       <c r="M114">
         <v>54.5</v>
       </c>
       <c r="N114">
-        <v>4.9851568483280365E-11</v>
+        <v>4.9851566226417739E-11</v>
       </c>
     </row>
     <row r="115" spans="4:14" x14ac:dyDescent="0.25">
@@ -3488,25 +3492,25 @@
         <v>55</v>
       </c>
       <c r="E115">
-        <v>2.2675040222673629E-8</v>
+        <v>2.3370245507637991E-8</v>
       </c>
       <c r="G115">
         <v>55</v>
       </c>
       <c r="H115">
-        <v>-1.8975672591458076E-18</v>
+        <v>-1.9023784387371874E-18</v>
       </c>
       <c r="J115">
         <v>55</v>
       </c>
       <c r="K115">
-        <v>6.17219327685621</v>
+        <v>6.1721933058775509</v>
       </c>
       <c r="M115">
         <v>55</v>
       </c>
       <c r="N115">
-        <v>3.7948253543963925E-11</v>
+        <v>3.7948251849461414E-11</v>
       </c>
     </row>
     <row r="116" spans="4:14" x14ac:dyDescent="0.25">
@@ -3514,25 +3518,25 @@
         <v>55.5</v>
       </c>
       <c r="E116">
-        <v>1.8311001430769903E-8</v>
+        <v>1.8876749781849514E-8</v>
       </c>
       <c r="G116">
         <v>55.5</v>
       </c>
       <c r="H116">
-        <v>-1.3810982930663924E-18</v>
+        <v>-1.3845722279815249E-18</v>
       </c>
       <c r="J116">
         <v>55.5</v>
       </c>
       <c r="K116">
-        <v>5.9665294413304748</v>
+        <v>5.9665294685060024</v>
       </c>
       <c r="M116">
         <v>55.5</v>
       </c>
       <c r="N116">
-        <v>2.8898271722061966E-11</v>
+        <v>2.8898270450099927E-11</v>
       </c>
     </row>
     <row r="117" spans="4:14" x14ac:dyDescent="0.25">
@@ -3540,25 +3544,25 @@
         <v>56</v>
       </c>
       <c r="E117">
-        <v>1.4791033928137347E-8</v>
+        <v>1.5250928942311302E-8</v>
       </c>
       <c r="G117">
         <v>56</v>
       </c>
       <c r="H117">
-        <v>-8.6462932698697066E-19</v>
+        <v>-8.6676601722586661E-19</v>
       </c>
       <c r="J117">
         <v>56</v>
       </c>
       <c r="K117">
-        <v>5.7684591277405302</v>
+        <v>5.7684591531772433</v>
       </c>
       <c r="M117">
         <v>56</v>
       </c>
       <c r="N117">
-        <v>2.1991925547973141E-11</v>
+        <v>2.19919245934702E-11</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.25">
@@ -3566,25 +3570,25 @@
         <v>56.5</v>
       </c>
       <c r="E118">
-        <v>1.1942789595814968E-8</v>
+        <v>1.2318920785401482E-8</v>
       </c>
       <c r="G118">
         <v>56.5</v>
       </c>
       <c r="H118">
-        <v>-3.4816036090754616E-19</v>
+        <v>-3.4895980647020686E-19</v>
       </c>
       <c r="J118">
         <v>56.5</v>
       </c>
       <c r="K118">
-        <v>5.577982336086392</v>
+        <v>5.5779823598913776</v>
       </c>
       <c r="M118">
         <v>56.5</v>
       </c>
       <c r="N118">
-        <v>1.6745626270053806E-11</v>
+        <v>1.6745625551933855E-11</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.25">
@@ -3592,25 +3596,25 @@
         <v>57</v>
       </c>
       <c r="E119">
-        <v>9.6452100420488997E-9</v>
+        <v>9.9524431960842157E-9</v>
       </c>
       <c r="G119">
         <v>57</v>
       </c>
       <c r="H119">
-        <v>1.6830860517187684E-19</v>
+        <v>1.6884640428544834E-19</v>
       </c>
       <c r="J119">
         <v>57</v>
       </c>
       <c r="K119">
-        <v>5.39373873352221</v>
+        <v>5.3937387556879566</v>
       </c>
       <c r="M119">
         <v>57</v>
       </c>
       <c r="N119">
-        <v>1.2745959839809507E-11</v>
+        <v>1.2745959299800964E-11</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.25">
@@ -3618,25 +3622,25 @@
         <v>57.5</v>
       </c>
       <c r="E120">
-        <v>7.7901501088141674E-9</v>
+        <v>8.0393376043006511E-9</v>
       </c>
       <c r="G120">
         <v>57.5</v>
       </c>
       <c r="H120">
-        <v>6.8477757125129681E-19</v>
+        <v>6.8665261504110802E-19</v>
       </c>
       <c r="J120">
         <v>57.5</v>
       </c>
       <c r="K120">
-        <v>5.2134463958953896</v>
+        <v>5.2134464165291341</v>
       </c>
       <c r="M120">
         <v>57.5</v>
       </c>
       <c r="N120">
-        <v>9.7037293059883113E-12</v>
+        <v>9.7037288990921661E-12</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.25">
@@ -3644,25 +3648,25 @@
         <v>58</v>
       </c>
       <c r="E121">
-        <v>6.2903217865721997E-9</v>
+        <v>6.4947681869217552E-9</v>
       </c>
       <c r="G121">
         <v>58</v>
       </c>
       <c r="H121">
-        <v>1.2012465373307304E-18</v>
+        <v>1.2044588257967619E-18</v>
       </c>
       <c r="J121">
         <v>58</v>
       </c>
       <c r="K121">
-        <v>5.0394019267361623</v>
+        <v>5.0394019459216404</v>
       </c>
       <c r="M121">
         <v>58</v>
       </c>
       <c r="N121">
-        <v>7.3881074074038265E-12</v>
+        <v>7.388107100703686E-12</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.25">
@@ -3670,25 +3674,25 @@
         <v>58.5</v>
       </c>
       <c r="E122">
-        <v>5.0807903124776832E-9</v>
+        <v>5.2465065183491073E-9</v>
       </c>
       <c r="G122">
         <v>58.5</v>
       </c>
       <c r="H122">
-        <v>1.7177155034101444E-18</v>
+        <v>1.7222650365524112E-18</v>
       </c>
       <c r="J122">
         <v>58.5</v>
       </c>
       <c r="K122">
-        <v>4.8716053260445715</v>
+        <v>4.8716053438654185</v>
       </c>
       <c r="M122">
         <v>58.5</v>
       </c>
       <c r="N122">
-        <v>5.6233456223078185E-12</v>
+        <v>5.6233453907270125E-12</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.25">
@@ -3696,25 +3700,25 @@
         <v>59</v>
       </c>
       <c r="E123">
-        <v>4.1029485205887518E-9</v>
+        <v>4.2383643933218169E-9</v>
       </c>
       <c r="G123">
         <v>59</v>
       </c>
       <c r="H123">
-        <v>2.2341844694895702E-18</v>
+        <v>2.2400712473080722E-18</v>
       </c>
       <c r="J123">
         <v>59</v>
       </c>
       <c r="K123">
-        <v>4.7100565938206476</v>
+        <v>4.7100566103605708</v>
       </c>
       <c r="M123">
         <v>59</v>
       </c>
       <c r="N123">
-        <v>4.2821264975281437E-12</v>
+        <v>4.2821263223259132E-12</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.25">
@@ -3722,25 +3726,25 @@
         <v>59.5</v>
       </c>
       <c r="E124">
-        <v>3.3132376617948235E-9</v>
+        <v>3.4239128402010267E-9</v>
       </c>
       <c r="G124">
         <v>59.5</v>
       </c>
       <c r="H124">
-        <v>2.7506534355689666E-18</v>
+        <v>2.7578774580637487E-18</v>
       </c>
       <c r="J124">
         <v>59.5</v>
       </c>
       <c r="K124">
-        <v>4.554755730064314</v>
+        <v>4.5547557454069327</v>
       </c>
       <c r="M124">
         <v>59.5</v>
       </c>
       <c r="N124">
-        <v>3.2589801152001413E-12</v>
+        <v>3.2589799823210322E-12</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.25">
@@ -3748,25 +3752,25 @@
         <v>60</v>
       </c>
       <c r="E125">
-        <v>2.6763810496455743E-9</v>
+        <v>2.765882820723451E-9</v>
       </c>
       <c r="G125">
         <v>60</v>
       </c>
       <c r="H125">
-        <v>3.1479158337759235E-18</v>
+        <v>3.1531630502547648E-18</v>
       </c>
       <c r="J125">
         <v>60</v>
       </c>
       <c r="K125">
-        <v>4.4037451646593189</v>
+        <v>4.4037451787730761</v>
       </c>
       <c r="M125">
         <v>60</v>
       </c>
       <c r="N125">
-        <v>2.4813682009966768E-12</v>
+        <v>2.4813680996824281E-12</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.25">
@@ -3774,25 +3778,25 @@
         <v>60.5</v>
       </c>
       <c r="E126">
-        <v>2.1609870841518414E-9</v>
+        <v>2.2344874004459684E-9</v>
       </c>
       <c r="G126">
         <v>60.5</v>
       </c>
       <c r="H126">
-        <v>3.1364207498399044E-18</v>
+        <v>3.1417427777537332E-18</v>
       </c>
       <c r="J126">
         <v>60.5</v>
       </c>
       <c r="K126">
-        <v>4.2565722539372821</v>
+        <v>4.2565722669273249</v>
       </c>
       <c r="M126">
         <v>60.5</v>
       </c>
       <c r="N126">
-        <v>1.8889152016439601E-12</v>
+        <v>1.888915124115565E-12</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.25">
@@ -3800,25 +3804,25 @@
         <v>61</v>
       </c>
       <c r="E127">
-        <v>1.7452127229389257E-9</v>
+        <v>1.8049711606692983E-9</v>
       </c>
       <c r="G127">
         <v>61</v>
       </c>
       <c r="H127">
-        <v>3.1249256659038402E-18</v>
+        <v>3.1303225052527155E-18</v>
       </c>
       <c r="J127">
         <v>61</v>
       </c>
       <c r="K127">
-        <v>4.1145400057301549</v>
+        <v>4.1145400176624625</v>
       </c>
       <c r="M127">
         <v>61</v>
       </c>
       <c r="N127">
-        <v>1.4379228315523046E-12</v>
+        <v>1.4379227718780996E-12</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.25">
@@ -3826,25 +3830,25 @@
         <v>61.5</v>
       </c>
       <c r="E128">
-        <v>1.4095973098920595E-9</v>
+        <v>1.4582636168018289E-9</v>
       </c>
       <c r="G128">
         <v>61.5</v>
       </c>
       <c r="H128">
-        <v>3.1134305819678208E-18</v>
+        <v>3.1189022327516835E-18</v>
       </c>
       <c r="J128">
         <v>61.5</v>
       </c>
       <c r="K128">
-        <v>3.9776484200379842</v>
+        <v>3.9776484309785327</v>
       </c>
       <c r="M128">
         <v>61.5</v>
       </c>
       <c r="N128">
-        <v>1.094967028307372E-12</v>
+        <v>1.0949669821330498E-12</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.25">
@@ -3852,25 +3856,25 @@
         <v>62</v>
       </c>
       <c r="E129">
-        <v>1.1381963192165733E-9</v>
+        <v>1.1778986554573181E-9</v>
       </c>
       <c r="G129">
         <v>62</v>
       </c>
       <c r="H129">
-        <v>3.101935498031757E-18</v>
+        <v>3.1074819602506665E-18</v>
       </c>
       <c r="J129">
         <v>62</v>
       </c>
       <c r="K129">
-        <v>3.845897496860724</v>
+        <v>3.8458975068754464</v>
       </c>
       <c r="M129">
         <v>62</v>
       </c>
       <c r="N129">
-        <v>8.3330518936975762E-13</v>
+        <v>8.3330515342982074E-13</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.25">
@@ -3878,25 +3882,25 @@
         <v>62.5</v>
       </c>
       <c r="E130">
-        <v>9.1931330637004244E-10</v>
+        <v>9.5169390985825195E-10</v>
       </c>
       <c r="G130">
         <v>62.5</v>
       </c>
       <c r="H130">
-        <v>3.0904404140957079E-18</v>
+        <v>3.0960616877496496E-18</v>
       </c>
       <c r="J130">
         <v>62.5</v>
       </c>
       <c r="K130">
-        <v>3.7192872361983902</v>
+        <v>3.719287245353263</v>
       </c>
       <c r="M130">
         <v>62.5</v>
       </c>
       <c r="N130">
-        <v>6.3452333791442346E-13</v>
+        <v>6.3452330976825642E-13</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.25">
@@ -3904,25 +3908,25 @@
         <v>63</v>
       </c>
       <c r="E131">
-        <v>7.4241110997906417E-10</v>
+        <v>7.6868236700656725E-10</v>
       </c>
       <c r="G131">
         <v>63</v>
       </c>
       <c r="H131">
-        <v>3.0789453301596734E-18</v>
+        <v>3.0846414152486326E-18</v>
       </c>
       <c r="J131">
         <v>63</v>
       </c>
       <c r="K131">
-        <v>3.5954701354348466</v>
+        <v>3.5954701436814602</v>
       </c>
       <c r="M131">
         <v>63</v>
       </c>
       <c r="N131">
-        <v>4.8295779855318269E-13</v>
+        <v>4.8295777639505143E-13</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.25">
@@ -3930,25 +3934,25 @@
         <v>63.5</v>
       </c>
       <c r="E132">
-        <v>5.9950654128082541E-10</v>
+        <v>6.2107038053456769E-10</v>
       </c>
       <c r="G132">
         <v>63.5</v>
       </c>
       <c r="H132">
-        <v>3.0674502462236247E-18</v>
+        <v>3.0732211427476007E-18</v>
       </c>
       <c r="J132">
         <v>63.5</v>
       </c>
       <c r="K132">
-        <v>3.4753403123239894</v>
+        <v>3.4753403197617567</v>
       </c>
       <c r="M132">
         <v>63.5</v>
       </c>
       <c r="N132">
-        <v>3.6769161870613307E-13</v>
+        <v>3.6769160116527795E-13</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.25">
@@ -3956,25 +3960,25 @@
         <v>64</v>
       </c>
       <c r="E133">
-        <v>4.8428106406051989E-10</v>
+        <v>5.0163451122881949E-10</v>
       </c>
       <c r="G133">
         <v>64</v>
       </c>
       <c r="H133">
-        <v>3.0559551622875756E-18</v>
+        <v>3.0618008702465829E-18</v>
       </c>
       <c r="J133">
         <v>64</v>
       </c>
       <c r="K133">
-        <v>3.3594401374482303</v>
+        <v>3.3594401441287354</v>
       </c>
       <c r="M133">
         <v>64</v>
       </c>
       <c r="N133">
-        <v>2.7993959107419576E-13</v>
+        <v>2.7993957713664783E-13</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.25">
@@ -3982,25 +3986,25 @@
         <v>64.5</v>
       </c>
       <c r="E134">
-        <v>3.9102011272017728E-10</v>
+        <v>4.0529712309235804E-10</v>
       </c>
       <c r="G134">
         <v>64.5</v>
       </c>
       <c r="H134">
-        <v>3.0444600783515118E-18</v>
+        <v>3.050380597745566E-18</v>
       </c>
       <c r="J134">
         <v>64.5</v>
       </c>
       <c r="K134">
-        <v>3.2477696108076897</v>
+        <v>3.2477696167824104</v>
       </c>
       <c r="M134">
         <v>64.5</v>
       </c>
       <c r="N134">
-        <v>2.1307751022475255E-13</v>
+        <v>2.130774991164345E-13</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.25">
@@ -4008,25 +4012,25 @@
         <v>65</v>
       </c>
       <c r="E135">
-        <v>3.1578104898749753E-10</v>
+        <v>3.273629660432383E-10</v>
       </c>
       <c r="G135">
         <v>65</v>
       </c>
       <c r="H135">
-        <v>3.0329649944154773E-18</v>
+        <v>3.038960325244534E-18</v>
       </c>
       <c r="J135">
         <v>65</v>
       </c>
       <c r="K135">
-        <v>3.1403287324023057</v>
+        <v>3.1403287377227529</v>
       </c>
       <c r="M135">
         <v>65</v>
       </c>
       <c r="N135">
-        <v>1.6225802952452104E-13</v>
+        <v>1.6225802065446015E-13</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.25">
@@ -4034,25 +4038,25 @@
         <v>65.5</v>
       </c>
       <c r="E136">
-        <v>2.550612216684326E-10</v>
+        <v>2.6448823223830799E-10</v>
       </c>
       <c r="G136">
         <v>65.5</v>
       </c>
       <c r="H136">
-        <v>3.0214699104794282E-18</v>
+        <v>3.0275400527435171E-18</v>
       </c>
       <c r="J136">
         <v>65.5</v>
       </c>
       <c r="K136">
-        <v>3.0370891655628238</v>
+        <v>3.0370891702273877</v>
       </c>
       <c r="M136">
         <v>65.5</v>
       </c>
       <c r="N136">
-        <v>1.2323402648079751E-13</v>
+        <v>1.2323401926716726E-13</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.25">
@@ -4060,25 +4064,25 @@
         <v>66</v>
       </c>
       <c r="E137">
-        <v>2.0595009059990724E-10</v>
+        <v>2.136355559162532E-10</v>
       </c>
       <c r="G137">
         <v>66</v>
       </c>
       <c r="H137">
-        <v>3.0099748265433791E-18</v>
+        <v>3.0161197802425001E-18</v>
       </c>
       <c r="J137">
         <v>66</v>
       </c>
       <c r="K137">
-        <v>2.9355593998619494</v>
+        <v>2.9355594039161943</v>
       </c>
       <c r="M137">
         <v>66</v>
       </c>
       <c r="N137">
-        <v>9.3121993046546807E-14</v>
+        <v>9.3121986476474505E-14</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.25">
@@ -4086,25 +4090,25 @@
         <v>66.5</v>
       </c>
       <c r="E138">
-        <v>1.6634005224415243E-10</v>
+        <v>1.7259947327162182E-10</v>
       </c>
       <c r="G138">
         <v>66.5</v>
       </c>
       <c r="H138">
-        <v>2.998479742607315E-18</v>
+        <v>3.0046995077414832E-18</v>
       </c>
       <c r="J138">
         <v>66.5</v>
       </c>
       <c r="K138">
-        <v>2.8375096904828534</v>
+        <v>2.8375096939661604</v>
       </c>
       <c r="M138">
         <v>66.5</v>
       </c>
       <c r="N138">
-        <v>7.0423563591190967E-14</v>
+        <v>7.042355651501483E-14</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.25">
@@ -4112,25 +4116,25 @@
         <v>67</v>
       </c>
       <c r="E139">
-        <v>1.3433621012342031E-10</v>
+        <v>1.3941822560232454E-10</v>
       </c>
       <c r="G139">
         <v>67</v>
       </c>
       <c r="H139">
-        <v>2.9869846586712809E-18</v>
+        <v>2.9932792352404508E-18</v>
       </c>
       <c r="J139">
         <v>67</v>
       </c>
       <c r="K139">
-        <v>2.7429400374255661</v>
+        <v>2.7429400403772859</v>
       </c>
       <c r="M139">
         <v>67</v>
       </c>
       <c r="N139">
-        <v>5.3087367764963297E-14</v>
+        <v>5.3087358711065456E-14</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.25">
@@ -4138,25 +4142,25 @@
         <v>67.5</v>
       </c>
       <c r="E140">
-        <v>1.0847656968963932E-10</v>
+        <v>1.126349069952969E-10</v>
       </c>
       <c r="G140">
         <v>67.5</v>
       </c>
       <c r="H140">
-        <v>2.9754895747352021E-18</v>
+        <v>2.9818589627394338E-18</v>
       </c>
       <c r="J140">
         <v>67.5</v>
       </c>
       <c r="K140">
-        <v>2.651850440690072</v>
+        <v>2.6518504431495558</v>
       </c>
       <c r="M140">
         <v>67.5</v>
       </c>
       <c r="N140">
-        <v>4.0058210093090764E-14</v>
+        <v>4.0058199625272627E-14</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.25">
@@ -4164,25 +4168,25 @@
         <v>68</v>
       </c>
       <c r="E141">
-        <v>8.7625344463485233E-11</v>
+        <v>9.0984576228033245E-11</v>
       </c>
       <c r="G141">
         <v>68</v>
       </c>
       <c r="H141">
-        <v>2.9639944907991676E-18</v>
+        <v>2.9704386902384165E-18</v>
       </c>
       <c r="J141">
         <v>68</v>
       </c>
       <c r="K141">
-        <v>2.5642409002763711</v>
+        <v>2.5642409022830139</v>
       </c>
       <c r="M141">
         <v>68</v>
       </c>
       <c r="N141">
-        <v>3.0273923682543698E-14</v>
+        <v>3.0273912848019133E-14</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.25">
@@ -4190,25 +4194,25 @@
         <v>68.5</v>
       </c>
       <c r="E142">
-        <v>7.0753243774059945E-11</v>
+        <v>7.3503347889579878E-11</v>
       </c>
       <c r="G142">
         <v>68.5</v>
       </c>
       <c r="H142">
-        <v>2.9524994068631485E-18</v>
+        <v>2.9590184177373996E-18</v>
       </c>
       <c r="J142">
         <v>68.5</v>
       </c>
       <c r="K142">
-        <v>2.479665730112937</v>
+        <v>2.479665731650841</v>
       </c>
       <c r="M142">
         <v>68.5</v>
       </c>
       <c r="N142">
-        <v>2.2899590585782044E-14</v>
+        <v>2.2899580183588571E-14</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.25">
@@ -4216,25 +4220,25 @@
         <v>69</v>
       </c>
       <c r="E143">
-        <v>5.7137922903830689E-11</v>
+        <v>5.9377019886381254E-11</v>
       </c>
       <c r="G143">
         <v>69</v>
       </c>
       <c r="H143">
-        <v>2.9410043229270994E-18</v>
+        <v>2.9475981452363826E-18</v>
       </c>
       <c r="J143">
         <v>69</v>
       </c>
       <c r="K143">
-        <v>2.3967794467038117</v>
+        <v>2.3967794478198368</v>
       </c>
       <c r="M143">
         <v>69</v>
       </c>
       <c r="N143">
-        <v>1.7329577740213634E-14</v>
+        <v>1.7329568307423398E-14</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.25">
@@ -4242,25 +4246,25 @@
         <v>69.5</v>
       </c>
       <c r="E144">
-        <v>4.6152340594763498E-11</v>
+        <v>4.7966934727306519E-11</v>
       </c>
       <c r="G144">
         <v>69.5</v>
       </c>
       <c r="H144">
-        <v>2.9295092389910353E-18</v>
+        <v>2.9361778727353506E-18</v>
       </c>
       <c r="J144">
         <v>69.5</v>
       </c>
       <c r="K144">
-        <v>2.3167564464102015</v>
+        <v>2.316756447134773</v>
       </c>
       <c r="M144">
         <v>69.5</v>
       </c>
       <c r="N144">
-        <v>1.3117730329896382E-14</v>
+        <v>1.3117722076108357E-14</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.25">
@@ -4268,25 +4272,25 @@
         <v>70</v>
       </c>
       <c r="E145">
-        <v>3.7265518184975798E-11</v>
+        <v>3.8749990390949658E-11</v>
       </c>
       <c r="G145">
         <v>70</v>
       </c>
       <c r="H145">
-        <v>2.896067108206991E-18</v>
+        <v>2.9021831146538968E-18</v>
       </c>
       <c r="J145">
         <v>70</v>
       </c>
       <c r="K145">
-        <v>2.2395967292321952</v>
+        <v>2.2395967295956658</v>
       </c>
       <c r="M145">
         <v>70</v>
       </c>
       <c r="N145">
-        <v>9.9148458019292719E-15</v>
+        <v>9.9148387063226573E-15</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.25">
@@ -4294,25 +4298,25 @@
         <v>70.5</v>
       </c>
       <c r="E146">
-        <v>3.0097539075704002E-11</v>
+        <v>3.1302404361978562E-11</v>
       </c>
       <c r="G146">
         <v>70.5</v>
       </c>
       <c r="H146">
-        <v>2.7873688923750954E-18</v>
+        <v>2.793252596489494E-18</v>
       </c>
       <c r="J146">
         <v>70.5</v>
       </c>
       <c r="K146">
-        <v>2.1653002951697045</v>
+        <v>2.1653002952025444</v>
       </c>
       <c r="M146">
         <v>70.5</v>
       </c>
       <c r="N146">
-        <v>7.3358379841440284E-15</v>
+        <v>7.335831893172328E-15</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.25">
@@ -4320,25 +4324,25 @@
         <v>71</v>
       </c>
       <c r="E147">
-        <v>2.4307590780505346E-11</v>
+        <v>2.52887623149963E-11</v>
       </c>
       <c r="G147">
         <v>71</v>
       </c>
       <c r="H147">
-        <v>2.6786706765432449E-18</v>
+        <v>2.6843220783251057E-18</v>
       </c>
       <c r="J147">
         <v>71</v>
       </c>
       <c r="K147">
-        <v>2.0938671442227736</v>
+        <v>2.0938671439553782</v>
       </c>
       <c r="M147">
         <v>71</v>
       </c>
       <c r="N147">
-        <v>5.4383206666694153E-15</v>
+        <v>5.4383154498859445E-15</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.25">
@@ -4346,25 +4350,25 @@
         <v>71.5</v>
       </c>
       <c r="E148">
-        <v>1.9628123476052204E-11</v>
+        <v>2.0427464827808039E-11</v>
       </c>
       <c r="G148">
         <v>71.5</v>
       </c>
       <c r="H148">
-        <v>2.5699724607113497E-18</v>
+        <v>2.5753915601607025E-18</v>
       </c>
       <c r="J148">
         <v>71.5</v>
       </c>
       <c r="K148">
-        <v>2.0245568340745059</v>
+        <v>2.0245568334815451</v>
       </c>
       <c r="M148">
         <v>71.5</v>
       </c>
       <c r="N148">
-        <v>3.9219874129417342E-15</v>
+        <v>3.9219822482957483E-15</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.25">
@@ -4372,25 +4376,25 @@
         <v>72</v>
       </c>
       <c r="E149">
-        <v>1.5854741259559071E-11</v>
+        <v>1.6503897439979396E-11</v>
       </c>
       <c r="G149">
         <v>72</v>
       </c>
       <c r="H149">
-        <v>2.4612742448794838E-18</v>
+        <v>2.4664610419962992E-18</v>
       </c>
       <c r="J149">
         <v>72</v>
       </c>
       <c r="K149">
-        <v>1.9568944479714516</v>
+        <v>1.9568944470970899</v>
       </c>
       <c r="M149">
         <v>72</v>
       </c>
       <c r="N149">
-        <v>2.8548173385454492E-15</v>
+        <v>2.8548115620400811E-15</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.25">
@@ -4398,25 +4402,25 @@
         <v>72.5</v>
       </c>
       <c r="E150">
-        <v>1.2802483368056512E-11</v>
+        <v>1.3330684441342993E-11</v>
       </c>
       <c r="G150">
         <v>72.5</v>
       </c>
       <c r="H150">
-        <v>2.3525760290475887E-18</v>
+        <v>2.357530523831896E-18</v>
       </c>
       <c r="J150">
         <v>72.5</v>
       </c>
       <c r="K150">
-        <v>1.891587869992275</v>
+        <v>1.8915878688594427</v>
       </c>
       <c r="M150">
         <v>72.5</v>
       </c>
       <c r="N150">
-        <v>2.0706018940243004E-15</v>
+        <v>2.0705952860287537E-15</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.25">
@@ -4424,25 +4428,25 @@
         <v>73</v>
       </c>
       <c r="E151">
-        <v>1.0338657806559152E-11</v>
+        <v>1.0770816305164056E-11</v>
       </c>
       <c r="G151">
         <v>73</v>
       </c>
       <c r="H151">
-        <v>2.2438778132157235E-18</v>
+        <v>2.2486000056674931E-18</v>
       </c>
       <c r="J151">
         <v>73</v>
       </c>
       <c r="K151">
-        <v>1.8286371001370352</v>
+        <v>1.828637098768634</v>
       </c>
       <c r="M151">
         <v>73</v>
       </c>
       <c r="N151">
-        <v>1.4761064835007297E-15</v>
+        <v>1.4760990205215558E-15</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.25">
@@ -4450,25 +4454,25 @@
         <v>73.5</v>
       </c>
       <c r="E152">
-        <v>8.3510985282088717E-12</v>
+        <v>8.6994498450255834E-12</v>
       </c>
       <c r="G152">
         <v>73.5</v>
       </c>
       <c r="H152">
-        <v>2.1351795973838426E-18</v>
+        <v>2.1396694875031045E-18</v>
       </c>
       <c r="J152">
         <v>73.5</v>
       </c>
       <c r="K152">
-        <v>1.7680421384056877</v>
+        <v>1.7680421368246337</v>
       </c>
       <c r="M152">
         <v>73.5</v>
       </c>
       <c r="N152">
-        <v>1.0860194302695543E-15</v>
+        <v>1.0860111653831324E-15</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.25">
@@ -4476,25 +4480,25 @@
         <v>74</v>
       </c>
       <c r="E153">
-        <v>6.7430032836339918E-12</v>
+        <v>7.028840257519852E-12</v>
       </c>
       <c r="G153">
         <v>74</v>
       </c>
       <c r="H153">
-        <v>2.0264813815519775E-18</v>
+        <v>2.0307389693387016E-18</v>
       </c>
       <c r="J153">
         <v>74</v>
       </c>
       <c r="K153">
-        <v>1.7098029847982321</v>
+        <v>1.7098029830274717</v>
       </c>
       <c r="M153">
         <v>74</v>
       </c>
       <c r="N153">
-        <v>7.6238025383234064E-16</v>
+        <v>7.6237178058027186E-16</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.25">
@@ -4502,25 +4506,25 @@
         <v>74.5</v>
       </c>
       <c r="E154">
-        <v>5.4458621333362919E-12</v>
+        <v>5.6771798109150857E-12</v>
       </c>
       <c r="G154">
         <v>74.5</v>
       </c>
       <c r="H154">
-        <v>1.9177831657200969E-18</v>
+        <v>1.9218084511743134E-18</v>
       </c>
       <c r="J154">
         <v>74.5</v>
       </c>
       <c r="K154">
-        <v>1.6529813814943848</v>
+        <v>1.6529813795030148</v>
       </c>
       <c r="M154">
         <v>74.5</v>
       </c>
       <c r="N154">
-        <v>5.6836104106193875E-16</v>
+        <v>5.6835270039987997E-16</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.25">
@@ -4528,25 +4532,25 @@
         <v>75</v>
       </c>
       <c r="E155">
-        <v>4.3983650253088327E-12</v>
+        <v>4.5868688100172832E-12</v>
       </c>
       <c r="G155">
         <v>75</v>
       </c>
       <c r="H155">
-        <v>1.8090849498882168E-18</v>
+        <v>1.8128779330099097E-18</v>
       </c>
       <c r="J155">
         <v>75</v>
       </c>
       <c r="K155">
-        <v>1.597749814030998</v>
+        <v>1.5977498118610662</v>
       </c>
       <c r="M155">
         <v>75</v>
       </c>
       <c r="N155">
-        <v>4.1569363705637657E-16</v>
+        <v>4.1568602664506409E-16</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.25">
@@ -4554,25 +4558,25 @@
         <v>75.5</v>
       </c>
       <c r="E156">
-        <v>3.5515859144895239E-12</v>
+        <v>3.704888853246997E-12</v>
       </c>
       <c r="G156">
         <v>75.5</v>
       </c>
       <c r="H156">
-        <v>1.700386734056336E-18</v>
+        <v>1.7039474148455215E-18</v>
       </c>
       <c r="J156">
         <v>75.5</v>
       </c>
       <c r="K156">
-        <v>1.5444565296676265</v>
+        <v>1.5444565273362831</v>
       </c>
       <c r="M156">
         <v>75.5</v>
       </c>
       <c r="N156">
-        <v>3.402512856604113E-16</v>
+        <v>3.4024489889214681E-16</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.25">
@@ -4580,25 +4584,25 @@
         <v>76</v>
       </c>
       <c r="E157">
-        <v>2.8687304402665309E-12</v>
+        <v>2.9932920983940907E-12</v>
       </c>
       <c r="G157">
         <v>76</v>
       </c>
       <c r="H157">
-        <v>1.5916885182244707E-18</v>
+        <v>1.5950168966811184E-18</v>
       </c>
       <c r="J157">
         <v>76</v>
       </c>
       <c r="K157">
-        <v>1.4931015284042259</v>
+        <v>1.4931015259286655</v>
       </c>
       <c r="M157">
         <v>76</v>
       </c>
       <c r="N157">
-        <v>2.6478587745216551E-16</v>
+        <v>2.6478016163831979E-16</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.25">
@@ -4606,25 +4610,25 @@
         <v>76.5</v>
       </c>
       <c r="E158">
-        <v>2.3165530414196906E-12</v>
+        <v>2.4177955517698845E-12</v>
       </c>
       <c r="G158">
         <v>76.5</v>
       </c>
       <c r="H158">
-        <v>1.4829903023926038E-18</v>
+        <v>1.4860863785167302E-18</v>
       </c>
       <c r="J158">
         <v>76.5</v>
       </c>
       <c r="K158">
-        <v>1.4436848102408499</v>
+        <v>1.4436848076382489</v>
       </c>
       <c r="M158">
         <v>76.5</v>
       </c>
       <c r="N158">
-        <v>1.905203500233209E-16</v>
+        <v>1.9051476955560982E-16</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.25">
@@ -4632,25 +4636,25 @@
         <v>77</v>
       </c>
       <c r="E159">
-        <v>1.8707004051567057E-12</v>
+        <v>1.953359380017687E-12</v>
       </c>
       <c r="G159">
         <v>77</v>
       </c>
       <c r="H159">
-        <v>1.3742920865607308E-18</v>
+        <v>1.3771558603523372E-18</v>
       </c>
       <c r="J159">
         <v>77</v>
       </c>
       <c r="K159">
-        <v>1.3962063751774711</v>
+        <v>1.3962063724649889</v>
       </c>
       <c r="M159">
         <v>77</v>
       </c>
       <c r="N159">
-        <v>1.3057711150196587E-16</v>
+        <v>1.3057130824178948E-16</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.25">
@@ -4658,25 +4662,25 @@
         <v>77.5</v>
       </c>
       <c r="E160">
-        <v>1.5110993396572357E-12</v>
+        <v>1.5778510024117084E-12</v>
       </c>
       <c r="G160">
         <v>77.5</v>
       </c>
       <c r="H160">
-        <v>1.2655938707288593E-18</v>
+        <v>1.2682253421879326E-18</v>
       </c>
       <c r="J160">
         <v>77.5</v>
       </c>
       <c r="K160">
-        <v>1.3496058270520279</v>
+        <v>1.3496058241959705</v>
       </c>
       <c r="M160">
         <v>77.5</v>
       </c>
       <c r="N160">
-        <v>8.495616188809676E-17</v>
+        <v>8.4949777696857634E-17</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.25">
@@ -4684,25 +4688,25 @@
         <v>78</v>
       </c>
       <c r="E161">
-        <v>1.2201109164947929E-12</v>
+        <v>1.2747223941189745E-12</v>
       </c>
       <c r="G161">
         <v>78</v>
       </c>
       <c r="H161">
-        <v>1.1568956548969865E-18</v>
+        <v>1.1592948240235384E-18</v>
       </c>
       <c r="J161">
         <v>78</v>
       </c>
       <c r="K161">
-        <v>1.3045239394914065</v>
+        <v>1.3045239365310566</v>
       </c>
       <c r="M161">
         <v>78</v>
       </c>
       <c r="N161">
-        <v>5.8365892289819105E-17</v>
+        <v>5.8359073313868469E-17</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.25">
@@ -4710,25 +4714,25 @@
         <v>78.5</v>
       </c>
       <c r="E162">
-        <v>9.8537689912524783E-13</v>
+        <v>1.0297092260377143E-12</v>
       </c>
       <c r="G162">
         <v>78.5</v>
       </c>
       <c r="H162">
-        <v>1.0481974390651119E-18</v>
+        <v>1.0503643058591395E-18</v>
       </c>
       <c r="J162">
         <v>78.5</v>
       </c>
       <c r="K162">
-        <v>1.2610368271357564</v>
+        <v>1.2610368240838414</v>
       </c>
       <c r="M162">
         <v>78.5</v>
       </c>
       <c r="N162">
-        <v>5.1463729439943198E-17</v>
+        <v>5.1457872368409672E-17</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.25">
@@ -4736,25 +4740,25 @@
         <v>79</v>
       </c>
       <c r="E163">
-        <v>7.9586576477786295E-13</v>
+        <v>8.2976674227002489E-13</v>
       </c>
       <c r="G163">
         <v>79</v>
       </c>
       <c r="H163">
-        <v>9.39499223233236E-19</v>
+        <v>9.4143378769474089E-19</v>
       </c>
       <c r="J163">
         <v>79</v>
       </c>
       <c r="K163">
-        <v>1.2191444899850687</v>
+        <v>1.21914448685433</v>
       </c>
       <c r="M163">
         <v>79</v>
       </c>
       <c r="N163">
-        <v>4.4561566590067291E-17</v>
+        <v>4.4556671422950868E-17</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.25">
@@ -4762,25 +4766,25 @@
         <v>79.5</v>
       </c>
       <c r="E164">
-        <v>6.4263649155132129E-13</v>
+        <v>6.6780612262321419E-13</v>
       </c>
       <c r="G164">
         <v>79.5</v>
       </c>
       <c r="H164">
-        <v>8.3080100740135266E-19</v>
+        <v>8.3250326953034361E-19</v>
       </c>
       <c r="J164">
         <v>79.5</v>
       </c>
       <c r="K164">
-        <v>1.178846928039363</v>
+        <v>1.1788469248425157</v>
       </c>
       <c r="M164">
         <v>79.5</v>
       </c>
       <c r="N164">
-        <v>3.7659403740191532E-17</v>
+        <v>3.7655470477491923E-17</v>
       </c>
     </row>
     <row r="165" spans="4:14" x14ac:dyDescent="0.25">
@@ -4788,25 +4792,25 @@
         <v>80</v>
       </c>
       <c r="E165">
-        <v>5.190631744842414E-13</v>
+        <v>5.3781929456255715E-13</v>
       </c>
       <c r="G165">
         <v>80</v>
       </c>
       <c r="H165">
-        <v>7.3559618868024385E-19</v>
+        <v>7.3743312470099334E-19</v>
       </c>
       <c r="J165">
         <v>80</v>
       </c>
       <c r="K165">
-        <v>1.140019064795502</v>
+        <v>1.1400190615184629</v>
       </c>
       <c r="M165">
         <v>80</v>
       </c>
       <c r="N165">
-        <v>3.0757240890315774E-17</v>
+        <v>3.0754269532032971E-17</v>
       </c>
     </row>
     <row r="166" spans="4:14" x14ac:dyDescent="0.25">
@@ -4814,25 +4818,25 @@
         <v>80.5</v>
       </c>
       <c r="E166">
-        <v>4.1916907481097327E-13</v>
+        <v>4.3320455041741275E-13</v>
       </c>
       <c r="G166">
         <v>80.5</v>
       </c>
       <c r="H166">
-        <v>6.8666002047888394E-19</v>
+        <v>6.8837233885320111E-19</v>
       </c>
       <c r="J166">
         <v>80.5</v>
       </c>
       <c r="K166">
-        <v>1.1019117799952987</v>
+        <v>1.1019117766578326</v>
       </c>
       <c r="M166">
         <v>80.5</v>
       </c>
       <c r="N166">
-        <v>2.3855078040440018E-17</v>
+        <v>2.3853068586574174E-17</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.25">
@@ -4840,25 +4844,25 @@
         <v>81</v>
       </c>
       <c r="E167">
-        <v>3.3848826725234196E-13</v>
+        <v>3.4886959043938133E-13</v>
       </c>
       <c r="G167">
         <v>81</v>
       </c>
       <c r="H167">
-        <v>6.3772385227751199E-19</v>
+        <v>6.3931155300540879E-19</v>
       </c>
       <c r="J167">
         <v>81</v>
       </c>
       <c r="K167">
-        <v>1.0651166562943815</v>
+        <v>1.0651166529059486</v>
       </c>
       <c r="M167">
         <v>81</v>
       </c>
       <c r="N167">
-        <v>1.6952915190564259E-17</v>
+        <v>1.6951867641115225E-17</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.25">
@@ -4866,25 +4870,25 @@
         <v>81.5</v>
       </c>
       <c r="E168">
-        <v>2.7341929200272111E-13</v>
+        <v>2.8057947732742846E-13</v>
       </c>
       <c r="G168">
         <v>81.5</v>
       </c>
       <c r="H168">
-        <v>5.8878768407615805E-19</v>
+        <v>5.9025076715761945E-19</v>
       </c>
       <c r="J168">
         <v>81.5</v>
       </c>
       <c r="K168">
-        <v>1.0296336936927535</v>
+        <v>1.0296336902628016</v>
       </c>
       <c r="M168">
         <v>81.5</v>
       </c>
       <c r="N168">
-        <v>1.0050752340688369E-17</v>
+        <v>1.0050666695656337E-17</v>
       </c>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.25">
@@ -4892,25 +4896,25 @@
         <v>82</v>
       </c>
       <c r="E169">
-        <v>2.1996316498132236E-13</v>
+        <v>2.2575408798180109E-13</v>
       </c>
       <c r="G169">
         <v>82</v>
       </c>
       <c r="H169">
-        <v>5.3985151587479207E-19</v>
+        <v>5.4118998130983021E-19</v>
       </c>
       <c r="J169">
         <v>82</v>
       </c>
       <c r="K169">
-        <v>0.99546289219039974</v>
+        <v>0.99546288872839228</v>
       </c>
       <c r="M169">
         <v>82</v>
       </c>
       <c r="N169">
-        <v>3.1485894908126725E-18</v>
+        <v>3.1494657501974789E-18</v>
       </c>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.25">
@@ -4918,25 +4922,25 @@
         <v>82.5</v>
       </c>
       <c r="E170">
-        <v>1.7681885820417277E-13</v>
+        <v>1.8174853692613406E-13</v>
       </c>
       <c r="G170">
         <v>82.5</v>
       </c>
       <c r="H170">
-        <v>4.9091534767343062E-19</v>
+        <v>4.9212919546203934E-19</v>
       </c>
       <c r="J170">
         <v>82.5</v>
       </c>
       <c r="K170">
-        <v>0.96260425178733233</v>
+        <v>0.96260424830272739</v>
       </c>
       <c r="M170">
         <v>82.5</v>
       </c>
       <c r="N170">
-        <v>-2.9365618322615932E-18</v>
+        <v>-2.934844419508258E-18</v>
       </c>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.25">
@@ -4944,25 +4948,25 @@
         <v>83</v>
       </c>
       <c r="E171">
-        <v>1.4232154645552108E-13</v>
+        <v>1.4640354507050119E-13</v>
       </c>
       <c r="G171">
         <v>83</v>
       </c>
       <c r="H171">
-        <v>4.4197917947206762E-19</v>
+        <v>4.4306840961424856E-19</v>
       </c>
       <c r="J171">
         <v>83</v>
       </c>
       <c r="K171">
-        <v>0.93078842521132621</v>
+        <v>0.93078842168734499</v>
       </c>
       <c r="M171">
         <v>83</v>
       </c>
       <c r="N171">
-        <v>-4.2167779274728369E-18</v>
+        <v>-4.2149296343522228E-18</v>
       </c>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.25">
@@ -4970,25 +4974,25 @@
         <v>83.5</v>
       </c>
       <c r="E172">
-        <v>1.1449108294908471E-13</v>
+        <v>1.1795286975014621E-13</v>
       </c>
       <c r="G172">
         <v>83.5</v>
       </c>
       <c r="H172">
-        <v>3.9304301127070617E-19</v>
+        <v>3.9400762376645922E-19</v>
       </c>
       <c r="J172">
         <v>83.5</v>
       </c>
       <c r="K172">
-        <v>0.89967910524228778</v>
+        <v>0.89967910169784282</v>
       </c>
       <c r="M172">
         <v>83.5</v>
       </c>
       <c r="N172">
-        <v>-5.4969940226840797E-18</v>
+        <v>-5.4950148491962025E-18</v>
       </c>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.25">
@@ -4996,25 +5000,25 @@
         <v>84</v>
       </c>
       <c r="E173">
-        <v>9.1975597914447391E-14</v>
+        <v>9.5038836844053312E-14</v>
       </c>
       <c r="G173">
         <v>84</v>
       </c>
       <c r="H173">
-        <v>3.4410684306934477E-19</v>
+        <v>3.4494683791866541E-19</v>
       </c>
       <c r="J173">
         <v>84</v>
       </c>
       <c r="K173">
-        <v>0.86964942491698294</v>
+        <v>0.86964942135894496</v>
       </c>
       <c r="M173">
         <v>84</v>
       </c>
       <c r="N173">
-        <v>-6.7772101178953819E-18</v>
+        <v>-6.7751000640402123E-18</v>
       </c>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.25">
@@ -5022,25 +5026,25 @@
         <v>84.5</v>
       </c>
       <c r="E174">
-        <v>7.3981767501571453E-14</v>
+        <v>7.6524939075590002E-14</v>
       </c>
       <c r="G174">
         <v>84.5</v>
       </c>
       <c r="H174">
-        <v>2.9517067486798331E-19</v>
+        <v>2.9588605207087612E-19</v>
       </c>
       <c r="J174">
         <v>84.5</v>
       </c>
       <c r="K174">
-        <v>0.84069938423542556</v>
+        <v>0.84069938067065275</v>
       </c>
       <c r="M174">
         <v>84.5</v>
       </c>
       <c r="N174">
-        <v>-8.0574262131066255E-18</v>
+        <v>-8.0551852788842067E-18</v>
       </c>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.25">
@@ -5048,25 +5052,25 @@
         <v>85</v>
       </c>
       <c r="E175">
-        <v>5.9554163247169872E-14</v>
+        <v>6.1599208962601437E-14</v>
       </c>
       <c r="G175">
         <v>85</v>
       </c>
       <c r="H175">
-        <v>2.4623450666661883E-19</v>
+        <v>2.4682526622308529E-19</v>
       </c>
       <c r="J175">
         <v>85</v>
       </c>
       <c r="K175">
-        <v>0.8128289831976182</v>
+        <v>0.81282897963296608</v>
       </c>
       <c r="M175">
         <v>85</v>
       </c>
       <c r="N175">
-        <v>-9.3376423083179292E-18</v>
+        <v>-9.3352704937281719E-18</v>
       </c>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.25">
@@ -5074,25 +5078,25 @@
         <v>85.5</v>
       </c>
       <c r="E176">
-        <v>4.7953270303599782E-14</v>
+        <v>4.9603131518796661E-14</v>
       </c>
       <c r="G176">
         <v>85.5</v>
       </c>
       <c r="H176">
-        <v>1.972983384652559E-19</v>
+        <v>1.9776448037529449E-19</v>
       </c>
       <c r="J176">
         <v>85.5</v>
       </c>
       <c r="K176">
-        <v>0.78603822180354765</v>
+        <v>0.78603821824589104</v>
       </c>
       <c r="M176">
         <v>85.5</v>
       </c>
       <c r="N176">
-        <v>-1.0617858403529202E-17</v>
+        <v>-1.0615355708572166E-17</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.25">
@@ -5100,25 +5104,25 @@
         <v>86</v>
       </c>
       <c r="E177">
-        <v>3.8521512957275888E-14</v>
+        <v>3.9954204411542736E-14</v>
       </c>
       <c r="G177">
         <v>86</v>
       </c>
       <c r="H177">
-        <v>1.483621702638946E-19</v>
+        <v>1.4870369452750414E-19</v>
       </c>
       <c r="J177">
         <v>86</v>
       </c>
       <c r="K177">
-        <v>0.7599586624263015</v>
+        <v>0.75995865885750857</v>
       </c>
       <c r="M177">
         <v>86</v>
       </c>
       <c r="N177">
-        <v>-1.1898074498740444E-17</v>
+        <v>-1.189544092341613E-17</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.25">
@@ -5126,25 +5130,25 @@
         <v>86.5</v>
       </c>
       <c r="E178">
-        <v>3.0984753647430123E-14</v>
+        <v>3.2188228683691841E-14</v>
       </c>
       <c r="G178">
         <v>86.5</v>
       </c>
       <c r="H178">
-        <v>9.9426002062532817E-20</v>
+        <v>9.9642908679713321E-20</v>
       </c>
       <c r="J178">
         <v>86.5</v>
       </c>
       <c r="K178">
-        <v>0.73456376909388288</v>
+        <v>0.73456376553185909</v>
       </c>
       <c r="M178">
         <v>86.5</v>
       </c>
       <c r="N178">
-        <v>-1.3178290593951717E-17</v>
+        <v>-1.3175526138260155E-17</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.25">
@@ -5152,25 +5156,25 @@
         <v>87</v>
       </c>
       <c r="E179">
-        <v>2.4941544298018945E-14</v>
+        <v>2.5934552750757753E-14</v>
       </c>
       <c r="G179">
         <v>87</v>
       </c>
       <c r="H179">
-        <v>5.0489833861170762E-20</v>
+        <v>5.0582122831922517E-20</v>
       </c>
       <c r="J179">
         <v>87</v>
       </c>
       <c r="K179">
-        <v>0.71005720249317839</v>
+        <v>0.71005719894278407</v>
       </c>
       <c r="M179">
         <v>87</v>
       </c>
       <c r="N179">
-        <v>-1.445850668916293E-17</v>
+        <v>-1.4455611353104105E-17</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.25">
@@ -5178,25 +5182,25 @@
         <v>87.5</v>
       </c>
       <c r="E180">
-        <v>2.0083582266970107E-14</v>
+        <v>2.0896389481315136E-14</v>
       </c>
       <c r="G180">
         <v>87.5</v>
       </c>
       <c r="H180">
-        <v>1.5536656598083662E-21</v>
+        <v>1.521336984131856E-21</v>
       </c>
       <c r="J180">
         <v>87.5</v>
       </c>
       <c r="K180">
-        <v>0.68643896262419102</v>
+        <v>0.68643895909029684</v>
       </c>
       <c r="M180">
         <v>87.5</v>
       </c>
       <c r="N180">
-        <v>-1.5738722784374086E-17</v>
+        <v>-1.5735696567948042E-17</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.25">
@@ -5204,25 +5208,25 @@
         <v>88</v>
       </c>
       <c r="E181">
-        <v>1.613944507539073E-14</v>
+        <v>1.6662746301659725E-14</v>
       </c>
       <c r="G181">
         <v>88</v>
       </c>
       <c r="H181">
-        <v>-4.7382502541553643E-20</v>
+        <v>-4.7539448863658804E-20</v>
       </c>
       <c r="J181">
         <v>88</v>
       </c>
       <c r="K181">
-        <v>0.66370904948692944</v>
+        <v>0.66370904597438563</v>
       </c>
       <c r="M181">
         <v>88</v>
       </c>
       <c r="N181">
-        <v>-1.7018938879585358E-17</v>
+        <v>-1.7015781782791992E-17</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.25">
@@ -5230,25 +5234,25 @@
         <v>88.5</v>
       </c>
       <c r="E182">
-        <v>1.297897678355669E-14</v>
+        <v>1.3272882520458467E-14</v>
       </c>
       <c r="G182">
         <v>88.5</v>
       </c>
       <c r="H182">
-        <v>-9.6318670742915705E-20</v>
+        <v>-9.660023471144962E-20</v>
       </c>
       <c r="J182">
         <v>88.5</v>
       </c>
       <c r="K182">
-        <v>0.6418674630813791</v>
+        <v>0.64186745959505487</v>
       </c>
       <c r="M182">
         <v>88.5</v>
       </c>
       <c r="N182">
-        <v>-1.8299154974796631E-17</v>
+        <v>-1.8295866997636089E-17</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.25">
@@ -5256,25 +5260,25 @@
         <v>89</v>
       </c>
       <c r="E183">
-        <v>1.0413571076912988E-14</v>
+        <v>1.0512777939617799E-14</v>
       </c>
       <c r="G183">
         <v>89</v>
       </c>
       <c r="H183">
-        <v>-1.452548389442773E-19</v>
+        <v>-1.4566102055923985E-19</v>
       </c>
       <c r="J183">
         <v>89</v>
       </c>
       <c r="K183">
-        <v>0.62048211833042188</v>
+        <v>0.62048211485198557</v>
       </c>
       <c r="M183">
         <v>89</v>
       </c>
       <c r="N183">
-        <v>-1.9579371070007753E-17</v>
+        <v>-1.9575952212479891E-17</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.25">
@@ -5282,25 +5286,25 @@
         <v>89.5</v>
       </c>
       <c r="E184">
-        <v>8.2548809751373584E-15</v>
+        <v>8.2948232713724298E-15</v>
       </c>
       <c r="G184">
         <v>89.5</v>
       </c>
       <c r="H184">
-        <v>-1.9419100714564025E-19</v>
+        <v>-1.9472180640703051E-19</v>
       </c>
       <c r="J184">
         <v>89.5</v>
       </c>
       <c r="K184">
-        <v>0.59975328111457538</v>
+        <v>0.59975327766075093</v>
       </c>
       <c r="M184">
         <v>89.5</v>
       </c>
       <c r="N184">
-        <v>-2.0859587165219177E-17</v>
+        <v>-2.0856037427323841E-17</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.25">
@@ -5308,25 +5312,25 @@
         <v>90</v>
       </c>
       <c r="E185">
-        <v>6.559034678978147E-15</v>
+        <v>6.6122140942151831E-15</v>
       </c>
       <c r="G185">
         <v>90</v>
       </c>
       <c r="H185">
-        <v>-2.3237849371108137E-19</v>
+        <v>-2.3273544408153968E-19</v>
       </c>
       <c r="J185">
         <v>90</v>
       </c>
       <c r="K185">
-        <v>0.57975536001721861</v>
+        <v>0.57975535659138677</v>
       </c>
       <c r="M185">
         <v>90</v>
       </c>
       <c r="N185">
-        <v>-2.2139803260430598E-17</v>
+        <v>-2.2136122642167942E-17</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.25">
@@ -5334,25 +5338,25 @@
         <v>90.5</v>
       </c>
       <c r="E186">
-        <v>5.141084676514229E-15</v>
+        <v>5.1802523123015231E-15</v>
       </c>
       <c r="G186">
         <v>90.5</v>
       </c>
       <c r="H186">
-        <v>-2.3370891677514406E-19</v>
+        <v>-2.3407819319188852E-19</v>
       </c>
       <c r="J186">
         <v>90.5</v>
       </c>
       <c r="K186">
-        <v>0.56048835503835603</v>
+        <v>0.56048835164390209</v>
       </c>
       <c r="M186">
         <v>90.5</v>
       </c>
       <c r="N186">
-        <v>-2.3420019355641723E-17</v>
+        <v>-2.3416207857011891E-17</v>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.25">
@@ -5360,25 +5364,25 @@
         <v>91</v>
       </c>
       <c r="E187">
-        <v>4.0240229045349134E-15</v>
+        <v>4.1367605467741242E-15</v>
       </c>
       <c r="G187">
         <v>91</v>
       </c>
       <c r="H187">
-        <v>-2.3503933983920979E-19</v>
+        <v>-2.3542094230224339E-19</v>
       </c>
       <c r="J187">
         <v>91</v>
       </c>
       <c r="K187">
-        <v>0.5419522661779862</v>
+        <v>0.5419522628182879</v>
       </c>
       <c r="M187">
         <v>91</v>
       </c>
       <c r="N187">
-        <v>-2.4700235450852996E-17</v>
+        <v>-2.4696293071855992E-17</v>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.25">
@@ -5386,25 +5390,25 @@
         <v>91.5</v>
       </c>
       <c r="E188">
-        <v>3.2015705961808305E-15</v>
+        <v>3.2418938530871334E-15</v>
       </c>
       <c r="G188">
         <v>91.5</v>
       </c>
       <c r="H188">
-        <v>-2.3636976290327552E-19</v>
+        <v>-2.3676369141259373E-19</v>
       </c>
       <c r="J188">
         <v>91.5</v>
       </c>
       <c r="K188">
-        <v>0.52412497311482453</v>
+        <v>0.52412496978016132</v>
       </c>
       <c r="M188">
         <v>91.5</v>
       </c>
       <c r="N188">
-        <v>-2.5980451546064269E-17</v>
+        <v>-2.5976378286699939E-17</v>
       </c>
     </row>
     <row r="189" spans="4:14" x14ac:dyDescent="0.25">
@@ -5412,25 +5416,25 @@
         <v>92</v>
       </c>
       <c r="E189">
-        <v>2.4758965729702693E-15</v>
+        <v>2.5616618532785702E-15</v>
       </c>
       <c r="G189">
         <v>92</v>
       </c>
       <c r="H189">
-        <v>-2.3770018596734119E-19</v>
+        <v>-2.3810644052294705E-19</v>
       </c>
       <c r="J189">
         <v>92</v>
       </c>
       <c r="K189">
-        <v>0.50660453758189128</v>
+        <v>0.50660453428066365</v>
       </c>
       <c r="M189">
         <v>92</v>
       </c>
       <c r="N189">
-        <v>-2.5470242121234433E-17</v>
+        <v>-2.5466266125192678E-17</v>
       </c>
     </row>
     <row r="190" spans="4:14" x14ac:dyDescent="0.25">
@@ -5438,25 +5442,25 @@
         <v>92.5</v>
       </c>
       <c r="E190">
-        <v>1.9460824218566928E-15</v>
+        <v>2.0321099694251841E-15</v>
       </c>
       <c r="G190">
         <v>92.5</v>
       </c>
       <c r="H190">
-        <v>-2.3903060903140543E-19</v>
+        <v>-2.3944918963329744E-19</v>
       </c>
       <c r="J190">
         <v>92.5</v>
       </c>
       <c r="K190">
-        <v>0.48968550090444457</v>
+        <v>0.4896854976389487</v>
       </c>
       <c r="M190">
         <v>92.5</v>
       </c>
       <c r="N190">
-        <v>-2.4846951962086956E-17</v>
+        <v>-2.4843087645727929E-17</v>
       </c>
     </row>
     <row r="191" spans="4:14" x14ac:dyDescent="0.25">
@@ -5464,25 +5468,25 @@
         <v>93</v>
       </c>
       <c r="E191">
-        <v>1.5327140906002102E-15</v>
+        <v>1.5941508717873029E-15</v>
       </c>
       <c r="G191">
         <v>93</v>
       </c>
       <c r="H191">
-        <v>-2.4036103209547265E-19</v>
+        <v>-2.4079193874364927E-19</v>
       </c>
       <c r="J191">
         <v>93</v>
       </c>
       <c r="K191">
-        <v>0.47336786308248896</v>
+        <v>0.4733678598550134</v>
       </c>
       <c r="M191">
         <v>93</v>
       </c>
       <c r="N191">
-        <v>-2.4223661802939327E-17</v>
+        <v>-2.4219909166263029E-17</v>
       </c>
     </row>
     <row r="192" spans="4:14" x14ac:dyDescent="0.25">
@@ -5490,25 +5494,25 @@
         <v>93.5</v>
       </c>
       <c r="E192">
-        <v>1.1855820091575542E-15</v>
+        <v>1.2770533952022366E-15</v>
       </c>
       <c r="G192">
         <v>93.5</v>
       </c>
       <c r="H192">
-        <v>-2.4169145515953832E-19</v>
+        <v>-2.4213468785400115E-19</v>
       </c>
       <c r="J192">
         <v>93.5</v>
       </c>
       <c r="K192">
-        <v>0.45765162411602583</v>
+        <v>0.45765162092886075</v>
       </c>
       <c r="M192">
         <v>93.5</v>
       </c>
       <c r="N192">
-        <v>-2.3600371643791551E-17</v>
+        <v>-2.3596730686798273E-17</v>
       </c>
     </row>
     <row r="193" spans="4:14" x14ac:dyDescent="0.25">
@@ -5516,25 +5520,25 @@
         <v>94</v>
       </c>
       <c r="E193">
-        <v>9.4642113298766602E-16</v>
+        <v>1.0160789907031365E-15</v>
       </c>
       <c r="G193">
         <v>94</v>
       </c>
       <c r="H193">
-        <v>-2.4302187822360256E-19</v>
+        <v>-2.4347743696435298E-19</v>
       </c>
       <c r="J193">
         <v>94</v>
       </c>
       <c r="K193">
-        <v>0.44253678400505225</v>
+        <v>0.4425367808604862</v>
       </c>
       <c r="M193">
         <v>94</v>
       </c>
       <c r="N193">
-        <v>-2.2977081484643919E-17</v>
+        <v>-2.2973552207333373E-17</v>
       </c>
     </row>
     <row r="194" spans="4:14" x14ac:dyDescent="0.25">
@@ -5542,25 +5546,25 @@
         <v>94.5</v>
       </c>
       <c r="E194">
-        <v>7.4493171230335083E-16</v>
+        <v>8.4069495232688364E-16</v>
       </c>
       <c r="G194">
         <v>94.5</v>
       </c>
       <c r="H194">
-        <v>-2.4435230128766679E-19</v>
+        <v>-2.4482018607470332E-19</v>
       </c>
       <c r="J194">
         <v>94.5</v>
       </c>
       <c r="K194">
-        <v>0.42793106214539117</v>
+        <v>0.42793105903320433</v>
       </c>
       <c r="M194">
         <v>94.5</v>
       </c>
       <c r="N194">
-        <v>-2.2353791325496439E-17</v>
+        <v>-2.2350373727868621E-17</v>
       </c>
     </row>
     <row r="195" spans="4:14" x14ac:dyDescent="0.25">
@@ -5568,25 +5572,25 @@
         <v>95</v>
       </c>
       <c r="E195">
-        <v>6.0648902806450275E-16</v>
+        <v>6.723462864110532E-16</v>
       </c>
       <c r="G195">
         <v>95</v>
       </c>
       <c r="H195">
-        <v>-2.4568272435173247E-19</v>
+        <v>-2.461629351850552E-19</v>
       </c>
       <c r="J195">
         <v>95</v>
       </c>
       <c r="K195">
-        <v>0.41362768294363844</v>
+        <v>0.41362767987194538</v>
       </c>
       <c r="M195">
         <v>95</v>
       </c>
       <c r="N195">
-        <v>-2.1730501166348662E-17</v>
+        <v>-2.1727195248403872E-17</v>
       </c>
     </row>
     <row r="196" spans="4:14" x14ac:dyDescent="0.25">
@@ -5594,25 +5598,25 @@
         <v>95.5</v>
       </c>
       <c r="E196">
-        <v>5.1103151047584205E-16</v>
+        <v>5.1996099524762451E-16</v>
       </c>
       <c r="G196">
         <v>95.5</v>
       </c>
       <c r="H196">
-        <v>-2.470131474157982E-19</v>
+        <v>-2.4750568429540708E-19</v>
       </c>
       <c r="J196">
         <v>95.5</v>
       </c>
       <c r="K196">
-        <v>0.39981913568078414</v>
+        <v>0.39981913265105085</v>
       </c>
       <c r="M196">
         <v>95.5</v>
       </c>
       <c r="N196">
-        <v>-2.1107211007201034E-17</v>
+        <v>-2.1104016768938968E-17</v>
       </c>
     </row>
     <row r="197" spans="4:14" x14ac:dyDescent="0.25">
@@ -5620,25 +5624,25 @@
         <v>96</v>
       </c>
       <c r="E197">
-        <v>3.9955835931099506E-16</v>
+        <v>3.9425061756085784E-16</v>
       </c>
       <c r="G197">
         <v>96</v>
       </c>
       <c r="H197">
-        <v>-2.4834357047986542E-19</v>
+        <v>-2.4884843340575737E-19</v>
       </c>
       <c r="J197">
         <v>96</v>
       </c>
       <c r="K197">
-        <v>0.38650542035682961</v>
+        <v>0.38650541737052241</v>
       </c>
       <c r="M197">
         <v>96</v>
       </c>
       <c r="N197">
-        <v>-2.0483920848053402E-17</v>
+        <v>-2.0480838289474216E-17</v>
       </c>
     </row>
     <row r="198" spans="4:14" x14ac:dyDescent="0.25">
@@ -5646,25 +5650,25 @@
         <v>96.5</v>
       </c>
       <c r="E198">
-        <v>3.0479263398998922E-16</v>
+        <v>2.9521515335076206E-16</v>
       </c>
       <c r="G198">
         <v>96.5</v>
       </c>
       <c r="H198">
-        <v>-2.4967399354392965E-19</v>
+        <v>-2.501911825161092E-19</v>
       </c>
       <c r="J198">
         <v>96.5</v>
       </c>
       <c r="K198">
-        <v>0.37368653697176901</v>
+        <v>0.37368653403035995</v>
       </c>
       <c r="M198">
         <v>96.5</v>
       </c>
       <c r="N198">
-        <v>-1.9860630688905925E-17</v>
+        <v>-1.9857659810009464E-17</v>
       </c>
     </row>
     <row r="199" spans="4:14" x14ac:dyDescent="0.25">
@@ -5672,25 +5676,25 @@
         <v>97</v>
       </c>
       <c r="E199">
-        <v>2.267343345128244E-16</v>
+        <v>2.2730687629734818E-16</v>
       </c>
       <c r="G199">
         <v>97</v>
       </c>
       <c r="H199">
-        <v>-2.5100441660799234E-19</v>
+        <v>-2.5153393162646262E-19</v>
       </c>
       <c r="J199">
         <v>97</v>
       </c>
       <c r="K199">
-        <v>0.36136248552561123</v>
+        <v>0.36136248263056209</v>
       </c>
       <c r="M199">
         <v>97</v>
       </c>
       <c r="N199">
-        <v>-1.9237340529758146E-17</v>
+        <v>-1.9234481330544563E-17</v>
       </c>
     </row>
     <row r="200" spans="4:14" x14ac:dyDescent="0.25">
@@ -5698,25 +5702,25 @@
         <v>97.5</v>
       </c>
       <c r="E200">
-        <v>1.6538346087950226E-16</v>
+        <v>2.067675212155752E-16</v>
       </c>
       <c r="G200">
         <v>97.5</v>
       </c>
       <c r="H200">
-        <v>-2.5233483967205956E-19</v>
+        <v>-2.5287668073681296E-19</v>
       </c>
       <c r="J200">
         <v>97.5</v>
       </c>
       <c r="K200">
-        <v>0.34939185495647562</v>
+        <v>0.3493918520975694</v>
       </c>
       <c r="M200">
         <v>97.5</v>
       </c>
       <c r="N200">
-        <v>-1.8614050370610369E-17</v>
+        <v>-1.8611302851079811E-17</v>
       </c>
     </row>
     <row r="201" spans="4:14" x14ac:dyDescent="0.25">
@@ -5724,25 +5728,25 @@
         <v>98</v>
       </c>
       <c r="E201">
-        <v>1.2255893734558495E-16</v>
+        <v>1.8622816613380227E-16</v>
       </c>
       <c r="G201">
         <v>98</v>
       </c>
       <c r="H201">
-        <v>-2.5366526273612379E-19</v>
+        <v>-2.5421942984716629E-19</v>
       </c>
       <c r="J201">
         <v>98</v>
       </c>
       <c r="K201">
-        <v>0.33771554635782142</v>
+        <v>0.33771554354273459</v>
       </c>
       <c r="M201">
         <v>98</v>
       </c>
       <c r="N201">
-        <v>-1.7990760211462889E-17</v>
+        <v>-1.7988124371615062E-17</v>
       </c>
     </row>
     <row r="202" spans="4:14" x14ac:dyDescent="0.25">
@@ -5750,25 +5754,25 @@
         <v>98.5</v>
       </c>
       <c r="E202">
-        <v>1.1154428385014937E-16</v>
+        <v>1.6568881105202929E-16</v>
       </c>
       <c r="G202">
         <v>98.5</v>
       </c>
       <c r="H202">
-        <v>-2.5499568580019101E-19</v>
+        <v>-2.5556217895751667E-19</v>
       </c>
       <c r="J202">
         <v>98.5</v>
       </c>
       <c r="K202">
-        <v>0.32644638629577999</v>
+        <v>0.32644638352537086</v>
       </c>
       <c r="M202">
         <v>98.5</v>
       </c>
       <c r="N202">
-        <v>-1.7367470052315109E-17</v>
+        <v>-1.7364945892150155E-17</v>
       </c>
     </row>
     <row r="203" spans="4:14" x14ac:dyDescent="0.25">
@@ -5776,25 +5780,25 @@
         <v>99</v>
       </c>
       <c r="E203">
-        <v>1.0052963035471316E-16</v>
+        <v>1.4514945597025649E-16</v>
       </c>
       <c r="G203">
         <v>99</v>
       </c>
       <c r="H203">
-        <v>-2.563261088642552E-19</v>
+        <v>-2.569049280678685E-19</v>
       </c>
       <c r="J203">
         <v>99</v>
       </c>
       <c r="K203">
-        <v>0.31558437477035145</v>
+        <v>0.31558437204548417</v>
       </c>
       <c r="M203">
         <v>99</v>
       </c>
       <c r="N203">
-        <v>-1.6744179893167632E-17</v>
+        <v>-1.6741767412685406E-17</v>
       </c>
     </row>
     <row r="204" spans="4:14" x14ac:dyDescent="0.25">
@@ -5802,25 +5806,25 @@
         <v>99.5</v>
       </c>
       <c r="E204">
-        <v>8.9514976859277278E-17</v>
+        <v>1.2461010088848427E-16</v>
       </c>
       <c r="G204">
         <v>99.5</v>
       </c>
       <c r="H204">
-        <v>-2.5765653192831943E-19</v>
+        <v>-2.5824767717821884E-19</v>
       </c>
       <c r="J204">
         <v>99.5</v>
       </c>
       <c r="K204">
-        <v>0.30512951178154013</v>
+        <v>0.30512950910307146</v>
       </c>
       <c r="M204">
         <v>99.5</v>
       </c>
       <c r="N204">
-        <v>-1.612088973402E-17</v>
+        <v>-1.6118588933220506E-17</v>
       </c>
     </row>
     <row r="205" spans="4:14" x14ac:dyDescent="0.25">
@@ -5828,30 +5832,29 @@
         <v>100</v>
       </c>
       <c r="E205">
-        <v>7.8500323363842427E-17</v>
+        <v>1.040707458067116E-16</v>
       </c>
       <c r="G205">
         <v>100</v>
       </c>
       <c r="H205">
-        <v>-2.5675377272182619E-19</v>
+        <v>-2.5729383197996571E-19</v>
       </c>
       <c r="J205">
         <v>100</v>
       </c>
       <c r="K205">
-        <v>0.2950817973293432</v>
+        <v>0.29508179469813434</v>
       </c>
       <c r="M205">
         <v>100</v>
       </c>
       <c r="N205">
-        <v>-1.5497599574872372E-17</v>
+        <v>-1.5495410453755754E-17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:B2"/>
@@ -5860,6 +5863,7 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5869,7 +5873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A60ECE0-143C-4C45-825C-26B3CF115D22}">
   <dimension ref="A3:S205"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>

--- a/Human/Convection_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
+++ b/Human/Convection_Related_Plots/Human_Vitreous_Humor_Results_Middle_Vitreous_Fast.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project - normal/Human/Convection_Related_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubuffalo-my.sharepoint.com/personal/echacinr_buffalo_edu/Documents/Desktop/Github Jabias project/Human/Convection_Related_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{801504E2-39AD-4312-9984-F420BDD5C075}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{C166A05B-0D81-4BB3-8089-DF043D2EA649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4183C19E-D313-4DA8-959E-824C7BA3C2FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="2" xr2:uid="{D2018FD1-5BF3-453E-A79E-551703EABDBD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vitreous concentrations" sheetId="1" r:id="rId1"/>
+    <sheet name="Half-lives" sheetId="2" r:id="rId2"/>
+    <sheet name="Duration of action" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
   <si>
     <t>conc (ug/ml)</t>
   </si>
@@ -60,9 +61,6 @@
     <t>Experimental data</t>
   </si>
   <si>
-    <t>half life</t>
-  </si>
-  <si>
     <t>6.7 days</t>
   </si>
   <si>
@@ -80,6 +78,9 @@
   <si>
     <t>Zhu et al. (2008)</t>
   </si>
+  <si>
+    <t>half life (d)</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -104,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -120,13 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,10 +150,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59317904-1CB2-4F02-821F-D90C999A7FF6}">
   <dimension ref="A2:N205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H205"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +477,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="D3" s="3" t="s">
@@ -905,7 +909,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="D17">
@@ -935,7 +939,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3"/>
       <c r="D18">
@@ -968,7 +972,7 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1029,7 +1033,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3"/>
       <c r="D21">
@@ -1062,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>8.5</v>
@@ -5855,15 +5859,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5873,11 +5877,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A60ECE0-143C-4C45-825C-26B3CF115D22}">
   <dimension ref="A3:S205"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -5885,35 +5899,35 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -10595,4 +10609,5430 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1232FE14-BF82-41DE-8859-8156DC14FA08}">
+  <dimension ref="A2:N205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23:N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.66298342499999996</v>
+      </c>
+      <c r="B5">
+        <v>94.144099010000005</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>259.92767415374612</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>259.92767415666799</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>259.92767421293337</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>259.92767421408809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.988950276</v>
+      </c>
+      <c r="B6">
+        <v>163.6036933</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>256.3321340697857</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>247.02905501923601</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>258.48338104085599</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6">
+        <v>253.15952949733546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2.817679558</v>
+      </c>
+      <c r="B7">
+        <v>83.972663960000006</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>231.04374097520224</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>184.88325006038468</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>250.14607546174423</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>216.82491720424036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4.1436464089999996</v>
+      </c>
+      <c r="B8">
+        <v>49.25085713</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
+      </c>
+      <c r="E8">
+        <v>194.68271908004257</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>121.54987368088058</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>239.22495402016926</v>
+      </c>
+      <c r="M8">
+        <v>1.5</v>
+      </c>
+      <c r="N8">
+        <v>173.21849448534076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10.60773481</v>
+      </c>
+      <c r="B9">
+        <v>23.42368248</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>159.31972282160226</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>75.961304629928023</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>228.53132032315304</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>134.7474219778245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>16.90607735</v>
+      </c>
+      <c r="B10">
+        <v>0.327991107</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="E10">
+        <v>128.7755454392267</v>
+      </c>
+      <c r="G10">
+        <v>2.5</v>
+      </c>
+      <c r="H10">
+        <v>46.396451872832159</v>
+      </c>
+      <c r="J10">
+        <v>2.5</v>
+      </c>
+      <c r="K10">
+        <v>218.69588666318504</v>
+      </c>
+      <c r="M10">
+        <v>2.5</v>
+      </c>
+      <c r="N10">
+        <v>103.64880075856983</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>43.093922650000003</v>
+      </c>
+      <c r="B11">
+        <v>1.4500377499999999</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>103.67861122991764</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>28.056063026101853</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>209.73413360242142</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>79.348188652330307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>54.033149170000002</v>
+      </c>
+      <c r="B12">
+        <v>0.389354168</v>
+      </c>
+      <c r="D12">
+        <v>3.5</v>
+      </c>
+      <c r="E12">
+        <v>83.422619788681502</v>
+      </c>
+      <c r="G12">
+        <v>3.5</v>
+      </c>
+      <c r="H12">
+        <v>16.884353643257509</v>
+      </c>
+      <c r="J12">
+        <v>3.5</v>
+      </c>
+      <c r="K12">
+        <v>201.52109413698028</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>60.493100269908489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>73.922651930000001</v>
+      </c>
+      <c r="B13">
+        <v>2.2763623E-2</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>67.088338827362463</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>10.136324052178209</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>193.93113220621302</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>46.076838709110831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>95.138121549999994</v>
+      </c>
+      <c r="B14">
+        <v>5.5568359999999999E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>54.0128377283243</v>
+      </c>
+      <c r="G14">
+        <v>4.5</v>
+      </c>
+      <c r="H14">
+        <v>6.0774113730216186</v>
+      </c>
+      <c r="J14">
+        <v>4.5</v>
+      </c>
+      <c r="K14">
+        <v>186.85768696816902</v>
+      </c>
+      <c r="M14">
+        <v>4.5</v>
+      </c>
+      <c r="N14">
+        <v>35.052193860621848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>101.43646409999999</v>
+      </c>
+      <c r="B15">
+        <v>2.6936730000000002E-3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>43.519256144070177</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.6413413080840691</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>180.20369903460551</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>26.673804589842977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>5.5</v>
+      </c>
+      <c r="E16">
+        <v>35.101131275822752</v>
+      </c>
+      <c r="G16">
+        <v>5.5</v>
+      </c>
+      <c r="H16">
+        <v>2.1804802785964981</v>
+      </c>
+      <c r="J16">
+        <v>5.5</v>
+      </c>
+      <c r="K16">
+        <v>173.89596562209007</v>
+      </c>
+      <c r="M16">
+        <v>5.5</v>
+      </c>
+      <c r="N16">
+        <v>20.296910824203859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>28.321600816339963</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>1.3052261674165526</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>167.8963903761381</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>15.447580372008005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="D18">
+        <v>6.5</v>
+      </c>
+      <c r="E18">
+        <v>22.863782126661935</v>
+      </c>
+      <c r="G18">
+        <v>6.5</v>
+      </c>
+      <c r="H18">
+        <v>0.78119395701542182</v>
+      </c>
+      <c r="J18">
+        <v>6.5</v>
+      </c>
+      <c r="K18">
+        <v>162.1801187126454</v>
+      </c>
+      <c r="M18">
+        <v>6.5</v>
+      </c>
+      <c r="N18">
+        <v>11.760069111363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>18.460291047767363</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>0.46754697730406664</v>
+      </c>
+      <c r="J19">
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>156.70819056892577</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>8.9482220815338884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.49619999999999997</v>
+      </c>
+      <c r="D20">
+        <v>7.5</v>
+      </c>
+      <c r="E20">
+        <v>14.908628615825723</v>
+      </c>
+      <c r="G20">
+        <v>7.5</v>
+      </c>
+      <c r="H20">
+        <v>0.27991189657604437</v>
+      </c>
+      <c r="J20">
+        <v>7.5</v>
+      </c>
+      <c r="K20">
+        <v>151.4543367518562</v>
+      </c>
+      <c r="M20">
+        <v>7.5</v>
+      </c>
+      <c r="N20">
+        <v>6.8123263734862283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>12.041156733755802</v>
+      </c>
+      <c r="G21">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>0.16763620483214228</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>146.40753844588912</v>
+      </c>
+      <c r="M21">
+        <v>8</v>
+      </c>
+      <c r="N21">
+        <v>5.1838706409182169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>8.5</v>
+      </c>
+      <c r="E22">
+        <v>9.7259196143799205</v>
+      </c>
+      <c r="G22">
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <v>0.10040948006235852</v>
+      </c>
+      <c r="J22">
+        <v>8.5</v>
+      </c>
+      <c r="K22">
+        <v>141.54926988391202</v>
+      </c>
+      <c r="M22">
+        <v>8.5</v>
+      </c>
+      <c r="N22">
+        <v>3.945928294451035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>175.82</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>7.856563256188136</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>6.0141054518139773E-2</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>136.863066115246</v>
+      </c>
+      <c r="M23" s="4">
+        <v>9</v>
+      </c>
+      <c r="N23" s="4">
+        <v>3.0034679105392827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>9.5</v>
+      </c>
+      <c r="E24">
+        <v>6.3461554608051163</v>
+      </c>
+      <c r="G24">
+        <v>9.5</v>
+      </c>
+      <c r="H24">
+        <v>3.6011635861705638E-2</v>
+      </c>
+      <c r="J24">
+        <v>9.5</v>
+      </c>
+      <c r="K24">
+        <v>132.34031534064559</v>
+      </c>
+      <c r="M24">
+        <v>9.5</v>
+      </c>
+      <c r="N24">
+        <v>2.2857166280659214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>5.1269048594007778</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>2.1562925976140655E-2</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>127.96729876392514</v>
+      </c>
+      <c r="M25">
+        <v>10</v>
+      </c>
+      <c r="N25">
+        <v>1.7402382601005491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>10.5</v>
+      </c>
+      <c r="E26">
+        <v>4.1412088955548452</v>
+      </c>
+      <c r="G26">
+        <v>10.5</v>
+      </c>
+      <c r="H26">
+        <v>1.2911442913998466E-2</v>
+      </c>
+      <c r="J26">
+        <v>10.5</v>
+      </c>
+      <c r="K26">
+        <v>123.74871523503633</v>
+      </c>
+      <c r="M26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <v>1.3241266437623718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>3.3458207959299138</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27">
+        <v>7.731287466974374E-3</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>119.66880344320654</v>
+      </c>
+      <c r="M27">
+        <v>11</v>
+      </c>
+      <c r="N27">
+        <v>1.008029567858389</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2.7024487923745113</v>
+      </c>
+      <c r="G28">
+        <v>11.5</v>
+      </c>
+      <c r="H28">
+        <v>4.6296253205140164E-3</v>
+      </c>
+      <c r="J28">
+        <v>11.5</v>
+      </c>
+      <c r="K28">
+        <v>115.72566433548539</v>
+      </c>
+      <c r="M28">
+        <v>11.5</v>
+      </c>
+      <c r="N28">
+        <v>0.76717744774803565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>2.1834893358478586</v>
+      </c>
+      <c r="G29">
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <v>2.7724493757404559E-3</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <v>111.92428870967383</v>
+      </c>
+      <c r="M29">
+        <v>12</v>
+      </c>
+      <c r="N29">
+        <v>0.58396285979524032</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>12.5</v>
+      </c>
+      <c r="E30">
+        <v>1.7635643998126833</v>
+      </c>
+      <c r="G30">
+        <v>12.5</v>
+      </c>
+      <c r="H30">
+        <v>1.6603969950084645E-3</v>
+      </c>
+      <c r="J30">
+        <v>12.5</v>
+      </c>
+      <c r="K30">
+        <v>108.24207201793965</v>
+      </c>
+      <c r="M30">
+        <v>12.5</v>
+      </c>
+      <c r="N30">
+        <v>0.4446130874740078</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>1.4248719213755234</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>9.9429047601400154E-4</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>104.68257564549714</v>
+      </c>
+      <c r="M31">
+        <v>13</v>
+      </c>
+      <c r="N31">
+        <v>0.33837710546443384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>1.150852097892622</v>
+      </c>
+      <c r="G32">
+        <v>13.5</v>
+      </c>
+      <c r="H32">
+        <v>5.9533251637993541E-4</v>
+      </c>
+      <c r="J32">
+        <v>13.5</v>
+      </c>
+      <c r="K32">
+        <v>101.24970687812174</v>
+      </c>
+      <c r="M32">
+        <v>13.5</v>
+      </c>
+      <c r="N32">
+        <v>0.25766230603625317</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>0.92979154146781706</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>3.564606594826419E-4</v>
+      </c>
+      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="K33">
+        <v>97.920588655195601</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>0.19610553798359356</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>14.5</v>
+      </c>
+      <c r="E34">
+        <v>0.7509879108677564</v>
+      </c>
+      <c r="G34">
+        <v>14.5</v>
+      </c>
+      <c r="H34">
+        <v>2.1343930449913801E-4</v>
+      </c>
+      <c r="J34">
+        <v>14.5</v>
+      </c>
+      <c r="K34">
+        <v>94.703642142442092</v>
+      </c>
+      <c r="M34">
+        <v>14.5</v>
+      </c>
+      <c r="N34">
+        <v>0.14930751495291858</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>0.60672225747399899</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>1.2780662611150566E-4</v>
+      </c>
+      <c r="J35">
+        <v>15</v>
+      </c>
+      <c r="K35">
+        <v>91.599718019624163</v>
+      </c>
+      <c r="M35">
+        <v>15</v>
+      </c>
+      <c r="N35">
+        <v>0.1136662101939134</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>15.5</v>
+      </c>
+      <c r="E36">
+        <v>0.4900660962779369</v>
+      </c>
+      <c r="G36">
+        <v>15.5</v>
+      </c>
+      <c r="H36">
+        <v>7.653396901017594E-5</v>
+      </c>
+      <c r="J36">
+        <v>15.5</v>
+      </c>
+      <c r="K36">
+        <v>88.588123528326804</v>
+      </c>
+      <c r="M36">
+        <v>15.5</v>
+      </c>
+      <c r="N36">
+        <v>8.6522690608872341E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>0.39591819035732667</v>
+      </c>
+      <c r="G37">
+        <v>16</v>
+      </c>
+      <c r="H37">
+        <v>4.5833501799420314E-5</v>
+      </c>
+      <c r="J37">
+        <v>16</v>
+      </c>
+      <c r="K37">
+        <v>85.679088412826886</v>
+      </c>
+      <c r="M37">
+        <v>16</v>
+      </c>
+      <c r="N37">
+        <v>6.588797760252231E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>16.5</v>
+      </c>
+      <c r="E38">
+        <v>0.31980796021270247</v>
+      </c>
+      <c r="G38">
+        <v>16.5</v>
+      </c>
+      <c r="H38">
+        <v>2.7450113266093908E-5</v>
+      </c>
+      <c r="J38">
+        <v>16.5</v>
+      </c>
+      <c r="K38">
+        <v>82.870430542869059</v>
+      </c>
+      <c r="M38">
+        <v>16.5</v>
+      </c>
+      <c r="N38">
+        <v>5.0142460713427491E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>0.25836316467133841</v>
+      </c>
+      <c r="G39">
+        <v>17</v>
+      </c>
+      <c r="H39">
+        <v>1.6435718510740249E-5</v>
+      </c>
+      <c r="J39">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>80.146368469937784</v>
+      </c>
+      <c r="M39">
+        <v>17</v>
+      </c>
+      <c r="N39">
+        <v>3.8180015541006786E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>17.5</v>
+      </c>
+      <c r="E40">
+        <v>0.20870516158860961</v>
+      </c>
+      <c r="G40">
+        <v>17.5</v>
+      </c>
+      <c r="H40">
+        <v>9.8409382212789514E-6</v>
+      </c>
+      <c r="J40">
+        <v>17.5</v>
+      </c>
+      <c r="K40">
+        <v>77.515238226811775</v>
+      </c>
+      <c r="M40">
+        <v>17.5</v>
+      </c>
+      <c r="N40">
+        <v>2.906169037701618E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>0.1686014769045697</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>5.8924028886897881E-6</v>
+      </c>
+      <c r="J41">
+        <v>18</v>
+      </c>
+      <c r="K41">
+        <v>74.973482401442936</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+      <c r="N41">
+        <v>2.2124588393405909E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>18.5</v>
+      </c>
+      <c r="E42">
+        <v>0.13620184000107038</v>
+      </c>
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
+        <v>3.5282686486757899E-6</v>
+      </c>
+      <c r="J42">
+        <v>18.5</v>
+      </c>
+      <c r="K42">
+        <v>72.509262699610701</v>
+      </c>
+      <c r="M42">
+        <v>18.5</v>
+      </c>
+      <c r="N42">
+        <v>1.6845710098388585E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>0.11002596723836912</v>
+      </c>
+      <c r="G43">
+        <v>19</v>
+      </c>
+      <c r="H43">
+        <v>2.1127574187315483E-6</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>70.129383776421875</v>
+      </c>
+      <c r="M43">
+        <v>19</v>
+      </c>
+      <c r="N43">
+        <v>1.2821376191045819E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>19.5</v>
+      </c>
+      <c r="E44">
+        <v>8.8886723150380778E-2</v>
+      </c>
+      <c r="G44">
+        <v>19.5</v>
+      </c>
+      <c r="H44">
+        <v>1.265208896063921E-6</v>
+      </c>
+      <c r="J44">
+        <v>19.5</v>
+      </c>
+      <c r="K44">
+        <v>67.826103757519888</v>
+      </c>
+      <c r="M44">
+        <v>19.5</v>
+      </c>
+      <c r="N44">
+        <v>9.7632364388158255E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>7.1801072077283479E-2</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>7.5771456573349397E-7</v>
+      </c>
+      <c r="J45">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>65.585676681242745</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>7.430645742122685E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>20.5</v>
+      </c>
+      <c r="E46">
+        <v>5.8008857204168429E-2</v>
+      </c>
+      <c r="G46">
+        <v>20.5</v>
+      </c>
+      <c r="H46">
+        <v>4.5375130682408621E-7</v>
+      </c>
+      <c r="J46">
+        <v>20.5</v>
+      </c>
+      <c r="K46">
+        <v>63.416990208422753</v>
+      </c>
+      <c r="M46">
+        <v>20.5</v>
+      </c>
+      <c r="N46">
+        <v>5.6575259642029562E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>4.6856321928956411E-2</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47">
+        <v>2.7168352905789618E-7</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>61.32004433906004</v>
+      </c>
+      <c r="M47">
+        <v>21</v>
+      </c>
+      <c r="N47">
+        <v>4.3068927522450342E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>21.5</v>
+      </c>
+      <c r="E48">
+        <v>3.7857773397960703E-2</v>
+      </c>
+      <c r="G48">
+        <v>21.5</v>
+      </c>
+      <c r="H48">
+        <v>1.6267250028757701E-7</v>
+      </c>
+      <c r="J48">
+        <v>21.5</v>
+      </c>
+      <c r="K48">
+        <v>59.294839073154314</v>
+      </c>
+      <c r="M48">
+        <v>21.5</v>
+      </c>
+      <c r="N48">
+        <v>3.2784864684440736E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>3.0577849288670914E-2</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
+      </c>
+      <c r="H49">
+        <v>9.7403683698452467E-8</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>57.341374410705427</v>
+      </c>
+      <c r="M49">
+        <v>22</v>
+      </c>
+      <c r="N49">
+        <v>2.4966203969594681E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>22.5</v>
+      </c>
+      <c r="E50">
+        <v>2.4705946306070231E-2</v>
+      </c>
+      <c r="G50">
+        <v>22.5</v>
+      </c>
+      <c r="H50">
+        <v>5.8324676630455811E-8</v>
+      </c>
+      <c r="J50">
+        <v>22.5</v>
+      </c>
+      <c r="K50">
+        <v>55.443450657048608</v>
+      </c>
+      <c r="M50">
+        <v>22.5</v>
+      </c>
+      <c r="N50">
+        <v>1.899966460573374E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51">
+        <v>1.9954792745558017E-2</v>
+      </c>
+      <c r="G51">
+        <v>23</v>
+      </c>
+      <c r="H51">
+        <v>3.4926145580900371E-8</v>
+      </c>
+      <c r="J51">
+        <v>23</v>
+      </c>
+      <c r="K51">
+        <v>53.599893990338821</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>1.4467121542668022E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>23.5</v>
+      </c>
+      <c r="E52">
+        <v>1.6122565907022761E-2</v>
+      </c>
+      <c r="G52">
+        <v>23.5</v>
+      </c>
+      <c r="H52">
+        <v>2.0915889210730172E-8</v>
+      </c>
+      <c r="J52">
+        <v>23.5</v>
+      </c>
+      <c r="K52">
+        <v>51.8196641054518</v>
+      </c>
+      <c r="M52">
+        <v>23.5</v>
+      </c>
+      <c r="N52">
+        <v>1.1011760130267938E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53">
+        <v>1.3022344160616527E-2</v>
+      </c>
+      <c r="G53">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>1.252667197330015E-8</v>
+      </c>
+      <c r="J53">
+        <v>24</v>
+      </c>
+      <c r="K53">
+        <v>50.102761002387531</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <v>8.3833936832538388E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>24.5</v>
+      </c>
+      <c r="E54">
+        <v>1.0521240853017731E-2</v>
+      </c>
+      <c r="G54">
+        <v>24.5</v>
+      </c>
+      <c r="H54">
+        <v>7.500526100894078E-9</v>
+      </c>
+      <c r="J54">
+        <v>24.5</v>
+      </c>
+      <c r="K54">
+        <v>48.449184681145866</v>
+      </c>
+      <c r="M54">
+        <v>24.5</v>
+      </c>
+      <c r="N54">
+        <v>6.3829198867817289E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>8.4983176392832357E-3</v>
+      </c>
+      <c r="G55">
+        <v>25</v>
+      </c>
+      <c r="H55">
+        <v>4.4909579005525717E-9</v>
+      </c>
+      <c r="J55">
+        <v>25</v>
+      </c>
+      <c r="K55">
+        <v>46.858935141727265</v>
+      </c>
+      <c r="M55">
+        <v>25</v>
+      </c>
+      <c r="N55">
+        <v>4.8582158700687648E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>25.5</v>
+      </c>
+      <c r="E56">
+        <v>6.8659405302657862E-3</v>
+      </c>
+      <c r="G56">
+        <v>25.5</v>
+      </c>
+      <c r="H56">
+        <v>2.6890189362040207E-9</v>
+      </c>
+      <c r="J56">
+        <v>25.5</v>
+      </c>
+      <c r="K56">
+        <v>45.30205293951169</v>
+      </c>
+      <c r="M56">
+        <v>25.5</v>
+      </c>
+      <c r="N56">
+        <v>3.6994752726608835E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>26</v>
+      </c>
+      <c r="E57">
+        <v>5.5459859643594281E-3</v>
+      </c>
+      <c r="G57">
+        <v>26</v>
+      </c>
+      <c r="H57">
+        <v>1.6101320531640274E-9</v>
+      </c>
+      <c r="J57">
+        <v>26</v>
+      </c>
+      <c r="K57">
+        <v>43.792416954687233</v>
+      </c>
+      <c r="M57">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <v>2.8155614313884699E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>26.5</v>
+      </c>
+      <c r="E58">
+        <v>4.4805727027953587E-3</v>
+      </c>
+      <c r="G58">
+        <v>26.5</v>
+      </c>
+      <c r="H58">
+        <v>9.6415608743681136E-10</v>
+      </c>
+      <c r="J58">
+        <v>26.5</v>
+      </c>
+      <c r="K58">
+        <v>42.335191392066513</v>
+      </c>
+      <c r="M58">
+        <v>26.5</v>
+      </c>
+      <c r="N58">
+        <v>2.1437398984600775E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>3.6193182092476186E-3</v>
+      </c>
+      <c r="G59">
+        <v>27</v>
+      </c>
+      <c r="H59">
+        <v>5.773739887082386E-10</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>40.93037625164952</v>
+      </c>
+      <c r="M59">
+        <v>27</v>
+      </c>
+      <c r="N59">
+        <v>1.6319147836838964E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>27.5</v>
+      </c>
+      <c r="E60">
+        <v>2.9239341339593189E-3</v>
+      </c>
+      <c r="G60">
+        <v>27.5</v>
+      </c>
+      <c r="H60">
+        <v>3.4577791051689743E-10</v>
+      </c>
+      <c r="J60">
+        <v>27.5</v>
+      </c>
+      <c r="K60">
+        <v>39.577971533436092</v>
+      </c>
+      <c r="M60">
+        <v>27.5</v>
+      </c>
+      <c r="N60">
+        <v>1.2422730600075601E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>2.3619850740671028E-3</v>
+      </c>
+      <c r="G61">
+        <v>28</v>
+      </c>
+      <c r="H61">
+        <v>2.0707180526314282E-10</v>
+      </c>
+      <c r="J61">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>38.276473160811861</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>9.459937314928413E-5</v>
+      </c>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>28.5</v>
+      </c>
+      <c r="E62">
+        <v>1.9081053979298217E-3</v>
+      </c>
+      <c r="G62">
+        <v>28.5</v>
+      </c>
+      <c r="H62">
+        <v>1.2398413348087051E-10</v>
+      </c>
+      <c r="J62">
+        <v>28.5</v>
+      </c>
+      <c r="K62">
+        <v>36.998481721354416</v>
+      </c>
+      <c r="M62">
+        <v>28.5</v>
+      </c>
+      <c r="N62">
+        <v>7.1992387262391139E-5</v>
+      </c>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>1.5414523269876208E-3</v>
+      </c>
+      <c r="G63">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>7.4236276568064233E-11</v>
+      </c>
+      <c r="J63">
+        <v>29</v>
+      </c>
+      <c r="K63">
+        <v>35.764073619764638</v>
+      </c>
+      <c r="M63">
+        <v>29</v>
+      </c>
+      <c r="N63">
+        <v>5.4818635338116938E-5</v>
+      </c>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>29.5</v>
+      </c>
+      <c r="E64">
+        <v>1.2451968396394156E-3</v>
+      </c>
+      <c r="G64">
+        <v>29.5</v>
+      </c>
+      <c r="H64">
+        <v>4.4450448250138945E-11</v>
+      </c>
+      <c r="J64">
+        <v>29.5</v>
+      </c>
+      <c r="K64">
+        <v>34.57324885604298</v>
+      </c>
+      <c r="M64">
+        <v>29.5</v>
+      </c>
+      <c r="N64">
+        <v>4.1724686966568878E-5</v>
+      </c>
+    </row>
+    <row r="65" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>1.0059717997490279E-3</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>2.6616520404525853E-11</v>
+      </c>
+      <c r="J65">
+        <v>30</v>
+      </c>
+      <c r="K65">
+        <v>33.426007430189458</v>
+      </c>
+      <c r="M65">
+        <v>30</v>
+      </c>
+      <c r="N65">
+        <v>3.1766157894853415E-5</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>30.5</v>
+      </c>
+      <c r="E66">
+        <v>8.1259602556162775E-4</v>
+      </c>
+      <c r="G66">
+        <v>30.5</v>
+      </c>
+      <c r="H66">
+        <v>1.5938490705790923E-11</v>
+      </c>
+      <c r="J66">
+        <v>30.5</v>
+      </c>
+      <c r="K66">
+        <v>32.322349342203907</v>
+      </c>
+      <c r="M66">
+        <v>30.5</v>
+      </c>
+      <c r="N66">
+        <v>2.418522208059281E-5</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>31</v>
+      </c>
+      <c r="E67">
+        <v>6.5651472396701402E-4</v>
+      </c>
+      <c r="G67">
+        <v>31</v>
+      </c>
+      <c r="H67">
+        <v>9.5448661147998667E-12</v>
+      </c>
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>31.25573293317094</v>
+      </c>
+      <c r="M67">
+        <v>31</v>
+      </c>
+      <c r="N67">
+        <v>1.8408536323031691E-5</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>31.5</v>
+      </c>
+      <c r="E68">
+        <v>5.3028894737691635E-4</v>
+      </c>
+      <c r="G68">
+        <v>31.5</v>
+      </c>
+      <c r="H68">
+        <v>5.7164384223719556E-12</v>
+      </c>
+      <c r="J68">
+        <v>31.5</v>
+      </c>
+      <c r="K68">
+        <v>30.211487442001676</v>
+      </c>
+      <c r="M68">
+        <v>31.5</v>
+      </c>
+      <c r="N68">
+        <v>1.4018013231112227E-5</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>32</v>
+      </c>
+      <c r="E69">
+        <v>4.2845606010331248E-4</v>
+      </c>
+      <c r="G69">
+        <v>32</v>
+      </c>
+      <c r="H69">
+        <v>3.4229035085702571E-12</v>
+      </c>
+      <c r="J69">
+        <v>32</v>
+      </c>
+      <c r="K69">
+        <v>29.203267156611552</v>
+      </c>
+      <c r="M69">
+        <v>32</v>
+      </c>
+      <c r="N69">
+        <v>1.0668512458662416E-5</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>32.5</v>
+      </c>
+      <c r="E70">
+        <v>3.4606033234017158E-4</v>
+      </c>
+      <c r="G70">
+        <v>32.5</v>
+      </c>
+      <c r="H70">
+        <v>2.0494691313368986E-12</v>
+      </c>
+      <c r="J70">
+        <v>32.5</v>
+      </c>
+      <c r="K70">
+        <v>28.231072077000423</v>
+      </c>
+      <c r="M70">
+        <v>32.5</v>
+      </c>
+      <c r="N70">
+        <v>8.1230241254066945E-6</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>2.7960469851217321E-4</v>
+      </c>
+      <c r="G71">
+        <v>33</v>
+      </c>
+      <c r="H71">
+        <v>1.2271431111832033E-12</v>
+      </c>
+      <c r="J71">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>27.294902203168139</v>
+      </c>
+      <c r="M71">
+        <v>33</v>
+      </c>
+      <c r="N71">
+        <v>6.1834583636132426E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>33.5</v>
+      </c>
+      <c r="E72">
+        <v>2.2583569757228425E-4</v>
+      </c>
+      <c r="G72">
+        <v>33.5</v>
+      </c>
+      <c r="H72">
+        <v>7.3478665137394733E-13</v>
+      </c>
+      <c r="J72">
+        <v>33.5</v>
+      </c>
+      <c r="K72">
+        <v>26.394757535114699</v>
+      </c>
+      <c r="M72">
+        <v>33.5</v>
+      </c>
+      <c r="N72">
+        <v>4.7071817334914029E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>34</v>
+      </c>
+      <c r="E73">
+        <v>1.8246399640787437E-4</v>
+      </c>
+      <c r="G73">
+        <v>34</v>
+      </c>
+      <c r="H73">
+        <v>4.3999216401175296E-13</v>
+      </c>
+      <c r="J73">
+        <v>34</v>
+      </c>
+      <c r="K73">
+        <v>25.520440737555493</v>
+      </c>
+      <c r="M73">
+        <v>34</v>
+      </c>
+      <c r="N73">
+        <v>3.5843954377479201E-6</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34.5</v>
+      </c>
+      <c r="E74">
+        <v>1.4737880974848973E-4</v>
+      </c>
+      <c r="G74">
+        <v>34.5</v>
+      </c>
+      <c r="H74">
+        <v>2.6348265686049849E-13</v>
+      </c>
+      <c r="J74">
+        <v>34.5</v>
+      </c>
+      <c r="K74">
+        <v>24.667683953525763</v>
+      </c>
+      <c r="M74">
+        <v>34.5</v>
+      </c>
+      <c r="N74">
+        <v>2.7278944394928E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>1.1907211176498888E-4</v>
+      </c>
+      <c r="G75">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>1.5735352050348148E-13</v>
+      </c>
+      <c r="J75">
+        <v>35</v>
+      </c>
+      <c r="K75">
+        <v>23.844627613346706</v>
+      </c>
+      <c r="M75">
+        <v>35</v>
+      </c>
+      <c r="N75">
+        <v>2.0771811571779971E-6</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>35.5</v>
+      </c>
+      <c r="E76">
+        <v>9.6178805395525309E-5</v>
+      </c>
+      <c r="G76">
+        <v>35.5</v>
+      </c>
+      <c r="H76">
+        <v>9.3189123120745277E-14</v>
+      </c>
+      <c r="J76">
+        <v>35.5</v>
+      </c>
+      <c r="K76">
+        <v>23.051271717018174</v>
+      </c>
+      <c r="M76">
+        <v>35.5</v>
+      </c>
+      <c r="N76">
+        <v>1.5809928485430666E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>7.7703974832444569E-5</v>
+      </c>
+      <c r="G77">
+        <v>36</v>
+      </c>
+      <c r="H77">
+        <v>5.5147361601880959E-14</v>
+      </c>
+      <c r="J77">
+        <v>36</v>
+      </c>
+      <c r="K77">
+        <v>22.28761626454002</v>
+      </c>
+      <c r="M77">
+        <v>36</v>
+      </c>
+      <c r="N77">
+        <v>1.2036762415449366E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>36.5</v>
+      </c>
+      <c r="E78">
+        <v>6.2766190842682127E-5</v>
+      </c>
+      <c r="G78">
+        <v>36.5</v>
+      </c>
+      <c r="H78">
+        <v>3.2650133874580651E-14</v>
+      </c>
+      <c r="J78">
+        <v>36.5</v>
+      </c>
+      <c r="K78">
+        <v>21.553661255912697</v>
+      </c>
+      <c r="M78">
+        <v>36.5</v>
+      </c>
+      <c r="N78">
+        <v>9.1639218584813944E-7</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>5.0708045159370028E-5</v>
+      </c>
+      <c r="G79">
+        <v>37</v>
+      </c>
+      <c r="H79">
+        <v>1.9359845100005984E-14</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>20.83676971551705</v>
+      </c>
+      <c r="M79">
+        <v>37</v>
+      </c>
+      <c r="N79">
+        <v>6.9752855542448201E-7</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>37.5</v>
+      </c>
+      <c r="E80">
+        <v>4.0961364087290674E-5</v>
+      </c>
+      <c r="G80">
+        <v>37.5</v>
+      </c>
+      <c r="H80">
+        <v>1.1477973150221104E-14</v>
+      </c>
+      <c r="J80">
+        <v>37.5</v>
+      </c>
+      <c r="K80">
+        <v>20.14058376665891</v>
+      </c>
+      <c r="M80">
+        <v>37.5</v>
+      </c>
+      <c r="N80">
+        <v>5.311691150485121E-7</v>
+      </c>
+    </row>
+    <row r="81" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>38</v>
+      </c>
+      <c r="E81">
+        <v>3.3091092660422526E-5</v>
+      </c>
+      <c r="G81">
+        <v>38</v>
+      </c>
+      <c r="H81">
+        <v>6.5628473023934547E-15</v>
+      </c>
+      <c r="J81">
+        <v>38</v>
+      </c>
+      <c r="K81">
+        <v>19.468856265569357</v>
+      </c>
+      <c r="M81">
+        <v>38</v>
+      </c>
+      <c r="N81">
+        <v>4.042435826384137E-7</v>
+      </c>
+    </row>
+    <row r="82" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>38.5</v>
+      </c>
+      <c r="E82">
+        <v>2.6731632326361308E-5</v>
+      </c>
+      <c r="G82">
+        <v>38.5</v>
+      </c>
+      <c r="H82">
+        <v>3.6280087821334709E-15</v>
+      </c>
+      <c r="J82">
+        <v>38.5</v>
+      </c>
+      <c r="K82">
+        <v>18.821587212248239</v>
+      </c>
+      <c r="M82">
+        <v>38.5</v>
+      </c>
+      <c r="N82">
+        <v>3.0779637959720183E-7</v>
+      </c>
+    </row>
+    <row r="83" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>39</v>
+      </c>
+      <c r="E83">
+        <v>2.1594646915405922E-5</v>
+      </c>
+      <c r="G83">
+        <v>39</v>
+      </c>
+      <c r="H83">
+        <v>1.9890065033910198E-15</v>
+      </c>
+      <c r="J83">
+        <v>39</v>
+      </c>
+      <c r="K83">
+        <v>18.198776606695407</v>
+      </c>
+      <c r="M83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>2.3429657530479458E-7</v>
+      </c>
+    </row>
+    <row r="84" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>39.5</v>
+      </c>
+      <c r="E84">
+        <v>1.7445329116602938E-5</v>
+      </c>
+      <c r="G84">
+        <v>39.5</v>
+      </c>
+      <c r="H84">
+        <v>1.0917063415999943E-15</v>
+      </c>
+      <c r="J84">
+        <v>39.5</v>
+      </c>
+      <c r="K84">
+        <v>17.600424448911014</v>
+      </c>
+      <c r="M84">
+        <v>39.5</v>
+      </c>
+      <c r="N84">
+        <v>1.7836312963050217E-7</v>
+      </c>
+    </row>
+    <row r="85" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>40</v>
+      </c>
+      <c r="E85">
+        <v>1.4092304718905636E-5</v>
+      </c>
+      <c r="G85">
+        <v>40</v>
+      </c>
+      <c r="H85">
+        <v>6.0111949346002576E-16</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>17.012422169883482</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85">
+        <v>1.358139093430901E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>40.5</v>
+      </c>
+      <c r="E86">
+        <v>1.1385069031953365E-5</v>
+      </c>
+      <c r="G86">
+        <v>40.5</v>
+      </c>
+      <c r="H86">
+        <v>3.2239353332992161E-16</v>
+      </c>
+      <c r="J86">
+        <v>40.5</v>
+      </c>
+      <c r="K86">
+        <v>16.444148747945558</v>
+      </c>
+      <c r="M86">
+        <v>40.5</v>
+      </c>
+      <c r="N86">
+        <v>1.0336389889590038E-7</v>
+      </c>
+    </row>
+    <row r="87" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>41</v>
+      </c>
+      <c r="E87">
+        <v>9.1964247623514039E-6</v>
+      </c>
+      <c r="G87">
+        <v>41</v>
+      </c>
+      <c r="H87">
+        <v>1.2306073315859713E-16</v>
+      </c>
+      <c r="J87">
+        <v>41</v>
+      </c>
+      <c r="K87">
+        <v>15.896007059706232</v>
+      </c>
+      <c r="M87">
+        <v>41</v>
+      </c>
+      <c r="N87">
+        <v>7.8708309621429323E-8</v>
+      </c>
+    </row>
+    <row r="88" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>41.5</v>
+      </c>
+      <c r="E88">
+        <v>7.4301089051706787E-6</v>
+      </c>
+      <c r="G88">
+        <v>41.5</v>
+      </c>
+      <c r="H88">
+        <v>3.3673986271854008E-17</v>
+      </c>
+      <c r="J88">
+        <v>41.5</v>
+      </c>
+      <c r="K88">
+        <v>15.367997105165653</v>
+      </c>
+      <c r="M88">
+        <v>41.5</v>
+      </c>
+      <c r="N88">
+        <v>5.9905567450604559E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>42</v>
+      </c>
+      <c r="E89">
+        <v>6.0014647787376784E-6</v>
+      </c>
+      <c r="G89">
+        <v>42</v>
+      </c>
+      <c r="H89">
+        <v>2.2274089642188319E-17</v>
+      </c>
+      <c r="J89">
+        <v>42</v>
+      </c>
+      <c r="K89">
+        <v>14.860118884323954</v>
+      </c>
+      <c r="M89">
+        <v>42</v>
+      </c>
+      <c r="N89">
+        <v>4.5609451166008621E-8</v>
+      </c>
+    </row>
+    <row r="90" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>42.5</v>
+      </c>
+      <c r="E90">
+        <v>4.8490290379700559E-6</v>
+      </c>
+      <c r="G90">
+        <v>42.5</v>
+      </c>
+      <c r="H90">
+        <v>1.0874193012522808E-17</v>
+      </c>
+      <c r="J90">
+        <v>42.5</v>
+      </c>
+      <c r="K90">
+        <v>14.37029996181313</v>
+      </c>
+      <c r="M90">
+        <v>42.5</v>
+      </c>
+      <c r="N90">
+        <v>3.4722682831793856E-8</v>
+      </c>
+    </row>
+    <row r="91" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>43</v>
+      </c>
+      <c r="E91">
+        <v>3.9164889438298601E-6</v>
+      </c>
+      <c r="G91">
+        <v>43</v>
+      </c>
+      <c r="H91">
+        <v>-5.2570361714291003E-19</v>
+      </c>
+      <c r="J91">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>13.889918703526812</v>
+      </c>
+      <c r="M91">
+        <v>43</v>
+      </c>
+      <c r="N91">
+        <v>2.6430476663371103E-8</v>
+      </c>
+    </row>
+    <row r="92" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>43.5</v>
+      </c>
+      <c r="E92">
+        <v>3.1643715803307926E-6</v>
+      </c>
+      <c r="G92">
+        <v>43.5</v>
+      </c>
+      <c r="H92">
+        <v>-1.1925600246808584E-17</v>
+      </c>
+      <c r="J92">
+        <v>43.5</v>
+      </c>
+      <c r="K92">
+        <v>13.426104308262307</v>
+      </c>
+      <c r="M92">
+        <v>43.5</v>
+      </c>
+      <c r="N92">
+        <v>2.0127005633701668E-8</v>
+      </c>
+    </row>
+    <row r="93" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>44</v>
+      </c>
+      <c r="E93">
+        <v>2.5558661368923758E-6</v>
+      </c>
+      <c r="G93">
+        <v>44</v>
+      </c>
+      <c r="H93">
+        <v>-1.8644644588501206E-17</v>
+      </c>
+      <c r="J93">
+        <v>44</v>
+      </c>
+      <c r="K93">
+        <v>12.978856776019722</v>
+      </c>
+      <c r="M93">
+        <v>44</v>
+      </c>
+      <c r="N93">
+        <v>1.5317320229896938E-8</v>
+      </c>
+    </row>
+    <row r="94" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>44.5</v>
+      </c>
+      <c r="E94">
+        <v>2.0650007684434865E-6</v>
+      </c>
+      <c r="G94">
+        <v>44.5</v>
+      </c>
+      <c r="H94">
+        <v>-1.864960946044017E-17</v>
+      </c>
+      <c r="J94">
+        <v>44.5</v>
+      </c>
+      <c r="K94">
+        <v>12.548176106798905</v>
+      </c>
+      <c r="M94">
+        <v>44.5</v>
+      </c>
+      <c r="N94">
+        <v>1.16629757743925E-8</v>
+      </c>
+    </row>
+    <row r="95" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>45</v>
+      </c>
+      <c r="E95">
+        <v>1.6679424251709107E-6</v>
+      </c>
+      <c r="G95">
+        <v>45</v>
+      </c>
+      <c r="H95">
+        <v>-1.8654574332378989E-17</v>
+      </c>
+      <c r="J95">
+        <v>45</v>
+      </c>
+      <c r="K95">
+        <v>12.134062300600005</v>
+      </c>
+      <c r="M95">
+        <v>45</v>
+      </c>
+      <c r="N95">
+        <v>8.8777101816611812E-9</v>
+      </c>
+    </row>
+    <row r="96" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>45.5</v>
+      </c>
+      <c r="E96">
+        <v>1.347575665503301E-6</v>
+      </c>
+      <c r="G96">
+        <v>45.5</v>
+      </c>
+      <c r="H96">
+        <v>-1.8659539204317815E-17</v>
+      </c>
+      <c r="J96">
+        <v>45.5</v>
+      </c>
+      <c r="K96">
+        <v>11.732678086006002</v>
+      </c>
+      <c r="M96">
+        <v>45.5</v>
+      </c>
+      <c r="N96">
+        <v>6.7584858896423275E-9</v>
+      </c>
+    </row>
+    <row r="97" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>46</v>
+      </c>
+      <c r="E97">
+        <v>1.0884937431100712E-6</v>
+      </c>
+      <c r="G97">
+        <v>46</v>
+      </c>
+      <c r="H97">
+        <v>-1.8664504076256634E-17</v>
+      </c>
+      <c r="J97">
+        <v>46</v>
+      </c>
+      <c r="K97">
+        <v>11.340520559062872</v>
+      </c>
+      <c r="M97">
+        <v>46</v>
+      </c>
+      <c r="N97">
+        <v>5.146041070951537E-9</v>
+      </c>
+    </row>
+    <row r="98" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>46.5</v>
+      </c>
+      <c r="E98">
+        <v>8.7939997424020924E-7</v>
+      </c>
+      <c r="G98">
+        <v>46.5</v>
+      </c>
+      <c r="H98">
+        <v>-1.7576810740269565E-17</v>
+      </c>
+      <c r="J98">
+        <v>46.5</v>
+      </c>
+      <c r="K98">
+        <v>10.961995008154885</v>
+      </c>
+      <c r="M98">
+        <v>46.5</v>
+      </c>
+      <c r="N98">
+        <v>3.916611812984139E-9</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>47</v>
+      </c>
+      <c r="E99">
+        <v>7.1035089048933946E-7</v>
+      </c>
+      <c r="G99">
+        <v>47</v>
+      </c>
+      <c r="H99">
+        <v>-1.623902209830502E-17</v>
+      </c>
+      <c r="J99">
+        <v>47</v>
+      </c>
+      <c r="K99">
+        <v>10.597101433282223</v>
+      </c>
+      <c r="M99">
+        <v>47</v>
+      </c>
+      <c r="N99">
+        <v>2.9824065446027462E-9</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>47.5</v>
+      </c>
+      <c r="E100">
+        <v>5.7387886807022403E-7</v>
+      </c>
+      <c r="G100">
+        <v>47.5</v>
+      </c>
+      <c r="H100">
+        <v>-1.4901233456340327E-17</v>
+      </c>
+      <c r="J100">
+        <v>47.5</v>
+      </c>
+      <c r="K100">
+        <v>10.245839834444686</v>
+      </c>
+      <c r="M100">
+        <v>47.5</v>
+      </c>
+      <c r="N100">
+        <v>2.2698905521156853E-9</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>48</v>
+      </c>
+      <c r="E101">
+        <v>4.6357735807851098E-7</v>
+      </c>
+      <c r="G101">
+        <v>48</v>
+      </c>
+      <c r="H101">
+        <v>-1.3563444814375815E-17</v>
+      </c>
+      <c r="J101">
+        <v>48</v>
+      </c>
+      <c r="K101">
+        <v>9.9082102116423769</v>
+      </c>
+      <c r="M101">
+        <v>48</v>
+      </c>
+      <c r="N101">
+        <v>1.7282244838389822E-9</v>
+      </c>
+    </row>
+    <row r="102" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>48.5</v>
+      </c>
+      <c r="E102">
+        <v>3.745024521177718E-7</v>
+      </c>
+      <c r="G102">
+        <v>48.5</v>
+      </c>
+      <c r="H102">
+        <v>-1.2225656172411197E-17</v>
+      </c>
+      <c r="J102">
+        <v>48.5</v>
+      </c>
+      <c r="K102">
+        <v>9.5791758394970596</v>
+      </c>
+      <c r="M102">
+        <v>48.5</v>
+      </c>
+      <c r="N102">
+        <v>1.3156663112455462E-9</v>
+      </c>
+    </row>
+    <row r="103" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>49</v>
+      </c>
+      <c r="E103">
+        <v>3.0253385749602266E-7</v>
+      </c>
+      <c r="G103">
+        <v>49</v>
+      </c>
+      <c r="H103">
+        <v>-1.0887867530446564E-17</v>
+      </c>
+      <c r="J103">
+        <v>49</v>
+      </c>
+      <c r="K103">
+        <v>9.2590621480154098</v>
+      </c>
+      <c r="M103">
+        <v>49</v>
+      </c>
+      <c r="N103">
+        <v>1.0014937880416565E-9</v>
+      </c>
+    </row>
+    <row r="104" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>49.5</v>
+      </c>
+      <c r="E104">
+        <v>2.4439364113912729E-7</v>
+      </c>
+      <c r="G104">
+        <v>49.5</v>
+      </c>
+      <c r="H104">
+        <v>-9.5500788884819178E-18</v>
+      </c>
+      <c r="J104">
+        <v>49.5</v>
+      </c>
+      <c r="K104">
+        <v>8.9501650181104928</v>
+      </c>
+      <c r="M104">
+        <v>49.5</v>
+      </c>
+      <c r="N104">
+        <v>7.6265042421732096E-10</v>
+      </c>
+    </row>
+    <row r="105" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>50</v>
+      </c>
+      <c r="E105">
+        <v>1.97436946819103E-7</v>
+      </c>
+      <c r="G105">
+        <v>50</v>
+      </c>
+      <c r="H105">
+        <v>-8.2122902465173158E-18</v>
+      </c>
+      <c r="J105">
+        <v>50</v>
+      </c>
+      <c r="K105">
+        <v>8.65248444978225</v>
+      </c>
+      <c r="M105">
+        <v>50</v>
+      </c>
+      <c r="N105">
+        <v>5.8039388750039694E-10</v>
+      </c>
+    </row>
+    <row r="106" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>50.5</v>
+      </c>
+      <c r="E106">
+        <v>1.5948729786260403E-7</v>
+      </c>
+      <c r="G106">
+        <v>50.5</v>
+      </c>
+      <c r="H106">
+        <v>-6.8745016045526676E-18</v>
+      </c>
+      <c r="J106">
+        <v>50.5</v>
+      </c>
+      <c r="K106">
+        <v>8.3660204430308447</v>
+      </c>
+      <c r="M106">
+        <v>50.5</v>
+      </c>
+      <c r="N106">
+        <v>4.4193188051809826E-10</v>
+      </c>
+    </row>
+    <row r="107" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>51</v>
+      </c>
+      <c r="E107">
+        <v>1.288503892403622E-7</v>
+      </c>
+      <c r="G107">
+        <v>51</v>
+      </c>
+      <c r="H107">
+        <v>-6.0448281247824623E-18</v>
+      </c>
+      <c r="J107">
+        <v>51</v>
+      </c>
+      <c r="K107">
+        <v>8.0907729978561278</v>
+      </c>
+      <c r="M107">
+        <v>51</v>
+      </c>
+      <c r="N107">
+        <v>3.3638490223231655E-10</v>
+      </c>
+    </row>
+    <row r="108" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>51.5</v>
+      </c>
+      <c r="E108">
+        <v>1.0407907451087598E-7</v>
+      </c>
+      <c r="G108">
+        <v>51.5</v>
+      </c>
+      <c r="H108">
+        <v>-5.5270219140268016E-18</v>
+      </c>
+      <c r="J108">
+        <v>51.5</v>
+      </c>
+      <c r="K108">
+        <v>7.8209489275179154</v>
+      </c>
+      <c r="M108">
+        <v>51.5</v>
+      </c>
+      <c r="N108">
+        <v>2.5609077665183386E-10</v>
+      </c>
+    </row>
+    <row r="109" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>52</v>
+      </c>
+      <c r="E109">
+        <v>8.4090339892486038E-8</v>
+      </c>
+      <c r="G109">
+        <v>52</v>
+      </c>
+      <c r="H109">
+        <v>-5.0092157032711401E-18</v>
+      </c>
+      <c r="J109">
+        <v>52</v>
+      </c>
+      <c r="K109">
+        <v>7.5596614245770928</v>
+      </c>
+      <c r="M109">
+        <v>52</v>
+      </c>
+      <c r="N109">
+        <v>1.9498575972740203E-10</v>
+      </c>
+    </row>
+    <row r="110" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>52.5</v>
+      </c>
+      <c r="E110">
+        <v>6.7920681024908589E-8</v>
+      </c>
+      <c r="G110">
+        <v>52.5</v>
+      </c>
+      <c r="H110">
+        <v>-4.4914094925154778E-18</v>
+      </c>
+      <c r="J110">
+        <v>52.5</v>
+      </c>
+      <c r="K110">
+        <v>7.3076028890751603</v>
+      </c>
+      <c r="M110">
+        <v>52.5</v>
+      </c>
+      <c r="N110">
+        <v>1.4840635201160839E-10</v>
+      </c>
+    </row>
+    <row r="111" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>53</v>
+      </c>
+      <c r="E111">
+        <v>5.4877939905247173E-8</v>
+      </c>
+      <c r="G111">
+        <v>53</v>
+      </c>
+      <c r="H111">
+        <v>-3.9736032817598318E-18</v>
+      </c>
+      <c r="J111">
+        <v>53</v>
+      </c>
+      <c r="K111">
+        <v>7.0647733210122237</v>
+      </c>
+      <c r="M111">
+        <v>53</v>
+      </c>
+      <c r="N111">
+        <v>1.1300902815051827E-10</v>
+      </c>
+    </row>
+    <row r="112" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>53.5</v>
+      </c>
+      <c r="E112">
+        <v>4.4324321022996177E-8</v>
+      </c>
+      <c r="G112">
+        <v>53.5</v>
+      </c>
+      <c r="H112">
+        <v>-3.4557970710041564E-18</v>
+      </c>
+      <c r="J112">
+        <v>53.5</v>
+      </c>
+      <c r="K112">
+        <v>6.8311727203882207</v>
+      </c>
+      <c r="M112">
+        <v>53.5</v>
+      </c>
+      <c r="N112">
+        <v>8.6008839113605907E-11</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>54</v>
+      </c>
+      <c r="E113">
+        <v>3.5812157995185783E-8</v>
+      </c>
+      <c r="G113">
+        <v>54</v>
+      </c>
+      <c r="H113">
+        <v>-2.9379908602485096E-18</v>
+      </c>
+      <c r="J113">
+        <v>54</v>
+      </c>
+      <c r="K113">
+        <v>6.6063015467492807</v>
+      </c>
+      <c r="M113">
+        <v>54</v>
+      </c>
+      <c r="N113">
+        <v>6.5485568246140411E-11</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>54.5</v>
+      </c>
+      <c r="E114">
+        <v>2.8925691835951521E-8</v>
+      </c>
+      <c r="G114">
+        <v>54.5</v>
+      </c>
+      <c r="H114">
+        <v>-2.4201846494928338E-18</v>
+      </c>
+      <c r="J114">
+        <v>54.5</v>
+      </c>
+      <c r="K114">
+        <v>6.3854506652919758</v>
+      </c>
+      <c r="M114">
+        <v>54.5</v>
+      </c>
+      <c r="N114">
+        <v>4.9851566226417739E-11</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>55</v>
+      </c>
+      <c r="E115">
+        <v>2.3370245507637991E-8</v>
+      </c>
+      <c r="G115">
+        <v>55</v>
+      </c>
+      <c r="H115">
+        <v>-1.9023784387371874E-18</v>
+      </c>
+      <c r="J115">
+        <v>55</v>
+      </c>
+      <c r="K115">
+        <v>6.1721933058775509</v>
+      </c>
+      <c r="M115">
+        <v>55</v>
+      </c>
+      <c r="N115">
+        <v>3.7948251849461414E-11</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>55.5</v>
+      </c>
+      <c r="E116">
+        <v>1.8876749781849514E-8</v>
+      </c>
+      <c r="G116">
+        <v>55.5</v>
+      </c>
+      <c r="H116">
+        <v>-1.3845722279815249E-18</v>
+      </c>
+      <c r="J116">
+        <v>55.5</v>
+      </c>
+      <c r="K116">
+        <v>5.9665294685060024</v>
+      </c>
+      <c r="M116">
+        <v>55.5</v>
+      </c>
+      <c r="N116">
+        <v>2.8898270450099927E-11</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>56</v>
+      </c>
+      <c r="E117">
+        <v>1.5250928942311302E-8</v>
+      </c>
+      <c r="G117">
+        <v>56</v>
+      </c>
+      <c r="H117">
+        <v>-8.6676601722586661E-19</v>
+      </c>
+      <c r="J117">
+        <v>56</v>
+      </c>
+      <c r="K117">
+        <v>5.7684591531772433</v>
+      </c>
+      <c r="M117">
+        <v>56</v>
+      </c>
+      <c r="N117">
+        <v>2.19919245934702E-11</v>
+      </c>
+    </row>
+    <row r="118" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>56.5</v>
+      </c>
+      <c r="E118">
+        <v>1.2318920785401482E-8</v>
+      </c>
+      <c r="G118">
+        <v>56.5</v>
+      </c>
+      <c r="H118">
+        <v>-3.4895980647020686E-19</v>
+      </c>
+      <c r="J118">
+        <v>56.5</v>
+      </c>
+      <c r="K118">
+        <v>5.5779823598913776</v>
+      </c>
+      <c r="M118">
+        <v>56.5</v>
+      </c>
+      <c r="N118">
+        <v>1.6745625551933855E-11</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>57</v>
+      </c>
+      <c r="E119">
+        <v>9.9524431960842157E-9</v>
+      </c>
+      <c r="G119">
+        <v>57</v>
+      </c>
+      <c r="H119">
+        <v>1.6884640428544834E-19</v>
+      </c>
+      <c r="J119">
+        <v>57</v>
+      </c>
+      <c r="K119">
+        <v>5.3937387556879566</v>
+      </c>
+      <c r="M119">
+        <v>57</v>
+      </c>
+      <c r="N119">
+        <v>1.2745959299800964E-11</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>57.5</v>
+      </c>
+      <c r="E120">
+        <v>8.0393376043006511E-9</v>
+      </c>
+      <c r="G120">
+        <v>57.5</v>
+      </c>
+      <c r="H120">
+        <v>6.8665261504110802E-19</v>
+      </c>
+      <c r="J120">
+        <v>57.5</v>
+      </c>
+      <c r="K120">
+        <v>5.2134464165291341</v>
+      </c>
+      <c r="M120">
+        <v>57.5</v>
+      </c>
+      <c r="N120">
+        <v>9.7037288990921661E-12</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>58</v>
+      </c>
+      <c r="E121">
+        <v>6.4947681869217552E-9</v>
+      </c>
+      <c r="G121">
+        <v>58</v>
+      </c>
+      <c r="H121">
+        <v>1.2044588257967619E-18</v>
+      </c>
+      <c r="J121">
+        <v>58</v>
+      </c>
+      <c r="K121">
+        <v>5.0394019459216404</v>
+      </c>
+      <c r="M121">
+        <v>58</v>
+      </c>
+      <c r="N121">
+        <v>7.388107100703686E-12</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>58.5</v>
+      </c>
+      <c r="E122">
+        <v>5.2465065183491073E-9</v>
+      </c>
+      <c r="G122">
+        <v>58.5</v>
+      </c>
+      <c r="H122">
+        <v>1.7222650365524112E-18</v>
+      </c>
+      <c r="J122">
+        <v>58.5</v>
+      </c>
+      <c r="K122">
+        <v>4.8716053438654185</v>
+      </c>
+      <c r="M122">
+        <v>58.5</v>
+      </c>
+      <c r="N122">
+        <v>5.6233453907270125E-12</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>59</v>
+      </c>
+      <c r="E123">
+        <v>4.2383643933218169E-9</v>
+      </c>
+      <c r="G123">
+        <v>59</v>
+      </c>
+      <c r="H123">
+        <v>2.2400712473080722E-18</v>
+      </c>
+      <c r="J123">
+        <v>59</v>
+      </c>
+      <c r="K123">
+        <v>4.7100566103605708</v>
+      </c>
+      <c r="M123">
+        <v>59</v>
+      </c>
+      <c r="N123">
+        <v>4.2821263223259132E-12</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>59.5</v>
+      </c>
+      <c r="E124">
+        <v>3.4239128402010267E-9</v>
+      </c>
+      <c r="G124">
+        <v>59.5</v>
+      </c>
+      <c r="H124">
+        <v>2.7578774580637487E-18</v>
+      </c>
+      <c r="J124">
+        <v>59.5</v>
+      </c>
+      <c r="K124">
+        <v>4.5547557454069327</v>
+      </c>
+      <c r="M124">
+        <v>59.5</v>
+      </c>
+      <c r="N124">
+        <v>3.2589799823210322E-12</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>60</v>
+      </c>
+      <c r="E125">
+        <v>2.765882820723451E-9</v>
+      </c>
+      <c r="G125">
+        <v>60</v>
+      </c>
+      <c r="H125">
+        <v>3.1531630502547648E-18</v>
+      </c>
+      <c r="J125">
+        <v>60</v>
+      </c>
+      <c r="K125">
+        <v>4.4037451787730761</v>
+      </c>
+      <c r="M125">
+        <v>60</v>
+      </c>
+      <c r="N125">
+        <v>2.4813680996824281E-12</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>60.5</v>
+      </c>
+      <c r="E126">
+        <v>2.2344874004459684E-9</v>
+      </c>
+      <c r="G126">
+        <v>60.5</v>
+      </c>
+      <c r="H126">
+        <v>3.1417427777537332E-18</v>
+      </c>
+      <c r="J126">
+        <v>60.5</v>
+      </c>
+      <c r="K126">
+        <v>4.2565722669273249</v>
+      </c>
+      <c r="M126">
+        <v>60.5</v>
+      </c>
+      <c r="N126">
+        <v>1.888915124115565E-12</v>
+      </c>
+    </row>
+    <row r="127" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>61</v>
+      </c>
+      <c r="E127">
+        <v>1.8049711606692983E-9</v>
+      </c>
+      <c r="G127">
+        <v>61</v>
+      </c>
+      <c r="H127">
+        <v>3.1303225052527155E-18</v>
+      </c>
+      <c r="J127">
+        <v>61</v>
+      </c>
+      <c r="K127">
+        <v>4.1145400176624625</v>
+      </c>
+      <c r="M127">
+        <v>61</v>
+      </c>
+      <c r="N127">
+        <v>1.4379227718780996E-12</v>
+      </c>
+    </row>
+    <row r="128" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <v>61.5</v>
+      </c>
+      <c r="E128">
+        <v>1.4582636168018289E-9</v>
+      </c>
+      <c r="G128">
+        <v>61.5</v>
+      </c>
+      <c r="H128">
+        <v>3.1189022327516835E-18</v>
+      </c>
+      <c r="J128">
+        <v>61.5</v>
+      </c>
+      <c r="K128">
+        <v>3.9776484309785327</v>
+      </c>
+      <c r="M128">
+        <v>61.5</v>
+      </c>
+      <c r="N128">
+        <v>1.0949669821330498E-12</v>
+      </c>
+    </row>
+    <row r="129" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>62</v>
+      </c>
+      <c r="E129">
+        <v>1.1778986554573181E-9</v>
+      </c>
+      <c r="G129">
+        <v>62</v>
+      </c>
+      <c r="H129">
+        <v>3.1074819602506665E-18</v>
+      </c>
+      <c r="J129">
+        <v>62</v>
+      </c>
+      <c r="K129">
+        <v>3.8458975068754464</v>
+      </c>
+      <c r="M129">
+        <v>62</v>
+      </c>
+      <c r="N129">
+        <v>8.3330515342982074E-13</v>
+      </c>
+    </row>
+    <row r="130" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>62.5</v>
+      </c>
+      <c r="E130">
+        <v>9.5169390985825195E-10</v>
+      </c>
+      <c r="G130">
+        <v>62.5</v>
+      </c>
+      <c r="H130">
+        <v>3.0960616877496496E-18</v>
+      </c>
+      <c r="J130">
+        <v>62.5</v>
+      </c>
+      <c r="K130">
+        <v>3.719287245353263</v>
+      </c>
+      <c r="M130">
+        <v>62.5</v>
+      </c>
+      <c r="N130">
+        <v>6.3452330976825642E-13</v>
+      </c>
+    </row>
+    <row r="131" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>63</v>
+      </c>
+      <c r="E131">
+        <v>7.6868236700656725E-10</v>
+      </c>
+      <c r="G131">
+        <v>63</v>
+      </c>
+      <c r="H131">
+        <v>3.0846414152486326E-18</v>
+      </c>
+      <c r="J131">
+        <v>63</v>
+      </c>
+      <c r="K131">
+        <v>3.5954701436814602</v>
+      </c>
+      <c r="M131">
+        <v>63</v>
+      </c>
+      <c r="N131">
+        <v>4.8295777639505143E-13</v>
+      </c>
+    </row>
+    <row r="132" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <v>63.5</v>
+      </c>
+      <c r="E132">
+        <v>6.2107038053456769E-10</v>
+      </c>
+      <c r="G132">
+        <v>63.5</v>
+      </c>
+      <c r="H132">
+        <v>3.0732211427476007E-18</v>
+      </c>
+      <c r="J132">
+        <v>63.5</v>
+      </c>
+      <c r="K132">
+        <v>3.4753403197617567</v>
+      </c>
+      <c r="M132">
+        <v>63.5</v>
+      </c>
+      <c r="N132">
+        <v>3.6769160116527795E-13</v>
+      </c>
+    </row>
+    <row r="133" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <v>64</v>
+      </c>
+      <c r="E133">
+        <v>5.0163451122881949E-10</v>
+      </c>
+      <c r="G133">
+        <v>64</v>
+      </c>
+      <c r="H133">
+        <v>3.0618008702465829E-18</v>
+      </c>
+      <c r="J133">
+        <v>64</v>
+      </c>
+      <c r="K133">
+        <v>3.3594401441287354</v>
+      </c>
+      <c r="M133">
+        <v>64</v>
+      </c>
+      <c r="N133">
+        <v>2.7993957713664783E-13</v>
+      </c>
+    </row>
+    <row r="134" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <v>64.5</v>
+      </c>
+      <c r="E134">
+        <v>4.0529712309235804E-10</v>
+      </c>
+      <c r="G134">
+        <v>64.5</v>
+      </c>
+      <c r="H134">
+        <v>3.050380597745566E-18</v>
+      </c>
+      <c r="J134">
+        <v>64.5</v>
+      </c>
+      <c r="K134">
+        <v>3.2477696167824104</v>
+      </c>
+      <c r="M134">
+        <v>64.5</v>
+      </c>
+      <c r="N134">
+        <v>2.130774991164345E-13</v>
+      </c>
+    </row>
+    <row r="135" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <v>65</v>
+      </c>
+      <c r="E135">
+        <v>3.273629660432383E-10</v>
+      </c>
+      <c r="G135">
+        <v>65</v>
+      </c>
+      <c r="H135">
+        <v>3.038960325244534E-18</v>
+      </c>
+      <c r="J135">
+        <v>65</v>
+      </c>
+      <c r="K135">
+        <v>3.1403287377227529</v>
+      </c>
+      <c r="M135">
+        <v>65</v>
+      </c>
+      <c r="N135">
+        <v>1.6225802065446015E-13</v>
+      </c>
+    </row>
+    <row r="136" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <v>65.5</v>
+      </c>
+      <c r="E136">
+        <v>2.6448823223830799E-10</v>
+      </c>
+      <c r="G136">
+        <v>65.5</v>
+      </c>
+      <c r="H136">
+        <v>3.0275400527435171E-18</v>
+      </c>
+      <c r="J136">
+        <v>65.5</v>
+      </c>
+      <c r="K136">
+        <v>3.0370891702273877</v>
+      </c>
+      <c r="M136">
+        <v>65.5</v>
+      </c>
+      <c r="N136">
+        <v>1.2323401926716726E-13</v>
+      </c>
+    </row>
+    <row r="137" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <v>66</v>
+      </c>
+      <c r="E137">
+        <v>2.136355559162532E-10</v>
+      </c>
+      <c r="G137">
+        <v>66</v>
+      </c>
+      <c r="H137">
+        <v>3.0161197802425001E-18</v>
+      </c>
+      <c r="J137">
+        <v>66</v>
+      </c>
+      <c r="K137">
+        <v>2.9355594039161943</v>
+      </c>
+      <c r="M137">
+        <v>66</v>
+      </c>
+      <c r="N137">
+        <v>9.3121986476474505E-14</v>
+      </c>
+    </row>
+    <row r="138" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>66.5</v>
+      </c>
+      <c r="E138">
+        <v>1.7259947327162182E-10</v>
+      </c>
+      <c r="G138">
+        <v>66.5</v>
+      </c>
+      <c r="H138">
+        <v>3.0046995077414832E-18</v>
+      </c>
+      <c r="J138">
+        <v>66.5</v>
+      </c>
+      <c r="K138">
+        <v>2.8375096939661604</v>
+      </c>
+      <c r="M138">
+        <v>66.5</v>
+      </c>
+      <c r="N138">
+        <v>7.042355651501483E-14</v>
+      </c>
+    </row>
+    <row r="139" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>67</v>
+      </c>
+      <c r="E139">
+        <v>1.3941822560232454E-10</v>
+      </c>
+      <c r="G139">
+        <v>67</v>
+      </c>
+      <c r="H139">
+        <v>2.9932792352404508E-18</v>
+      </c>
+      <c r="J139">
+        <v>67</v>
+      </c>
+      <c r="K139">
+        <v>2.7429400403772859</v>
+      </c>
+      <c r="M139">
+        <v>67</v>
+      </c>
+      <c r="N139">
+        <v>5.3087358711065456E-14</v>
+      </c>
+    </row>
+    <row r="140" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>67.5</v>
+      </c>
+      <c r="E140">
+        <v>1.126349069952969E-10</v>
+      </c>
+      <c r="G140">
+        <v>67.5</v>
+      </c>
+      <c r="H140">
+        <v>2.9818589627394338E-18</v>
+      </c>
+      <c r="J140" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="K140" s="4">
+        <v>2.6518504431495558</v>
+      </c>
+      <c r="M140">
+        <v>67.5</v>
+      </c>
+      <c r="N140">
+        <v>4.0058199625272627E-14</v>
+      </c>
+    </row>
+    <row r="141" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>68</v>
+      </c>
+      <c r="E141">
+        <v>9.0984576228033245E-11</v>
+      </c>
+      <c r="G141">
+        <v>68</v>
+      </c>
+      <c r="H141">
+        <v>2.9704386902384165E-18</v>
+      </c>
+      <c r="J141">
+        <v>68</v>
+      </c>
+      <c r="K141">
+        <v>2.5642409022830139</v>
+      </c>
+      <c r="M141">
+        <v>68</v>
+      </c>
+      <c r="N141">
+        <v>3.0273912848019133E-14</v>
+      </c>
+    </row>
+    <row r="142" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <v>68.5</v>
+      </c>
+      <c r="E142">
+        <v>7.3503347889579878E-11</v>
+      </c>
+      <c r="G142">
+        <v>68.5</v>
+      </c>
+      <c r="H142">
+        <v>2.9590184177373996E-18</v>
+      </c>
+      <c r="J142">
+        <v>68.5</v>
+      </c>
+      <c r="K142">
+        <v>2.479665731650841</v>
+      </c>
+      <c r="M142">
+        <v>68.5</v>
+      </c>
+      <c r="N142">
+        <v>2.2899580183588571E-14</v>
+      </c>
+    </row>
+    <row r="143" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>69</v>
+      </c>
+      <c r="E143">
+        <v>5.9377019886381254E-11</v>
+      </c>
+      <c r="G143">
+        <v>69</v>
+      </c>
+      <c r="H143">
+        <v>2.9475981452363826E-18</v>
+      </c>
+      <c r="J143">
+        <v>69</v>
+      </c>
+      <c r="K143">
+        <v>2.3967794478198368</v>
+      </c>
+      <c r="M143">
+        <v>69</v>
+      </c>
+      <c r="N143">
+        <v>1.7329568307423398E-14</v>
+      </c>
+    </row>
+    <row r="144" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <v>69.5</v>
+      </c>
+      <c r="E144">
+        <v>4.7966934727306519E-11</v>
+      </c>
+      <c r="G144">
+        <v>69.5</v>
+      </c>
+      <c r="H144">
+        <v>2.9361778727353506E-18</v>
+      </c>
+      <c r="J144">
+        <v>69.5</v>
+      </c>
+      <c r="K144">
+        <v>2.316756447134773</v>
+      </c>
+      <c r="M144">
+        <v>69.5</v>
+      </c>
+      <c r="N144">
+        <v>1.3117722076108357E-14</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <v>70</v>
+      </c>
+      <c r="E145">
+        <v>3.8749990390949658E-11</v>
+      </c>
+      <c r="G145">
+        <v>70</v>
+      </c>
+      <c r="H145">
+        <v>2.9021831146538968E-18</v>
+      </c>
+      <c r="J145">
+        <v>70</v>
+      </c>
+      <c r="K145">
+        <v>2.2395967295956658</v>
+      </c>
+      <c r="M145">
+        <v>70</v>
+      </c>
+      <c r="N145">
+        <v>9.9148387063226573E-15</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <v>70.5</v>
+      </c>
+      <c r="E146">
+        <v>3.1302404361978562E-11</v>
+      </c>
+      <c r="G146">
+        <v>70.5</v>
+      </c>
+      <c r="H146">
+        <v>2.793252596489494E-18</v>
+      </c>
+      <c r="J146">
+        <v>70.5</v>
+      </c>
+      <c r="K146">
+        <v>2.1653002952025444</v>
+      </c>
+      <c r="M146">
+        <v>70.5</v>
+      </c>
+      <c r="N146">
+        <v>7.335831893172328E-15</v>
+      </c>
+    </row>
+    <row r="147" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>71</v>
+      </c>
+      <c r="E147">
+        <v>2.52887623149963E-11</v>
+      </c>
+      <c r="G147">
+        <v>71</v>
+      </c>
+      <c r="H147">
+        <v>2.6843220783251057E-18</v>
+      </c>
+      <c r="J147">
+        <v>71</v>
+      </c>
+      <c r="K147">
+        <v>2.0938671439553782</v>
+      </c>
+      <c r="M147">
+        <v>71</v>
+      </c>
+      <c r="N147">
+        <v>5.4383154498859445E-15</v>
+      </c>
+    </row>
+    <row r="148" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <v>71.5</v>
+      </c>
+      <c r="E148">
+        <v>2.0427464827808039E-11</v>
+      </c>
+      <c r="G148">
+        <v>71.5</v>
+      </c>
+      <c r="H148">
+        <v>2.5753915601607025E-18</v>
+      </c>
+      <c r="J148">
+        <v>71.5</v>
+      </c>
+      <c r="K148">
+        <v>2.0245568334815451</v>
+      </c>
+      <c r="M148">
+        <v>71.5</v>
+      </c>
+      <c r="N148">
+        <v>3.9219822482957483E-15</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <v>72</v>
+      </c>
+      <c r="E149">
+        <v>1.6503897439979396E-11</v>
+      </c>
+      <c r="G149">
+        <v>72</v>
+      </c>
+      <c r="H149">
+        <v>2.4664610419962992E-18</v>
+      </c>
+      <c r="J149">
+        <v>72</v>
+      </c>
+      <c r="K149">
+        <v>1.9568944470970899</v>
+      </c>
+      <c r="M149">
+        <v>72</v>
+      </c>
+      <c r="N149">
+        <v>2.8548115620400811E-15</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <v>72.5</v>
+      </c>
+      <c r="E150">
+        <v>1.3330684441342993E-11</v>
+      </c>
+      <c r="G150">
+        <v>72.5</v>
+      </c>
+      <c r="H150">
+        <v>2.357530523831896E-18</v>
+      </c>
+      <c r="J150">
+        <v>72.5</v>
+      </c>
+      <c r="K150">
+        <v>1.8915878688594427</v>
+      </c>
+      <c r="M150">
+        <v>72.5</v>
+      </c>
+      <c r="N150">
+        <v>2.0705952860287537E-15</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <v>73</v>
+      </c>
+      <c r="E151">
+        <v>1.0770816305164056E-11</v>
+      </c>
+      <c r="G151">
+        <v>73</v>
+      </c>
+      <c r="H151">
+        <v>2.2486000056674931E-18</v>
+      </c>
+      <c r="J151">
+        <v>73</v>
+      </c>
+      <c r="K151">
+        <v>1.828637098768634</v>
+      </c>
+      <c r="M151">
+        <v>73</v>
+      </c>
+      <c r="N151">
+        <v>1.4760990205215558E-15</v>
+      </c>
+    </row>
+    <row r="152" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <v>73.5</v>
+      </c>
+      <c r="E152">
+        <v>8.6994498450255834E-12</v>
+      </c>
+      <c r="G152">
+        <v>73.5</v>
+      </c>
+      <c r="H152">
+        <v>2.1396694875031045E-18</v>
+      </c>
+      <c r="J152">
+        <v>73.5</v>
+      </c>
+      <c r="K152">
+        <v>1.7680421368246337</v>
+      </c>
+      <c r="M152">
+        <v>73.5</v>
+      </c>
+      <c r="N152">
+        <v>1.0860111653831324E-15</v>
+      </c>
+    </row>
+    <row r="153" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>74</v>
+      </c>
+      <c r="E153">
+        <v>7.028840257519852E-12</v>
+      </c>
+      <c r="G153">
+        <v>74</v>
+      </c>
+      <c r="H153">
+        <v>2.0307389693387016E-18</v>
+      </c>
+      <c r="J153">
+        <v>74</v>
+      </c>
+      <c r="K153">
+        <v>1.7098029830274717</v>
+      </c>
+      <c r="M153">
+        <v>74</v>
+      </c>
+      <c r="N153">
+        <v>7.6237178058027186E-16</v>
+      </c>
+    </row>
+    <row r="154" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>74.5</v>
+      </c>
+      <c r="E154">
+        <v>5.6771798109150857E-12</v>
+      </c>
+      <c r="G154">
+        <v>74.5</v>
+      </c>
+      <c r="H154">
+        <v>1.9218084511743134E-18</v>
+      </c>
+      <c r="J154">
+        <v>74.5</v>
+      </c>
+      <c r="K154">
+        <v>1.6529813795030148</v>
+      </c>
+      <c r="M154">
+        <v>74.5</v>
+      </c>
+      <c r="N154">
+        <v>5.6835270039987997E-16</v>
+      </c>
+    </row>
+    <row r="155" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>75</v>
+      </c>
+      <c r="E155">
+        <v>4.5868688100172832E-12</v>
+      </c>
+      <c r="G155">
+        <v>75</v>
+      </c>
+      <c r="H155">
+        <v>1.8128779330099097E-18</v>
+      </c>
+      <c r="J155">
+        <v>75</v>
+      </c>
+      <c r="K155">
+        <v>1.5977498118610662</v>
+      </c>
+      <c r="M155">
+        <v>75</v>
+      </c>
+      <c r="N155">
+        <v>4.1568602664506409E-16</v>
+      </c>
+    </row>
+    <row r="156" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>75.5</v>
+      </c>
+      <c r="E156">
+        <v>3.704888853246997E-12</v>
+      </c>
+      <c r="G156">
+        <v>75.5</v>
+      </c>
+      <c r="H156">
+        <v>1.7039474148455215E-18</v>
+      </c>
+      <c r="J156">
+        <v>75.5</v>
+      </c>
+      <c r="K156">
+        <v>1.5444565273362831</v>
+      </c>
+      <c r="M156">
+        <v>75.5</v>
+      </c>
+      <c r="N156">
+        <v>3.4024489889214681E-16</v>
+      </c>
+    </row>
+    <row r="157" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <v>76</v>
+      </c>
+      <c r="E157">
+        <v>2.9932920983940907E-12</v>
+      </c>
+      <c r="G157">
+        <v>76</v>
+      </c>
+      <c r="H157">
+        <v>1.5950168966811184E-18</v>
+      </c>
+      <c r="J157">
+        <v>76</v>
+      </c>
+      <c r="K157">
+        <v>1.4931015259286655</v>
+      </c>
+      <c r="M157">
+        <v>76</v>
+      </c>
+      <c r="N157">
+        <v>2.6478016163831979E-16</v>
+      </c>
+    </row>
+    <row r="158" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <v>76.5</v>
+      </c>
+      <c r="E158">
+        <v>2.4177955517698845E-12</v>
+      </c>
+      <c r="G158">
+        <v>76.5</v>
+      </c>
+      <c r="H158">
+        <v>1.4860863785167302E-18</v>
+      </c>
+      <c r="J158">
+        <v>76.5</v>
+      </c>
+      <c r="K158">
+        <v>1.4436848076382489</v>
+      </c>
+      <c r="M158">
+        <v>76.5</v>
+      </c>
+      <c r="N158">
+        <v>1.9051476955560982E-16</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <v>77</v>
+      </c>
+      <c r="E159">
+        <v>1.953359380017687E-12</v>
+      </c>
+      <c r="G159">
+        <v>77</v>
+      </c>
+      <c r="H159">
+        <v>1.3771558603523372E-18</v>
+      </c>
+      <c r="J159">
+        <v>77</v>
+      </c>
+      <c r="K159">
+        <v>1.3962063724649889</v>
+      </c>
+      <c r="M159">
+        <v>77</v>
+      </c>
+      <c r="N159">
+        <v>1.3057130824178948E-16</v>
+      </c>
+    </row>
+    <row r="160" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <v>77.5</v>
+      </c>
+      <c r="E160">
+        <v>1.5778510024117084E-12</v>
+      </c>
+      <c r="G160">
+        <v>77.5</v>
+      </c>
+      <c r="H160">
+        <v>1.2682253421879326E-18</v>
+      </c>
+      <c r="J160">
+        <v>77.5</v>
+      </c>
+      <c r="K160">
+        <v>1.3496058241959705</v>
+      </c>
+      <c r="M160">
+        <v>77.5</v>
+      </c>
+      <c r="N160">
+        <v>8.4949777696857634E-17</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <v>78</v>
+      </c>
+      <c r="E161">
+        <v>1.2747223941189745E-12</v>
+      </c>
+      <c r="G161">
+        <v>78</v>
+      </c>
+      <c r="H161">
+        <v>1.1592948240235384E-18</v>
+      </c>
+      <c r="J161">
+        <v>78</v>
+      </c>
+      <c r="K161">
+        <v>1.3045239365310566</v>
+      </c>
+      <c r="M161">
+        <v>78</v>
+      </c>
+      <c r="N161">
+        <v>5.8359073313868469E-17</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <v>78.5</v>
+      </c>
+      <c r="E162">
+        <v>1.0297092260377143E-12</v>
+      </c>
+      <c r="G162">
+        <v>78.5</v>
+      </c>
+      <c r="H162">
+        <v>1.0503643058591395E-18</v>
+      </c>
+      <c r="J162">
+        <v>78.5</v>
+      </c>
+      <c r="K162">
+        <v>1.2610368240838414</v>
+      </c>
+      <c r="M162">
+        <v>78.5</v>
+      </c>
+      <c r="N162">
+        <v>5.1457872368409672E-17</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <v>79</v>
+      </c>
+      <c r="E163">
+        <v>8.2976674227002489E-13</v>
+      </c>
+      <c r="G163">
+        <v>79</v>
+      </c>
+      <c r="H163">
+        <v>9.4143378769474089E-19</v>
+      </c>
+      <c r="J163">
+        <v>79</v>
+      </c>
+      <c r="K163">
+        <v>1.21914448685433</v>
+      </c>
+      <c r="M163">
+        <v>79</v>
+      </c>
+      <c r="N163">
+        <v>4.4556671422950868E-17</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <v>79.5</v>
+      </c>
+      <c r="E164">
+        <v>6.6780612262321419E-13</v>
+      </c>
+      <c r="G164">
+        <v>79.5</v>
+      </c>
+      <c r="H164">
+        <v>8.3250326953034361E-19</v>
+      </c>
+      <c r="J164">
+        <v>79.5</v>
+      </c>
+      <c r="K164">
+        <v>1.1788469248425157</v>
+      </c>
+      <c r="M164">
+        <v>79.5</v>
+      </c>
+      <c r="N164">
+        <v>3.7655470477491923E-17</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>80</v>
+      </c>
+      <c r="E165">
+        <v>5.3781929456255715E-13</v>
+      </c>
+      <c r="G165">
+        <v>80</v>
+      </c>
+      <c r="H165">
+        <v>7.3743312470099334E-19</v>
+      </c>
+      <c r="J165">
+        <v>80</v>
+      </c>
+      <c r="K165">
+        <v>1.1400190615184629</v>
+      </c>
+      <c r="M165">
+        <v>80</v>
+      </c>
+      <c r="N165">
+        <v>3.0754269532032971E-17</v>
+      </c>
+    </row>
+    <row r="166" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <v>80.5</v>
+      </c>
+      <c r="E166">
+        <v>4.3320455041741275E-13</v>
+      </c>
+      <c r="G166">
+        <v>80.5</v>
+      </c>
+      <c r="H166">
+        <v>6.8837233885320111E-19</v>
+      </c>
+      <c r="J166">
+        <v>80.5</v>
+      </c>
+      <c r="K166">
+        <v>1.1019117766578326</v>
+      </c>
+      <c r="M166">
+        <v>80.5</v>
+      </c>
+      <c r="N166">
+        <v>2.3853068586574174E-17</v>
+      </c>
+    </row>
+    <row r="167" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <v>81</v>
+      </c>
+      <c r="E167">
+        <v>3.4886959043938133E-13</v>
+      </c>
+      <c r="G167">
+        <v>81</v>
+      </c>
+      <c r="H167">
+        <v>6.3931155300540879E-19</v>
+      </c>
+      <c r="J167">
+        <v>81</v>
+      </c>
+      <c r="K167">
+        <v>1.0651166529059486</v>
+      </c>
+      <c r="M167">
+        <v>81</v>
+      </c>
+      <c r="N167">
+        <v>1.6951867641115225E-17</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>81.5</v>
+      </c>
+      <c r="E168">
+        <v>2.8057947732742846E-13</v>
+      </c>
+      <c r="G168">
+        <v>81.5</v>
+      </c>
+      <c r="H168">
+        <v>5.9025076715761945E-19</v>
+      </c>
+      <c r="J168">
+        <v>81.5</v>
+      </c>
+      <c r="K168">
+        <v>1.0296336902628016</v>
+      </c>
+      <c r="M168">
+        <v>81.5</v>
+      </c>
+      <c r="N168">
+        <v>1.0050666695656337E-17</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>82</v>
+      </c>
+      <c r="E169">
+        <v>2.2575408798180109E-13</v>
+      </c>
+      <c r="G169">
+        <v>82</v>
+      </c>
+      <c r="H169">
+        <v>5.4118998130983021E-19</v>
+      </c>
+      <c r="J169">
+        <v>82</v>
+      </c>
+      <c r="K169">
+        <v>0.99546288872839228</v>
+      </c>
+      <c r="M169">
+        <v>82</v>
+      </c>
+      <c r="N169">
+        <v>3.1494657501974789E-18</v>
+      </c>
+    </row>
+    <row r="170" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <v>82.5</v>
+      </c>
+      <c r="E170">
+        <v>1.8174853692613406E-13</v>
+      </c>
+      <c r="G170">
+        <v>82.5</v>
+      </c>
+      <c r="H170">
+        <v>4.9212919546203934E-19</v>
+      </c>
+      <c r="J170">
+        <v>82.5</v>
+      </c>
+      <c r="K170">
+        <v>0.96260424830272739</v>
+      </c>
+      <c r="M170">
+        <v>82.5</v>
+      </c>
+      <c r="N170">
+        <v>-2.934844419508258E-18</v>
+      </c>
+    </row>
+    <row r="171" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <v>83</v>
+      </c>
+      <c r="E171">
+        <v>1.4640354507050119E-13</v>
+      </c>
+      <c r="G171">
+        <v>83</v>
+      </c>
+      <c r="H171">
+        <v>4.4306840961424856E-19</v>
+      </c>
+      <c r="J171">
+        <v>83</v>
+      </c>
+      <c r="K171">
+        <v>0.93078842168734499</v>
+      </c>
+      <c r="M171">
+        <v>83</v>
+      </c>
+      <c r="N171">
+        <v>-4.2149296343522228E-18</v>
+      </c>
+    </row>
+    <row r="172" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <v>83.5</v>
+      </c>
+      <c r="E172">
+        <v>1.1795286975014621E-13</v>
+      </c>
+      <c r="G172">
+        <v>83.5</v>
+      </c>
+      <c r="H172">
+        <v>3.9400762376645922E-19</v>
+      </c>
+      <c r="J172">
+        <v>83.5</v>
+      </c>
+      <c r="K172">
+        <v>0.89967910169784282</v>
+      </c>
+      <c r="M172">
+        <v>83.5</v>
+      </c>
+      <c r="N172">
+        <v>-5.4950148491962025E-18</v>
+      </c>
+    </row>
+    <row r="173" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <v>84</v>
+      </c>
+      <c r="E173">
+        <v>9.5038836844053312E-14</v>
+      </c>
+      <c r="G173">
+        <v>84</v>
+      </c>
+      <c r="H173">
+        <v>3.4494683791866541E-19</v>
+      </c>
+      <c r="J173">
+        <v>84</v>
+      </c>
+      <c r="K173">
+        <v>0.86964942135894496</v>
+      </c>
+      <c r="M173">
+        <v>84</v>
+      </c>
+      <c r="N173">
+        <v>-6.7751000640402123E-18</v>
+      </c>
+    </row>
+    <row r="174" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <v>84.5</v>
+      </c>
+      <c r="E174">
+        <v>7.6524939075590002E-14</v>
+      </c>
+      <c r="G174">
+        <v>84.5</v>
+      </c>
+      <c r="H174">
+        <v>2.9588605207087612E-19</v>
+      </c>
+      <c r="J174">
+        <v>84.5</v>
+      </c>
+      <c r="K174">
+        <v>0.84069938067065275</v>
+      </c>
+      <c r="M174">
+        <v>84.5</v>
+      </c>
+      <c r="N174">
+        <v>-8.0551852788842067E-18</v>
+      </c>
+    </row>
+    <row r="175" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <v>85</v>
+      </c>
+      <c r="E175">
+        <v>6.1599208962601437E-14</v>
+      </c>
+      <c r="G175">
+        <v>85</v>
+      </c>
+      <c r="H175">
+        <v>2.4682526622308529E-19</v>
+      </c>
+      <c r="J175">
+        <v>85</v>
+      </c>
+      <c r="K175">
+        <v>0.81282897963296608</v>
+      </c>
+      <c r="M175">
+        <v>85</v>
+      </c>
+      <c r="N175">
+        <v>-9.3352704937281719E-18</v>
+      </c>
+    </row>
+    <row r="176" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <v>85.5</v>
+      </c>
+      <c r="E176">
+        <v>4.9603131518796661E-14</v>
+      </c>
+      <c r="G176">
+        <v>85.5</v>
+      </c>
+      <c r="H176">
+        <v>1.9776448037529449E-19</v>
+      </c>
+      <c r="J176">
+        <v>85.5</v>
+      </c>
+      <c r="K176">
+        <v>0.78603821824589104</v>
+      </c>
+      <c r="M176">
+        <v>85.5</v>
+      </c>
+      <c r="N176">
+        <v>-1.0615355708572166E-17</v>
+      </c>
+    </row>
+    <row r="177" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <v>86</v>
+      </c>
+      <c r="E177">
+        <v>3.9954204411542736E-14</v>
+      </c>
+      <c r="G177">
+        <v>86</v>
+      </c>
+      <c r="H177">
+        <v>1.4870369452750414E-19</v>
+      </c>
+      <c r="J177">
+        <v>86</v>
+      </c>
+      <c r="K177">
+        <v>0.75995865885750857</v>
+      </c>
+      <c r="M177">
+        <v>86</v>
+      </c>
+      <c r="N177">
+        <v>-1.189544092341613E-17</v>
+      </c>
+    </row>
+    <row r="178" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>86.5</v>
+      </c>
+      <c r="E178">
+        <v>3.2188228683691841E-14</v>
+      </c>
+      <c r="G178">
+        <v>86.5</v>
+      </c>
+      <c r="H178">
+        <v>9.9642908679713321E-20</v>
+      </c>
+      <c r="J178">
+        <v>86.5</v>
+      </c>
+      <c r="K178">
+        <v>0.73456376553185909</v>
+      </c>
+      <c r="M178">
+        <v>86.5</v>
+      </c>
+      <c r="N178">
+        <v>-1.3175526138260155E-17</v>
+      </c>
+    </row>
+    <row r="179" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>87</v>
+      </c>
+      <c r="E179">
+        <v>2.5934552750757753E-14</v>
+      </c>
+      <c r="G179">
+        <v>87</v>
+      </c>
+      <c r="H179">
+        <v>5.0582122831922517E-20</v>
+      </c>
+      <c r="J179">
+        <v>87</v>
+      </c>
+      <c r="K179">
+        <v>0.71005719894278407</v>
+      </c>
+      <c r="M179">
+        <v>87</v>
+      </c>
+      <c r="N179">
+        <v>-1.4455611353104105E-17</v>
+      </c>
+    </row>
+    <row r="180" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <v>87.5</v>
+      </c>
+      <c r="E180">
+        <v>2.0896389481315136E-14</v>
+      </c>
+      <c r="G180">
+        <v>87.5</v>
+      </c>
+      <c r="H180">
+        <v>1.521336984131856E-21</v>
+      </c>
+      <c r="J180">
+        <v>87.5</v>
+      </c>
+      <c r="K180">
+        <v>0.68643895909029684</v>
+      </c>
+      <c r="M180">
+        <v>87.5</v>
+      </c>
+      <c r="N180">
+        <v>-1.5735696567948042E-17</v>
+      </c>
+    </row>
+    <row r="181" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <v>88</v>
+      </c>
+      <c r="E181">
+        <v>1.6662746301659725E-14</v>
+      </c>
+      <c r="G181">
+        <v>88</v>
+      </c>
+      <c r="H181">
+        <v>-4.7539448863658804E-20</v>
+      </c>
+      <c r="J181">
+        <v>88</v>
+      </c>
+      <c r="K181">
+        <v>0.66370904597438563</v>
+      </c>
+      <c r="M181">
+        <v>88</v>
+      </c>
+      <c r="N181">
+        <v>-1.7015781782791992E-17</v>
+      </c>
+    </row>
+    <row r="182" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <v>88.5</v>
+      </c>
+      <c r="E182">
+        <v>1.3272882520458467E-14</v>
+      </c>
+      <c r="G182">
+        <v>88.5</v>
+      </c>
+      <c r="H182">
+        <v>-9.660023471144962E-20</v>
+      </c>
+      <c r="J182">
+        <v>88.5</v>
+      </c>
+      <c r="K182">
+        <v>0.64186745959505487</v>
+      </c>
+      <c r="M182">
+        <v>88.5</v>
+      </c>
+      <c r="N182">
+        <v>-1.8295866997636089E-17</v>
+      </c>
+    </row>
+    <row r="183" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <v>89</v>
+      </c>
+      <c r="E183">
+        <v>1.0512777939617799E-14</v>
+      </c>
+      <c r="G183">
+        <v>89</v>
+      </c>
+      <c r="H183">
+        <v>-1.4566102055923985E-19</v>
+      </c>
+      <c r="J183">
+        <v>89</v>
+      </c>
+      <c r="K183">
+        <v>0.62048211485198557</v>
+      </c>
+      <c r="M183">
+        <v>89</v>
+      </c>
+      <c r="N183">
+        <v>-1.9575952212479891E-17</v>
+      </c>
+    </row>
+    <row r="184" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>89.5</v>
+      </c>
+      <c r="E184">
+        <v>8.2948232713724298E-15</v>
+      </c>
+      <c r="G184">
+        <v>89.5</v>
+      </c>
+      <c r="H184">
+        <v>-1.9472180640703051E-19</v>
+      </c>
+      <c r="J184">
+        <v>89.5</v>
+      </c>
+      <c r="K184">
+        <v>0.59975327766075093</v>
+      </c>
+      <c r="M184">
+        <v>89.5</v>
+      </c>
+      <c r="N184">
+        <v>-2.0856037427323841E-17</v>
+      </c>
+    </row>
+    <row r="185" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <v>90</v>
+      </c>
+      <c r="E185">
+        <v>6.6122140942151831E-15</v>
+      </c>
+      <c r="G185">
+        <v>90</v>
+      </c>
+      <c r="H185">
+        <v>-2.3273544408153968E-19</v>
+      </c>
+      <c r="J185">
+        <v>90</v>
+      </c>
+      <c r="K185">
+        <v>0.57975535659138677</v>
+      </c>
+      <c r="M185">
+        <v>90</v>
+      </c>
+      <c r="N185">
+        <v>-2.2136122642167942E-17</v>
+      </c>
+    </row>
+    <row r="186" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <v>90.5</v>
+      </c>
+      <c r="E186">
+        <v>5.1802523123015231E-15</v>
+      </c>
+      <c r="G186">
+        <v>90.5</v>
+      </c>
+      <c r="H186">
+        <v>-2.3407819319188852E-19</v>
+      </c>
+      <c r="J186">
+        <v>90.5</v>
+      </c>
+      <c r="K186">
+        <v>0.56048835164390209</v>
+      </c>
+      <c r="M186">
+        <v>90.5</v>
+      </c>
+      <c r="N186">
+        <v>-2.3416207857011891E-17</v>
+      </c>
+    </row>
+    <row r="187" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <v>91</v>
+      </c>
+      <c r="E187">
+        <v>4.1367605467741242E-15</v>
+      </c>
+      <c r="G187">
+        <v>91</v>
+      </c>
+      <c r="H187">
+        <v>-2.3542094230224339E-19</v>
+      </c>
+      <c r="J187">
+        <v>91</v>
+      </c>
+      <c r="K187">
+        <v>0.5419522628182879</v>
+      </c>
+      <c r="M187">
+        <v>91</v>
+      </c>
+      <c r="N187">
+        <v>-2.4696293071855992E-17</v>
+      </c>
+    </row>
+    <row r="188" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <v>91.5</v>
+      </c>
+      <c r="E188">
+        <v>3.2418938530871334E-15</v>
+      </c>
+      <c r="G188">
+        <v>91.5</v>
+      </c>
+      <c r="H188">
+        <v>-2.3676369141259373E-19</v>
+      </c>
+      <c r="J188">
+        <v>91.5</v>
+      </c>
+      <c r="K188">
+        <v>0.52412496978016132</v>
+      </c>
+      <c r="M188">
+        <v>91.5</v>
+      </c>
+      <c r="N188">
+        <v>-2.5976378286699939E-17</v>
+      </c>
+    </row>
+    <row r="189" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <v>92</v>
+      </c>
+      <c r="E189">
+        <v>2.5616618532785702E-15</v>
+      </c>
+      <c r="G189">
+        <v>92</v>
+      </c>
+      <c r="H189">
+        <v>-2.3810644052294705E-19</v>
+      </c>
+      <c r="J189">
+        <v>92</v>
+      </c>
+      <c r="K189">
+        <v>0.50660453428066365</v>
+      </c>
+      <c r="M189">
+        <v>92</v>
+      </c>
+      <c r="N189">
+        <v>-2.5466266125192678E-17</v>
+      </c>
+    </row>
+    <row r="190" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <v>92.5</v>
+      </c>
+      <c r="E190">
+        <v>2.0321099694251841E-15</v>
+      </c>
+      <c r="G190">
+        <v>92.5</v>
+      </c>
+      <c r="H190">
+        <v>-2.3944918963329744E-19</v>
+      </c>
+      <c r="J190">
+        <v>92.5</v>
+      </c>
+      <c r="K190">
+        <v>0.4896854976389487</v>
+      </c>
+      <c r="M190">
+        <v>92.5</v>
+      </c>
+      <c r="N190">
+        <v>-2.4843087645727929E-17</v>
+      </c>
+    </row>
+    <row r="191" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <v>93</v>
+      </c>
+      <c r="E191">
+        <v>1.5941508717873029E-15</v>
+      </c>
+      <c r="G191">
+        <v>93</v>
+      </c>
+      <c r="H191">
+        <v>-2.4079193874364927E-19</v>
+      </c>
+      <c r="J191">
+        <v>93</v>
+      </c>
+      <c r="K191">
+        <v>0.4733678598550134</v>
+      </c>
+      <c r="M191">
+        <v>93</v>
+      </c>
+      <c r="N191">
+        <v>-2.4219909166263029E-17</v>
+      </c>
+    </row>
+    <row r="192" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>93.5</v>
+      </c>
+      <c r="E192">
+        <v>1.2770533952022366E-15</v>
+      </c>
+      <c r="G192">
+        <v>93.5</v>
+      </c>
+      <c r="H192">
+        <v>-2.4213468785400115E-19</v>
+      </c>
+      <c r="J192">
+        <v>93.5</v>
+      </c>
+      <c r="K192">
+        <v>0.45765162092886075</v>
+      </c>
+      <c r="M192">
+        <v>93.5</v>
+      </c>
+      <c r="N192">
+        <v>-2.3596730686798273E-17</v>
+      </c>
+    </row>
+    <row r="193" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <v>94</v>
+      </c>
+      <c r="E193">
+        <v>1.0160789907031365E-15</v>
+      </c>
+      <c r="G193">
+        <v>94</v>
+      </c>
+      <c r="H193">
+        <v>-2.4347743696435298E-19</v>
+      </c>
+      <c r="J193">
+        <v>94</v>
+      </c>
+      <c r="K193">
+        <v>0.4425367808604862</v>
+      </c>
+      <c r="M193">
+        <v>94</v>
+      </c>
+      <c r="N193">
+        <v>-2.2973552207333373E-17</v>
+      </c>
+    </row>
+    <row r="194" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <v>94.5</v>
+      </c>
+      <c r="E194">
+        <v>8.4069495232688364E-16</v>
+      </c>
+      <c r="G194">
+        <v>94.5</v>
+      </c>
+      <c r="H194">
+        <v>-2.4482018607470332E-19</v>
+      </c>
+      <c r="J194">
+        <v>94.5</v>
+      </c>
+      <c r="K194">
+        <v>0.42793105903320433</v>
+      </c>
+      <c r="M194">
+        <v>94.5</v>
+      </c>
+      <c r="N194">
+        <v>-2.2350373727868621E-17</v>
+      </c>
+    </row>
+    <row r="195" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <v>95</v>
+      </c>
+      <c r="E195">
+        <v>6.723462864110532E-16</v>
+      </c>
+      <c r="G195">
+        <v>95</v>
+      </c>
+      <c r="H195">
+        <v>-2.461629351850552E-19</v>
+      </c>
+      <c r="J195">
+        <v>95</v>
+      </c>
+      <c r="K195">
+        <v>0.41362767987194538</v>
+      </c>
+      <c r="M195">
+        <v>95</v>
+      </c>
+      <c r="N195">
+        <v>-2.1727195248403872E-17</v>
+      </c>
+    </row>
+    <row r="196" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>95.5</v>
+      </c>
+      <c r="E196">
+        <v>5.1996099524762451E-16</v>
+      </c>
+      <c r="G196">
+        <v>95.5</v>
+      </c>
+      <c r="H196">
+        <v>-2.4750568429540708E-19</v>
+      </c>
+      <c r="J196">
+        <v>95.5</v>
+      </c>
+      <c r="K196">
+        <v>0.39981913265105085</v>
+      </c>
+      <c r="M196">
+        <v>95.5</v>
+      </c>
+      <c r="N196">
+        <v>-2.1104016768938968E-17</v>
+      </c>
+    </row>
+    <row r="197" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>96</v>
+      </c>
+      <c r="E197">
+        <v>3.9425061756085784E-16</v>
+      </c>
+      <c r="G197">
+        <v>96</v>
+      </c>
+      <c r="H197">
+        <v>-2.4884843340575737E-19</v>
+      </c>
+      <c r="J197">
+        <v>96</v>
+      </c>
+      <c r="K197">
+        <v>0.38650541737052241</v>
+      </c>
+      <c r="M197">
+        <v>96</v>
+      </c>
+      <c r="N197">
+        <v>-2.0480838289474216E-17</v>
+      </c>
+    </row>
+    <row r="198" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>96.5</v>
+      </c>
+      <c r="E198">
+        <v>2.9521515335076206E-16</v>
+      </c>
+      <c r="G198">
+        <v>96.5</v>
+      </c>
+      <c r="H198">
+        <v>-2.501911825161092E-19</v>
+      </c>
+      <c r="J198">
+        <v>96.5</v>
+      </c>
+      <c r="K198">
+        <v>0.37368653403035995</v>
+      </c>
+      <c r="M198">
+        <v>96.5</v>
+      </c>
+      <c r="N198">
+        <v>-1.9857659810009464E-17</v>
+      </c>
+    </row>
+    <row r="199" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>97</v>
+      </c>
+      <c r="E199">
+        <v>2.2730687629734818E-16</v>
+      </c>
+      <c r="G199">
+        <v>97</v>
+      </c>
+      <c r="H199">
+        <v>-2.5153393162646262E-19</v>
+      </c>
+      <c r="J199">
+        <v>97</v>
+      </c>
+      <c r="K199">
+        <v>0.36136248263056209</v>
+      </c>
+      <c r="M199">
+        <v>97</v>
+      </c>
+      <c r="N199">
+        <v>-1.9234481330544563E-17</v>
+      </c>
+    </row>
+    <row r="200" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <v>97.5</v>
+      </c>
+      <c r="E200">
+        <v>2.067675212155752E-16</v>
+      </c>
+      <c r="G200">
+        <v>97.5</v>
+      </c>
+      <c r="H200">
+        <v>-2.5287668073681296E-19</v>
+      </c>
+      <c r="J200">
+        <v>97.5</v>
+      </c>
+      <c r="K200">
+        <v>0.3493918520975694</v>
+      </c>
+      <c r="M200">
+        <v>97.5</v>
+      </c>
+      <c r="N200">
+        <v>-1.8611302851079811E-17</v>
+      </c>
+    </row>
+    <row r="201" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <v>98</v>
+      </c>
+      <c r="E201">
+        <v>1.8622816613380227E-16</v>
+      </c>
+      <c r="G201">
+        <v>98</v>
+      </c>
+      <c r="H201">
+        <v>-2.5421942984716629E-19</v>
+      </c>
+      <c r="J201">
+        <v>98</v>
+      </c>
+      <c r="K201">
+        <v>0.33771554354273459</v>
+      </c>
+      <c r="M201">
+        <v>98</v>
+      </c>
+      <c r="N201">
+        <v>-1.7988124371615062E-17</v>
+      </c>
+    </row>
+    <row r="202" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <v>98.5</v>
+      </c>
+      <c r="E202">
+        <v>1.6568881105202929E-16</v>
+      </c>
+      <c r="G202">
+        <v>98.5</v>
+      </c>
+      <c r="H202">
+        <v>-2.5556217895751667E-19</v>
+      </c>
+      <c r="J202">
+        <v>98.5</v>
+      </c>
+      <c r="K202">
+        <v>0.32644638352537086</v>
+      </c>
+      <c r="M202">
+        <v>98.5</v>
+      </c>
+      <c r="N202">
+        <v>-1.7364945892150155E-17</v>
+      </c>
+    </row>
+    <row r="203" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <v>99</v>
+      </c>
+      <c r="E203">
+        <v>1.4514945597025649E-16</v>
+      </c>
+      <c r="G203">
+        <v>99</v>
+      </c>
+      <c r="H203">
+        <v>-2.569049280678685E-19</v>
+      </c>
+      <c r="J203">
+        <v>99</v>
+      </c>
+      <c r="K203">
+        <v>0.31558437204548417</v>
+      </c>
+      <c r="M203">
+        <v>99</v>
+      </c>
+      <c r="N203">
+        <v>-1.6741767412685406E-17</v>
+      </c>
+    </row>
+    <row r="204" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <v>99.5</v>
+      </c>
+      <c r="E204">
+        <v>1.2461010088848427E-16</v>
+      </c>
+      <c r="G204">
+        <v>99.5</v>
+      </c>
+      <c r="H204">
+        <v>-2.5824767717821884E-19</v>
+      </c>
+      <c r="J204">
+        <v>99.5</v>
+      </c>
+      <c r="K204">
+        <v>0.30512950910307146</v>
+      </c>
+      <c r="M204">
+        <v>99.5</v>
+      </c>
+      <c r="N204">
+        <v>-1.6118588933220506E-17</v>
+      </c>
+    </row>
+    <row r="205" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <v>100</v>
+      </c>
+      <c r="E205">
+        <v>1.040707458067116E-16</v>
+      </c>
+      <c r="G205">
+        <v>100</v>
+      </c>
+      <c r="H205">
+        <v>-2.5729383197996571E-19</v>
+      </c>
+      <c r="J205">
+        <v>100</v>
+      </c>
+      <c r="K205">
+        <v>0.29508179469813434</v>
+      </c>
+      <c r="M205">
+        <v>100</v>
+      </c>
+      <c r="N205">
+        <v>-1.5495410453755754E-17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>